--- a/Tennis/WTA Tour/Na Li.xlsx
+++ b/Tennis/WTA Tour/Na Li.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7346" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70A68D97-C46E-4EE0-BF3E-27A438A099B4}"/>
+  <xr:revisionPtr revIDLastSave="7348" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6106A7D-15C8-41C6-BD99-21C53C29FD6E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="16" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="15" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="1999" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,6 @@
     <sheet name="YTD Stats" sheetId="1" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1633,9 +1632,6 @@
     <t>ITALIAN OPEN</t>
   </si>
   <si>
-    <t>MUTUA MADRID OPEN</t>
-  </si>
-  <si>
     <t>Carla Suárez Navarro (SPAIN)</t>
   </si>
   <si>
@@ -2291,6 +2287,9 @@
   </si>
   <si>
     <t>Yvonne Meusburger (AUSTRIA)</t>
+  </si>
+  <si>
+    <t>MADRID OPEN</t>
   </si>
 </sst>
 </file>
@@ -2406,10 +2405,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2715,20 +2710,20 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -2748,7 +2743,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -2768,7 +2763,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -2782,7 +2777,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -2796,7 +2791,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -2810,7 +2805,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>41</v>
       </c>
@@ -2824,7 +2819,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>63</v>
       </c>
@@ -2844,7 +2839,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -2858,7 +2853,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -2872,7 +2867,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -2886,7 +2881,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>41</v>
       </c>
@@ -2900,7 +2895,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>75</v>
       </c>
@@ -2920,7 +2915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -2934,7 +2929,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>2</v>
       </c>
@@ -2948,7 +2943,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>0</v>
       </c>
@@ -2962,7 +2957,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>41</v>
       </c>
@@ -2976,7 +2971,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>81</v>
       </c>
@@ -2996,7 +2991,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -3010,7 +3005,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>3</v>
       </c>
@@ -3024,7 +3019,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>85</v>
       </c>
@@ -3044,7 +3039,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -3058,7 +3053,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>88</v>
       </c>
@@ -3078,7 +3073,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -3092,7 +3087,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>2</v>
       </c>
@@ -3106,7 +3101,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>93</v>
       </c>
@@ -3126,7 +3121,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>94</v>
       </c>
@@ -3146,7 +3141,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -3174,20 +3169,20 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -3207,7 +3202,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>315</v>
       </c>
@@ -3227,7 +3222,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -3241,7 +3236,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -3255,7 +3250,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -3269,7 +3264,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>41</v>
       </c>
@@ -3283,7 +3278,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>201</v>
       </c>
@@ -3303,7 +3298,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>25</v>
       </c>
@@ -3317,7 +3312,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -3331,7 +3326,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>470</v>
       </c>
@@ -3351,7 +3346,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>3</v>
       </c>
@@ -3365,7 +3360,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>2</v>
       </c>
@@ -3379,7 +3374,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>0</v>
       </c>
@@ -3393,7 +3388,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>329</v>
       </c>
@@ -3413,7 +3408,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>4</v>
       </c>
@@ -3427,7 +3422,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -3441,7 +3436,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>2</v>
       </c>
@@ -3455,7 +3450,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>0</v>
       </c>
@@ -3469,7 +3464,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>479</v>
       </c>
@@ -3489,7 +3484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -3503,7 +3498,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -3523,7 +3518,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>25</v>
       </c>
@@ -3537,7 +3532,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>192</v>
       </c>
@@ -3557,7 +3552,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>4</v>
       </c>
@@ -3571,7 +3566,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>3</v>
       </c>
@@ -3585,7 +3580,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>2</v>
       </c>
@@ -3599,7 +3594,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>0</v>
       </c>
@@ -3613,7 +3608,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -3633,7 +3628,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>25</v>
       </c>
@@ -3647,7 +3642,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>4</v>
       </c>
@@ -3661,7 +3656,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -3675,7 +3670,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>434</v>
       </c>
@@ -3695,7 +3690,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>275</v>
       </c>
@@ -3715,7 +3710,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>494</v>
       </c>
@@ -3735,7 +3730,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>3</v>
       </c>
@@ -3749,7 +3744,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>2</v>
       </c>
@@ -3763,7 +3758,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>427</v>
       </c>
@@ -3783,7 +3778,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>495</v>
       </c>
@@ -3803,7 +3798,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>498</v>
       </c>
@@ -3823,7 +3818,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>3</v>
       </c>
@@ -3837,7 +3832,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>2</v>
       </c>
@@ -3851,7 +3846,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>0</v>
       </c>
@@ -3880,20 +3875,20 @@
   <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -3913,7 +3908,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>508</v>
       </c>
@@ -3933,7 +3928,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -3947,7 +3942,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>334</v>
       </c>
@@ -3967,7 +3962,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>511</v>
       </c>
@@ -3987,7 +3982,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -4001,7 +3996,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -4015,7 +4010,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>0</v>
       </c>
@@ -4029,7 +4024,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>41</v>
       </c>
@@ -4043,7 +4038,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>373</v>
       </c>
@@ -4063,7 +4058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>25</v>
       </c>
@@ -4077,7 +4072,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -4091,7 +4086,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -4105,7 +4100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>378</v>
       </c>
@@ -4125,7 +4120,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>25</v>
       </c>
@@ -4139,7 +4134,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -4153,7 +4148,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -4167,7 +4162,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -4181,7 +4176,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>494</v>
       </c>
@@ -4201,7 +4196,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -4215,7 +4210,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>526</v>
       </c>
@@ -4235,9 +4230,9 @@
         <v>524</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>527</v>
+        <v>746</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
@@ -4246,7 +4241,7 @@
         <v>25</v>
       </c>
       <c r="D29" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>19</v>
@@ -4255,7 +4250,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>4</v>
       </c>
@@ -4269,7 +4264,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>399</v>
       </c>
@@ -4289,12 +4284,12 @@
         <v>415</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>25</v>
       </c>
       <c r="D33" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>19</v>
@@ -4303,12 +4298,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>19</v>
@@ -4317,7 +4312,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -4331,7 +4326,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>401</v>
       </c>
@@ -4342,21 +4337,21 @@
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F37" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>19</v>
@@ -4365,12 +4360,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>19</v>
@@ -4379,7 +4374,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>0</v>
       </c>
@@ -4393,21 +4388,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>41</v>
       </c>
       <c r="D41" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F41" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>479</v>
       </c>
@@ -4418,7 +4413,7 @@
         <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>19</v>
@@ -4427,7 +4422,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -4438,10 +4433,10 @@
         <v>18</v>
       </c>
       <c r="F44" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>34</v>
       </c>
@@ -4452,21 +4447,21 @@
         <v>322</v>
       </c>
       <c r="D46" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F46" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>25</v>
       </c>
       <c r="D47" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>19</v>
@@ -4475,7 +4470,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>4</v>
       </c>
@@ -4489,9 +4484,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B50" t="s">
         <v>17</v>
@@ -4509,7 +4504,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>347</v>
       </c>
@@ -4526,10 +4521,10 @@
         <v>19</v>
       </c>
       <c r="F52" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>4</v>
       </c>
@@ -4543,7 +4538,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -4557,7 +4552,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>39</v>
       </c>
@@ -4568,21 +4563,21 @@
         <v>322</v>
       </c>
       <c r="D56" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F56" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>25</v>
       </c>
       <c r="D57" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>19</v>
@@ -4591,7 +4586,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>4</v>
       </c>
@@ -4605,12 +4600,12 @@
         <v>415</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>19</v>
@@ -4619,7 +4614,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -4633,7 +4628,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>434</v>
       </c>
@@ -4644,7 +4639,7 @@
         <v>25</v>
       </c>
       <c r="D62" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>19</v>
@@ -4653,7 +4648,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>4</v>
       </c>
@@ -4667,21 +4662,21 @@
         <v>245</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>3</v>
       </c>
       <c r="D64" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F64" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>2</v>
       </c>
@@ -4692,10 +4687,10 @@
         <v>19</v>
       </c>
       <c r="F65" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>0</v>
       </c>
@@ -4709,7 +4704,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>275</v>
       </c>
@@ -4726,10 +4721,10 @@
         <v>19</v>
       </c>
       <c r="F68" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -4758,20 +4753,20 @@
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -4791,9 +4786,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -4811,7 +4806,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>362</v>
       </c>
@@ -4828,10 +4823,10 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -4845,7 +4840,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>201</v>
       </c>
@@ -4856,7 +4851,7 @@
         <v>322</v>
       </c>
       <c r="D7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>19</v>
@@ -4865,7 +4860,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>25</v>
       </c>
@@ -4876,10 +4871,10 @@
         <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -4890,10 +4885,10 @@
         <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -4907,7 +4902,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -4918,10 +4913,10 @@
         <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -4932,10 +4927,10 @@
         <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>334</v>
       </c>
@@ -4946,30 +4941,30 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>2</v>
       </c>
@@ -4980,30 +4975,30 @@
         <v>18</v>
       </c>
       <c r="F16" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
         <v>567</v>
       </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" t="s">
-        <v>568</v>
-      </c>
       <c r="E18" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>373</v>
       </c>
@@ -5014,16 +5009,16 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F20" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>378</v>
       </c>
@@ -5034,16 +5029,16 @@
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F22" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>494</v>
       </c>
@@ -5054,7 +5049,7 @@
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>19</v>
@@ -5063,7 +5058,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -5077,7 +5072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>2</v>
       </c>
@@ -5091,9 +5086,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>527</v>
+        <v>746</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
@@ -5102,7 +5097,7 @@
         <v>25</v>
       </c>
       <c r="D28" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>19</v>
@@ -5111,7 +5106,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>4</v>
       </c>
@@ -5122,15 +5117,15 @@
         <v>19</v>
       </c>
       <c r="F29" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>19</v>
@@ -5139,7 +5134,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>2</v>
       </c>
@@ -5150,12 +5145,12 @@
         <v>18</v>
       </c>
       <c r="F31" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B33" t="s">
         <v>29</v>
@@ -5164,7 +5159,7 @@
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>19</v>
@@ -5173,12 +5168,12 @@
         <v>446</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>19</v>
@@ -5187,7 +5182,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>2</v>
       </c>
@@ -5201,21 +5196,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F36" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>399</v>
       </c>
@@ -5226,7 +5221,7 @@
         <v>322</v>
       </c>
       <c r="D38" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>19</v>
@@ -5235,7 +5230,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>25</v>
       </c>
@@ -5249,12 +5244,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>18</v>
@@ -5263,7 +5258,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>401</v>
       </c>
@@ -5274,7 +5269,7 @@
         <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>19</v>
@@ -5283,21 +5278,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F43" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>2</v>
       </c>
@@ -5311,12 +5306,12 @@
         <v>415</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>0</v>
       </c>
       <c r="D45" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>19</v>
@@ -5325,12 +5320,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>41</v>
       </c>
       <c r="D46" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>19</v>
@@ -5339,7 +5334,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>479</v>
       </c>
@@ -5350,16 +5345,16 @@
         <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F48" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>34</v>
       </c>
@@ -5370,21 +5365,21 @@
         <v>322</v>
       </c>
       <c r="D50" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F50" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>25</v>
       </c>
       <c r="D51" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>19</v>
@@ -5393,7 +5388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>4</v>
       </c>
@@ -5407,7 +5402,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>3</v>
       </c>
@@ -5421,7 +5416,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>2</v>
       </c>
@@ -5432,21 +5427,21 @@
         <v>18</v>
       </c>
       <c r="F54" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>589</v>
+      </c>
+      <c r="B56" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" t="s">
         <v>590</v>
-      </c>
-      <c r="B56" t="s">
-        <v>17</v>
-      </c>
-      <c r="C56" t="s">
-        <v>4</v>
-      </c>
-      <c r="D56" t="s">
-        <v>591</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>19</v>
@@ -5455,12 +5450,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>3</v>
       </c>
       <c r="D57" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>19</v>
@@ -5469,12 +5464,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>19</v>
@@ -5483,24 +5478,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>0</v>
       </c>
       <c r="D59" t="s">
+        <v>591</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>592</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F59" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>593</v>
-      </c>
       <c r="B61" t="s">
         <v>17</v>
       </c>
@@ -5508,7 +5503,7 @@
         <v>4</v>
       </c>
       <c r="D61" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>19</v>
@@ -5517,21 +5512,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>3</v>
       </c>
       <c r="D62" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F62" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>349</v>
       </c>
@@ -5542,7 +5537,7 @@
         <v>4</v>
       </c>
       <c r="D64" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>19</v>
@@ -5551,7 +5546,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>3</v>
       </c>
@@ -5565,7 +5560,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>39</v>
       </c>
@@ -5576,16 +5571,16 @@
         <v>322</v>
       </c>
       <c r="D67" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F67" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>275</v>
       </c>
@@ -5596,7 +5591,7 @@
         <v>25</v>
       </c>
       <c r="D69" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>19</v>
@@ -5605,12 +5600,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>4</v>
       </c>
       <c r="D70" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>19</v>
@@ -5619,12 +5614,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>3</v>
       </c>
       <c r="D71" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>19</v>
@@ -5633,12 +5628,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>2</v>
       </c>
       <c r="D72" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>19</v>
@@ -5647,7 +5642,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>0</v>
       </c>
@@ -5661,7 +5656,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>427</v>
       </c>
@@ -5681,9 +5676,9 @@
         <v>415</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B77" t="s">
         <v>17</v>
@@ -5692,13 +5687,13 @@
         <v>2</v>
       </c>
       <c r="D77" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F77" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
   </sheetData>
@@ -5715,20 +5710,20 @@
   <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -5748,7 +5743,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>362</v>
       </c>
@@ -5768,7 +5763,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -5779,10 +5774,10 @@
         <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -5793,15 +5788,15 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
@@ -5810,7 +5805,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>41</v>
       </c>
@@ -5821,10 +5816,10 @@
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>201</v>
       </c>
@@ -5841,29 +5836,29 @@
         <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F9" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
         <v>605</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>606</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>19</v>
@@ -5872,7 +5867,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -5883,15 +5878,15 @@
         <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>19</v>
@@ -5900,7 +5895,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>0</v>
       </c>
@@ -5911,10 +5906,10 @@
         <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>41</v>
       </c>
@@ -5928,7 +5923,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>334</v>
       </c>
@@ -5939,16 +5934,16 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>329</v>
       </c>
@@ -5959,7 +5954,7 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>18</v>
@@ -5968,7 +5963,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>373</v>
       </c>
@@ -5988,7 +5983,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>378</v>
       </c>
@@ -5999,16 +5994,16 @@
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F22" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>494</v>
       </c>
@@ -6019,7 +6014,7 @@
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>19</v>
@@ -6028,23 +6023,23 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F25" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>527</v>
+        <v>746</v>
       </c>
       <c r="B27" t="s">
         <v>29</v>
@@ -6053,16 +6048,16 @@
         <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F27" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -6076,7 +6071,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -6087,29 +6082,29 @@
         <v>19</v>
       </c>
       <c r="F29" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F30" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>18</v>
@@ -6118,7 +6113,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>526</v>
       </c>
@@ -6138,12 +6133,12 @@
         <v>415</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>19</v>
@@ -6152,7 +6147,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>2</v>
       </c>
@@ -6166,7 +6161,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -6177,10 +6172,10 @@
         <v>18</v>
       </c>
       <c r="F36" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>399</v>
       </c>
@@ -6191,21 +6186,21 @@
         <v>322</v>
       </c>
       <c r="D38" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F38" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>25</v>
       </c>
       <c r="D39" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>19</v>
@@ -6214,35 +6209,35 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F40" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F41" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>2</v>
       </c>
@@ -6253,10 +6248,10 @@
         <v>19</v>
       </c>
       <c r="F42" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>0</v>
       </c>
@@ -6267,10 +6262,10 @@
         <v>19</v>
       </c>
       <c r="F43" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>41</v>
       </c>
@@ -6281,10 +6276,10 @@
         <v>19</v>
       </c>
       <c r="F44" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>479</v>
       </c>
@@ -6295,7 +6290,7 @@
         <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>19</v>
@@ -6304,7 +6299,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -6318,7 +6313,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>34</v>
       </c>
@@ -6329,7 +6324,7 @@
         <v>322</v>
       </c>
       <c r="D49" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>19</v>
@@ -6338,21 +6333,21 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>25</v>
       </c>
       <c r="D50" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F50" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>349</v>
       </c>
@@ -6372,9 +6367,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B54" t="s">
         <v>17</v>
@@ -6392,7 +6387,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -6403,10 +6398,10 @@
         <v>18</v>
       </c>
       <c r="F55" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>419</v>
       </c>
@@ -6423,10 +6418,10 @@
         <v>19</v>
       </c>
       <c r="F57" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>2</v>
       </c>
@@ -6440,7 +6435,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>0</v>
       </c>
@@ -6451,10 +6446,10 @@
         <v>18</v>
       </c>
       <c r="F59" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>39</v>
       </c>
@@ -6465,7 +6460,7 @@
         <v>322</v>
       </c>
       <c r="D61" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>18</v>
@@ -6474,7 +6469,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>275</v>
       </c>
@@ -6485,7 +6480,7 @@
         <v>25</v>
       </c>
       <c r="D63" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>18</v>
@@ -6494,29 +6489,29 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
+        <v>695</v>
+      </c>
+      <c r="B65" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" t="s">
         <v>696</v>
       </c>
-      <c r="B65" t="s">
-        <v>17</v>
-      </c>
-      <c r="C65" t="s">
-        <v>697</v>
-      </c>
       <c r="D65" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F65" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D66" t="s">
         <v>464</v>
@@ -6528,9 +6523,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D67" t="s">
         <v>436</v>
@@ -6556,20 +6551,20 @@
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C6"/>
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -6589,9 +6584,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -6609,21 +6604,21 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -6634,24 +6629,24 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>41</v>
       </c>
@@ -6665,7 +6660,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>201</v>
       </c>
@@ -6676,7 +6671,7 @@
         <v>322</v>
       </c>
       <c r="D8" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>19</v>
@@ -6685,21 +6680,21 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -6710,10 +6705,10 @@
         <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -6724,10 +6719,10 @@
         <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>508</v>
       </c>
@@ -6744,10 +6739,10 @@
         <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>373</v>
       </c>
@@ -6767,7 +6762,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -6781,12 +6776,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>19</v>
@@ -6795,12 +6790,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>18</v>
@@ -6809,7 +6804,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>378</v>
       </c>
@@ -6820,7 +6815,7 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>19</v>
@@ -6829,7 +6824,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -6843,12 +6838,12 @@
         <v>380</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>19</v>
@@ -6857,7 +6852,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>2</v>
       </c>
@@ -6871,7 +6866,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>494</v>
       </c>
@@ -6888,15 +6883,15 @@
         <v>19</v>
       </c>
       <c r="F25" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>19</v>
@@ -6905,7 +6900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -6919,9 +6914,9 @@
         <v>395</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>527</v>
+        <v>746</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
@@ -6930,7 +6925,7 @@
         <v>25</v>
       </c>
       <c r="D29" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>19</v>
@@ -6939,12 +6934,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>19</v>
@@ -6953,12 +6948,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>19</v>
@@ -6967,7 +6962,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>2</v>
       </c>
@@ -6981,7 +6976,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>526</v>
       </c>
@@ -7001,12 +6996,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>19</v>
@@ -7015,7 +7010,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -7029,7 +7024,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>0</v>
       </c>
@@ -7043,7 +7038,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>41</v>
       </c>
@@ -7054,10 +7049,10 @@
         <v>18</v>
       </c>
       <c r="F38" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>399</v>
       </c>
@@ -7068,44 +7063,44 @@
         <v>322</v>
       </c>
       <c r="D40" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F40" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>25</v>
       </c>
       <c r="D41" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F41" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F42" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>3</v>
       </c>
@@ -7116,10 +7111,10 @@
         <v>18</v>
       </c>
       <c r="F43" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>34</v>
       </c>
@@ -7130,21 +7125,21 @@
         <v>322</v>
       </c>
       <c r="D45" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F45" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>25</v>
       </c>
       <c r="D46" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>18</v>
@@ -7153,7 +7148,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>192</v>
       </c>
@@ -7170,10 +7165,10 @@
         <v>18</v>
       </c>
       <c r="F48" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>349</v>
       </c>
@@ -7184,7 +7179,7 @@
         <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>19</v>
@@ -7193,12 +7188,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>19</v>
@@ -7207,7 +7202,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>2</v>
       </c>
@@ -7221,7 +7216,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>0</v>
       </c>
@@ -7235,23 +7230,23 @@
         <v>462</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>41</v>
       </c>
       <c r="D54" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F54" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B56" t="s">
         <v>17</v>
@@ -7260,21 +7255,21 @@
         <v>4</v>
       </c>
       <c r="D56" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F56" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>3</v>
       </c>
       <c r="D57" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>19</v>
@@ -7283,7 +7278,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>2</v>
       </c>
@@ -7297,35 +7292,35 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>0</v>
       </c>
       <c r="D59" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F59" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>41</v>
       </c>
       <c r="D60" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F60" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>39</v>
       </c>
@@ -7336,35 +7331,35 @@
         <v>322</v>
       </c>
       <c r="D62" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F62" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>25</v>
       </c>
       <c r="D63" t="s">
+        <v>665</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F63" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C64" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" t="s">
         <v>666</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F63" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C64" t="s">
-        <v>4</v>
-      </c>
-      <c r="D64" t="s">
-        <v>667</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>18</v>
@@ -7373,7 +7368,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>434</v>
       </c>
@@ -7384,16 +7379,16 @@
         <v>4</v>
       </c>
       <c r="D66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F66" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>3</v>
       </c>
@@ -7407,7 +7402,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>275</v>
       </c>
@@ -7427,12 +7422,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>4</v>
       </c>
       <c r="D70" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>19</v>
@@ -7441,21 +7436,21 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>3</v>
       </c>
       <c r="D71" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F71" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>2</v>
       </c>
@@ -7469,12 +7464,12 @@
         <v>415</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>0</v>
       </c>
       <c r="D73" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>18</v>
@@ -7483,15 +7478,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
+        <v>695</v>
+      </c>
+      <c r="B75" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75" t="s">
         <v>696</v>
-      </c>
-      <c r="B75" t="s">
-        <v>17</v>
-      </c>
-      <c r="C75" t="s">
-        <v>697</v>
       </c>
       <c r="D75" t="s">
         <v>366</v>
@@ -7503,12 +7498,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D76" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>19</v>
@@ -7517,9 +7512,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D77" t="s">
         <v>464</v>
@@ -7528,7 +7523,7 @@
         <v>18</v>
       </c>
       <c r="F77" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
   </sheetData>
@@ -7545,21 +7540,21 @@
   </sheetPr>
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:C19"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -7579,18 +7574,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>681</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
         <v>682</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>683</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>19</v>
@@ -7599,12 +7594,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>19</v>
@@ -7613,12 +7608,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>19</v>
@@ -7627,12 +7622,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
@@ -7641,21 +7636,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>362</v>
       </c>
@@ -7666,21 +7661,21 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>19</v>
@@ -7689,21 +7684,21 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -7717,7 +7712,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>201</v>
       </c>
@@ -7728,58 +7723,58 @@
         <v>322</v>
       </c>
       <c r="D13" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F16" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>2</v>
       </c>
@@ -7790,24 +7785,24 @@
         <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F18" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>41</v>
       </c>
@@ -7818,10 +7813,10 @@
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>378</v>
       </c>
@@ -7832,7 +7827,7 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>19</v>
@@ -7841,12 +7836,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>19</v>
@@ -7855,12 +7850,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>19</v>
@@ -7869,7 +7864,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -7880,10 +7875,10 @@
         <v>18</v>
       </c>
       <c r="F24" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>494</v>
       </c>
@@ -7894,21 +7889,21 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
+        <v>692</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" t="s">
         <v>693</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>19</v>
@@ -7917,12 +7912,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>19</v>
@@ -7931,23 +7926,23 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>41</v>
       </c>
       <c r="D29" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F29" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>527</v>
+        <v>746</v>
       </c>
       <c r="B31" t="s">
         <v>29</v>
@@ -7956,7 +7951,7 @@
         <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>18</v>
@@ -7965,7 +7960,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>526</v>
       </c>
@@ -7985,7 +7980,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -7996,10 +7991,10 @@
         <v>18</v>
       </c>
       <c r="F34" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>399</v>
       </c>
@@ -8010,30 +8005,30 @@
         <v>322</v>
       </c>
       <c r="D36" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F36" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>25</v>
       </c>
       <c r="D37" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F37" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>479</v>
       </c>
@@ -8044,7 +8039,7 @@
         <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>19</v>
@@ -8053,12 +8048,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>19</v>
@@ -8067,7 +8062,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>2</v>
       </c>
@@ -8078,10 +8073,10 @@
         <v>18</v>
       </c>
       <c r="F41" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>34</v>
       </c>
@@ -8092,58 +8087,58 @@
         <v>322</v>
       </c>
       <c r="D43" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F43" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>25</v>
       </c>
       <c r="D44" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F44" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F45" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F46" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>2</v>
       </c>
@@ -8154,10 +8149,10 @@
         <v>18</v>
       </c>
       <c r="F47" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>349</v>
       </c>
@@ -8168,7 +8163,7 @@
         <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>19</v>
@@ -8177,7 +8172,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>3</v>
       </c>
@@ -8188,10 +8183,10 @@
         <v>19</v>
       </c>
       <c r="F50" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>2</v>
       </c>
@@ -8202,26 +8197,26 @@
         <v>19</v>
       </c>
       <c r="F51" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>0</v>
       </c>
       <c r="D52" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F52" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B54" t="s">
         <v>17</v>
@@ -8230,21 +8225,21 @@
         <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F54" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>19</v>
@@ -8253,7 +8248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>2</v>
       </c>
@@ -8267,7 +8262,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>0</v>
       </c>
@@ -8281,7 +8276,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>39</v>
       </c>
@@ -8292,44 +8287,44 @@
         <v>322</v>
       </c>
       <c r="D59" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F59" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>25</v>
       </c>
       <c r="D60" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F60" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>4</v>
       </c>
       <c r="D61" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F61" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>3</v>
       </c>
@@ -8340,10 +8335,10 @@
         <v>19</v>
       </c>
       <c r="F62" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>2</v>
       </c>
@@ -8357,7 +8352,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>0</v>
       </c>
@@ -8371,7 +8366,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>275</v>
       </c>
@@ -8391,12 +8386,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>4</v>
       </c>
       <c r="D67" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>19</v>
@@ -8405,12 +8400,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>3</v>
       </c>
       <c r="D68" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>19</v>
@@ -8419,43 +8414,43 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>2</v>
       </c>
       <c r="D69" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F69" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
+        <v>695</v>
+      </c>
+      <c r="B71" t="s">
+        <v>17</v>
+      </c>
+      <c r="C71" t="s">
         <v>696</v>
       </c>
-      <c r="B71" t="s">
-        <v>17</v>
-      </c>
-      <c r="C71" t="s">
-        <v>697</v>
-      </c>
       <c r="D71" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F71" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D72" t="s">
         <v>287</v>
@@ -8464,12 +8459,12 @@
         <v>19</v>
       </c>
       <c r="F72" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D73" t="s">
         <v>464</v>
@@ -8481,12 +8476,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>0</v>
       </c>
       <c r="D74" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>19</v>
@@ -8495,7 +8490,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>41</v>
       </c>
@@ -8506,7 +8501,7 @@
         <v>18</v>
       </c>
       <c r="F75" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
   </sheetData>
@@ -8523,21 +8518,21 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A42" activeCellId="8" sqref="A2 A8 A16 A19 A25 A31 A36 A40 A42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -8557,9 +8552,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -8577,12 +8572,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>19</v>
@@ -8591,26 +8586,26 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
@@ -8619,12 +8614,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>19</v>
@@ -8633,7 +8628,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>201</v>
       </c>
@@ -8644,30 +8639,30 @@
         <v>322</v>
       </c>
       <c r="D8" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -8678,10 +8673,10 @@
         <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -8695,7 +8690,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -8709,21 +8704,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>41</v>
       </c>
@@ -8734,10 +8729,10 @@
         <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>329</v>
       </c>
@@ -8748,16 +8743,16 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F16" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -8768,10 +8763,10 @@
         <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>373</v>
       </c>
@@ -8791,12 +8786,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>19</v>
@@ -8805,12 +8800,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>19</v>
@@ -8819,7 +8814,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -8830,10 +8825,10 @@
         <v>19</v>
       </c>
       <c r="F22" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -8847,7 +8842,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>378</v>
       </c>
@@ -8858,21 +8853,21 @@
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F25" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>19</v>
@@ -8881,7 +8876,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -8895,7 +8890,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>0</v>
       </c>
@@ -8906,10 +8901,10 @@
         <v>19</v>
       </c>
       <c r="F28" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>41</v>
       </c>
@@ -8920,12 +8915,12 @@
         <v>18</v>
       </c>
       <c r="F29" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>527</v>
+        <v>746</v>
       </c>
       <c r="B31" t="s">
         <v>29</v>
@@ -8934,16 +8929,16 @@
         <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F31" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>4</v>
       </c>
@@ -8957,35 +8952,35 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F33" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F34" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>526</v>
       </c>
@@ -8996,7 +8991,7 @@
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>19</v>
@@ -9005,7 +9000,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -9019,12 +9014,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>18</v>
@@ -9033,7 +9028,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>399</v>
       </c>
@@ -9044,16 +9039,16 @@
         <v>322</v>
       </c>
       <c r="D40" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F40" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>34</v>
       </c>
@@ -9064,7 +9059,7 @@
         <v>322</v>
       </c>
       <c r="D42" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>19</v>
@@ -9073,12 +9068,12 @@
         <v>380</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>25</v>
       </c>
       <c r="D43" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>19</v>
@@ -9087,18 +9082,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F44" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
   </sheetData>
@@ -9114,21 +9109,22 @@
   </sheetPr>
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -9148,7 +9144,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1999</v>
       </c>
@@ -9169,7 +9165,7 @@
         <v>0.80952380952380953</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2000</v>
       </c>
@@ -9190,7 +9186,7 @@
         <v>0.7678571428571429</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2001</v>
       </c>
@@ -9211,7 +9207,7 @@
         <v>0.45454545454545453</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2002</v>
       </c>
@@ -9232,7 +9228,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2003</v>
       </c>
@@ -9253,7 +9249,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2004</v>
       </c>
@@ -9274,7 +9270,7 @@
         <v>0.91304347826086951</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2005</v>
       </c>
@@ -9296,7 +9292,7 @@
       </c>
       <c r="N8" s="7"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2006</v>
       </c>
@@ -9318,7 +9314,7 @@
       </c>
       <c r="N9" s="7"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2007</v>
       </c>
@@ -9340,7 +9336,7 @@
       </c>
       <c r="N10" s="7"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2008</v>
       </c>
@@ -9362,7 +9358,7 @@
       </c>
       <c r="N11" s="7"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2009</v>
       </c>
@@ -9384,7 +9380,7 @@
       </c>
       <c r="N12" s="7"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2010</v>
       </c>
@@ -9405,7 +9401,7 @@
         <v>0.44444444444444442</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2011</v>
       </c>
@@ -9426,7 +9422,7 @@
         <v>0.46875</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2012</v>
       </c>
@@ -9447,7 +9443,7 @@
         <v>0.59523809523809523</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2013</v>
       </c>
@@ -9468,7 +9464,7 @@
         <v>0.68181818181818177</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2014</v>
       </c>
@@ -9489,7 +9485,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -9514,7 +9510,7 @@
         <v>0.62133891213389125</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>55</v>
       </c>
@@ -9562,20 +9558,20 @@
   <dimension ref="A1:F90"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -9595,7 +9591,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>114</v>
       </c>
@@ -9615,7 +9611,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -9629,7 +9625,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -9643,7 +9639,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -9657,7 +9653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>41</v>
       </c>
@@ -9671,7 +9667,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>120</v>
       </c>
@@ -9691,7 +9687,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -9705,7 +9701,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -9719,7 +9715,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -9733,7 +9729,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>124</v>
       </c>
@@ -9753,7 +9749,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -9767,7 +9763,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -9781,7 +9777,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -9795,7 +9791,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>130</v>
       </c>
@@ -9815,7 +9811,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -9829,7 +9825,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>2</v>
       </c>
@@ -9843,7 +9839,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>0</v>
       </c>
@@ -9857,7 +9853,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>134</v>
       </c>
@@ -9877,7 +9873,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -9891,7 +9887,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -9905,7 +9901,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>0</v>
       </c>
@@ -9919,7 +9915,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>41</v>
       </c>
@@ -9933,7 +9929,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>134</v>
       </c>
@@ -9953,7 +9949,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -9967,7 +9963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>2</v>
       </c>
@@ -9981,7 +9977,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>0</v>
       </c>
@@ -9995,7 +9991,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>41</v>
       </c>
@@ -10009,7 +10005,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>143</v>
       </c>
@@ -10029,7 +10025,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -10043,7 +10039,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>2</v>
       </c>
@@ -10057,7 +10053,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>0</v>
       </c>
@@ -10071,7 +10067,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>41</v>
       </c>
@@ -10085,7 +10081,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>152</v>
       </c>
@@ -10105,7 +10101,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>3</v>
       </c>
@@ -10119,7 +10115,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>2</v>
       </c>
@@ -10133,7 +10129,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>0</v>
       </c>
@@ -10147,7 +10143,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>41</v>
       </c>
@@ -10161,7 +10157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>158</v>
       </c>
@@ -10181,7 +10177,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>160</v>
       </c>
@@ -10201,7 +10197,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>3</v>
       </c>
@@ -10215,7 +10211,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>2</v>
       </c>
@@ -10229,7 +10225,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>0</v>
       </c>
@@ -10243,7 +10239,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>41</v>
       </c>
@@ -10257,7 +10253,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>163</v>
       </c>
@@ -10277,7 +10273,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -10291,7 +10287,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>2</v>
       </c>
@@ -10305,7 +10301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>0</v>
       </c>
@@ -10319,7 +10315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>41</v>
       </c>
@@ -10333,7 +10329,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>169</v>
       </c>
@@ -10353,7 +10349,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>3</v>
       </c>
@@ -10367,7 +10363,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>171</v>
       </c>
@@ -10387,7 +10383,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>174</v>
       </c>
@@ -10407,7 +10403,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>3</v>
       </c>
@@ -10421,7 +10417,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>2</v>
       </c>
@@ -10435,7 +10431,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>178</v>
       </c>
@@ -10455,7 +10451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>181</v>
       </c>
@@ -10475,7 +10471,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>3</v>
       </c>
@@ -10489,7 +10485,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>2</v>
       </c>
@@ -10503,7 +10499,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>0</v>
       </c>
@@ -10517,7 +10513,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>41</v>
       </c>
@@ -10531,7 +10527,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>186</v>
       </c>
@@ -10551,7 +10547,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>39</v>
       </c>
@@ -10571,7 +10567,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>189</v>
       </c>
@@ -10585,7 +10581,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>192</v>
       </c>
@@ -10605,7 +10601,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>193</v>
       </c>
@@ -10625,7 +10621,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>3</v>
       </c>
@@ -10639,7 +10635,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>195</v>
       </c>
@@ -10659,7 +10655,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>189</v>
       </c>
@@ -10673,7 +10669,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>196</v>
       </c>
@@ -10702,20 +10698,20 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -10735,7 +10731,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>201</v>
       </c>
@@ -10755,7 +10751,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>204</v>
       </c>
@@ -10775,7 +10771,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>163</v>
       </c>
@@ -10795,7 +10791,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -10809,7 +10805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>2</v>
       </c>
@@ -10823,7 +10819,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>0</v>
       </c>
@@ -10837,7 +10833,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>41</v>
       </c>
@@ -10851,7 +10847,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>160</v>
       </c>
@@ -10871,7 +10867,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>3</v>
       </c>
@@ -10885,7 +10881,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -10905,7 +10901,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>217</v>
       </c>
@@ -10925,7 +10921,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>219</v>
       </c>
@@ -10945,7 +10941,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -10959,7 +10955,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>2</v>
       </c>
@@ -10973,7 +10969,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>0</v>
       </c>
@@ -10987,7 +10983,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>41</v>
       </c>
@@ -11001,7 +10997,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>193</v>
       </c>
@@ -11035,20 +11031,20 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:C14"/>
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -11068,7 +11064,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>228</v>
       </c>
@@ -11088,7 +11084,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -11102,7 +11098,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -11116,7 +11112,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -11130,7 +11126,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -11138,7 +11134,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>233</v>
       </c>
@@ -11158,7 +11154,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -11172,7 +11168,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>236</v>
       </c>
@@ -11192,7 +11188,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -11206,7 +11202,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -11220,7 +11216,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>0</v>
       </c>
@@ -11234,7 +11230,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>41</v>
       </c>
@@ -11248,7 +11244,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>242</v>
       </c>
@@ -11282,20 +11278,20 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -11315,7 +11311,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>244</v>
       </c>
@@ -11350,20 +11346,20 @@
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -11383,7 +11379,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>246</v>
       </c>
@@ -11403,7 +11399,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -11417,7 +11413,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -11431,7 +11427,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -11445,7 +11441,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>41</v>
       </c>
@@ -11459,7 +11455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>255</v>
       </c>
@@ -11479,7 +11475,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -11493,7 +11489,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -11507,7 +11503,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -11521,7 +11517,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>41</v>
       </c>
@@ -11535,7 +11531,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>260</v>
       </c>
@@ -11555,7 +11551,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -11569,7 +11565,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>2</v>
       </c>
@@ -11583,7 +11579,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>0</v>
       </c>
@@ -11597,7 +11593,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>41</v>
       </c>
@@ -11611,7 +11607,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>264</v>
       </c>
@@ -11631,7 +11627,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -11645,7 +11641,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -11659,7 +11655,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -11673,7 +11669,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>41</v>
       </c>
@@ -11687,7 +11683,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>186</v>
       </c>
@@ -11707,7 +11703,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -11721,7 +11717,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>2</v>
       </c>
@@ -11735,7 +11731,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>0</v>
       </c>
@@ -11749,7 +11745,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>246</v>
       </c>
@@ -11769,7 +11765,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -11783,7 +11779,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>2</v>
       </c>
@@ -11797,7 +11793,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>0</v>
       </c>
@@ -11811,7 +11807,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>41</v>
       </c>
@@ -11825,7 +11821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>275</v>
       </c>
@@ -11845,7 +11841,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>189</v>
       </c>
@@ -11859,7 +11855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>196</v>
       </c>
@@ -11873,7 +11869,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -11887,7 +11883,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -11901,7 +11897,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>282</v>
       </c>
@@ -11921,7 +11917,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>189</v>
       </c>
@@ -11935,7 +11931,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>196</v>
       </c>
@@ -11949,7 +11945,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>4</v>
       </c>
@@ -11963,7 +11959,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -11977,7 +11973,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>2</v>
       </c>
@@ -11991,7 +11987,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>0</v>
       </c>
@@ -12005,7 +12001,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>41</v>
       </c>
@@ -12019,7 +12015,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>291</v>
       </c>
@@ -12039,7 +12035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>3</v>
       </c>
@@ -12053,7 +12049,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>2</v>
       </c>
@@ -12067,7 +12063,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>0</v>
       </c>
@@ -12081,7 +12077,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>41</v>
       </c>
@@ -12095,7 +12091,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>291</v>
       </c>
@@ -12115,7 +12111,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>3</v>
       </c>
@@ -12129,7 +12125,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -12158,20 +12154,20 @@
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -12191,7 +12187,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>315</v>
       </c>
@@ -12211,7 +12207,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -12225,7 +12221,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>318</v>
       </c>
@@ -12245,7 +12241,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -12259,7 +12255,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>2</v>
       </c>
@@ -12273,7 +12269,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>0</v>
       </c>
@@ -12287,7 +12283,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>201</v>
       </c>
@@ -12307,7 +12303,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>25</v>
       </c>
@@ -12321,7 +12317,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>4</v>
       </c>
@@ -12335,7 +12331,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>325</v>
       </c>
@@ -12355,7 +12351,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -12369,7 +12365,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>2</v>
       </c>
@@ -12383,7 +12379,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>329</v>
       </c>
@@ -12403,7 +12399,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>189</v>
       </c>
@@ -12417,7 +12413,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>196</v>
       </c>
@@ -12431,7 +12427,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -12445,7 +12441,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>334</v>
       </c>
@@ -12465,7 +12461,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>189</v>
       </c>
@@ -12479,7 +12475,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>196</v>
       </c>
@@ -12493,7 +12489,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>4</v>
       </c>
@@ -12507,7 +12503,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -12521,7 +12517,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>338</v>
       </c>
@@ -12541,7 +12537,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -12555,7 +12551,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>2</v>
       </c>
@@ -12569,7 +12565,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>0</v>
       </c>
@@ -12583,7 +12579,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>41</v>
       </c>
@@ -12597,7 +12593,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>343</v>
       </c>
@@ -12617,7 +12613,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -12631,7 +12627,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>2</v>
       </c>
@@ -12645,7 +12641,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>0</v>
       </c>
@@ -12659,7 +12655,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>347</v>
       </c>
@@ -12679,7 +12675,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>349</v>
       </c>
@@ -12699,7 +12695,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>4</v>
       </c>
@@ -12713,7 +12709,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -12727,7 +12723,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>39</v>
       </c>
@@ -12747,7 +12743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>353</v>
       </c>
@@ -12767,7 +12763,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>3</v>
       </c>
@@ -12781,7 +12777,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>2</v>
       </c>
@@ -12795,7 +12791,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>0</v>
       </c>
@@ -12809,7 +12805,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>282</v>
       </c>
@@ -12829,7 +12825,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -12843,7 +12839,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>2</v>
       </c>
@@ -12857,7 +12853,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>275</v>
       </c>
@@ -12892,20 +12888,20 @@
   <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -12925,7 +12921,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>315</v>
       </c>
@@ -12945,7 +12941,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -12959,7 +12955,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>362</v>
       </c>
@@ -12979,7 +12975,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>189</v>
       </c>
@@ -12993,7 +12989,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>196</v>
       </c>
@@ -13007,7 +13003,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>4</v>
       </c>
@@ -13021,7 +13017,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -13035,7 +13031,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>201</v>
       </c>
@@ -13055,7 +13051,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>195</v>
       </c>
@@ -13075,7 +13071,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>368</v>
       </c>
@@ -13095,7 +13091,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>329</v>
       </c>
@@ -13115,7 +13111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -13129,7 +13125,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>2</v>
       </c>
@@ -13143,7 +13139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>373</v>
       </c>
@@ -13163,7 +13159,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>25</v>
       </c>
@@ -13177,7 +13173,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>4</v>
       </c>
@@ -13191,7 +13187,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -13205,7 +13201,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>378</v>
       </c>
@@ -13225,7 +13221,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>25</v>
       </c>
@@ -13239,7 +13235,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>338</v>
       </c>
@@ -13259,7 +13255,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -13273,7 +13269,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>2</v>
       </c>
@@ -13287,7 +13283,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>0</v>
       </c>
@@ -13301,7 +13297,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>41</v>
       </c>
@@ -13315,7 +13311,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>387</v>
       </c>
@@ -13335,7 +13331,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>4</v>
       </c>
@@ -13349,7 +13345,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -13363,7 +13359,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>2</v>
       </c>
@@ -13377,7 +13373,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>0</v>
       </c>
@@ -13391,7 +13387,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>397</v>
       </c>
@@ -13411,7 +13407,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>3</v>
       </c>
@@ -13425,7 +13421,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>2</v>
       </c>
@@ -13439,7 +13435,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>399</v>
       </c>
@@ -13459,7 +13455,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>25</v>
       </c>
@@ -13473,7 +13469,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>4</v>
       </c>
@@ -13487,7 +13483,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>401</v>
       </c>
@@ -13507,7 +13503,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>4</v>
       </c>
@@ -13521,7 +13517,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>3</v>
       </c>
@@ -13535,7 +13531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>403</v>
       </c>
@@ -13555,7 +13551,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>34</v>
       </c>
@@ -13575,7 +13571,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>25</v>
       </c>
@@ -13589,7 +13585,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>4</v>
       </c>
@@ -13603,7 +13599,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>3</v>
       </c>
@@ -13617,7 +13613,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>2</v>
       </c>
@@ -13631,7 +13627,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>408</v>
       </c>
@@ -13651,7 +13647,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>3</v>
       </c>
@@ -13665,7 +13661,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>2</v>
       </c>
@@ -13679,7 +13675,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>349</v>
       </c>
@@ -13699,7 +13695,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>419</v>
       </c>
@@ -13719,7 +13715,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -13733,7 +13729,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>39</v>
       </c>
@@ -13753,7 +13749,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>25</v>
       </c>
@@ -13767,7 +13763,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>4</v>
       </c>
@@ -13781,7 +13777,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>3</v>
       </c>
@@ -13795,7 +13791,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>275</v>
       </c>
@@ -13815,7 +13811,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>3</v>
       </c>
@@ -13829,7 +13825,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>2</v>
       </c>
@@ -13843,7 +13839,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>282</v>
       </c>
@@ -13863,7 +13859,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>3</v>
       </c>
@@ -13877,7 +13873,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>2</v>
       </c>
@@ -13891,7 +13887,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>427</v>
       </c>
@@ -13926,21 +13922,21 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -13960,7 +13956,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>362</v>
       </c>
@@ -13980,7 +13976,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -13994,7 +13990,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -14008,7 +14004,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -14022,7 +14018,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>201</v>
       </c>
@@ -14042,7 +14038,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>25</v>
       </c>
@@ -14056,7 +14052,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -14070,7 +14066,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -14084,7 +14080,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>434</v>
       </c>
@@ -14104,7 +14100,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>3</v>
       </c>
@@ -14118,7 +14114,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>334</v>
       </c>
@@ -14138,7 +14134,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>373</v>
       </c>
@@ -14158,7 +14154,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>4</v>
       </c>
@@ -14172,7 +14168,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -14186,7 +14182,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>2</v>
       </c>
@@ -14200,7 +14196,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>0</v>
       </c>
@@ -14214,7 +14210,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>378</v>
       </c>
@@ -14234,7 +14230,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -14248,7 +14244,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -14262,7 +14258,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>2</v>
       </c>
@@ -14276,7 +14272,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>449</v>
       </c>
@@ -14296,7 +14292,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>451</v>
       </c>
@@ -14316,7 +14312,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>3</v>
       </c>
@@ -14330,7 +14326,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>387</v>
       </c>
@@ -14350,7 +14346,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>4</v>
       </c>
@@ -14364,7 +14360,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>397</v>
       </c>
@@ -14384,7 +14380,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -14398,7 +14394,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>2</v>
       </c>
@@ -14412,7 +14408,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>399</v>
       </c>
@@ -14432,7 +14428,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>25</v>
       </c>
@@ -14446,7 +14442,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>4</v>
       </c>
@@ -14460,7 +14456,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>401</v>
       </c>
@@ -14480,7 +14476,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>3</v>
       </c>
@@ -14494,7 +14490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>2</v>
       </c>

--- a/Tennis/WTA Tour/Na Li.xlsx
+++ b/Tennis/WTA Tour/Na Li.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7573" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16800007-B654-449B-BF5A-3A0244772212}"/>
+  <xr:revisionPtr revIDLastSave="7595" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7E26025-C454-4225-BA4E-6DFF13486493}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="16" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="9" activeTab="18" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="1999" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,9 @@
     <sheet name="2012" sheetId="18" r:id="rId14"/>
     <sheet name="2013" sheetId="19" r:id="rId15"/>
     <sheet name="2014" sheetId="36" r:id="rId16"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId17"/>
+    <sheet name="Stats" sheetId="1" r:id="rId17"/>
+    <sheet name="Wins-Losses" sheetId="37" r:id="rId18"/>
+    <sheet name="Winning Percentile Range" sheetId="38" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2468,7 +2470,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
@@ -2477,7 +2479,6 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -2496,6 +2497,2405 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Na</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> Li (CHINA): Wins-Losses</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Stats!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WINS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Stats!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2014</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Stats!$D$2:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9F43-46A3-8D86-9A8392A82EB3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Stats!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LOSSES</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Stats!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2014</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Stats!$E$2:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9F43-46A3-8D86-9A8392A82EB3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="879324367"/>
+        <c:axId val="875179007"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="879324367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>YEAR</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="875179007"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="875179007"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>NUMBER OF MATCHES</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="879324367"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Na Li (CHINA): Winning Percentile Range</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Stats!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WINNING PERCENTILE RANGE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Stats!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2014</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Stats!$F$2:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.82608695652173914</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.79032258064516125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.46153846153846156</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7142857142857143</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.58823529411764708</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.51162790697674421</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45454545454545453</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.51724137931034486</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.54285714285714282</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.44444444444444442</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.46875</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.62222222222222223</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.68181818181818177</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1A45-42B8-8523-427CFED794EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="619531439"/>
+        <c:axId val="945830751"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="619531439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>YEAR</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="945830751"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="945830751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>PERCENTAGE</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="619531439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{35E954B3-444B-4142-8B42-2FD824968604}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{2F114BCB-9880-48C0-9CD7-AE0157F801E5}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="7620"/>
+    <xdr:ext cx="8564880" cy="5814060"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAE7856C-9774-C05F-31BA-976758316270}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8572500" cy="5827568"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0877334D-31D9-B330-3102-AE3A295817BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2835,34 +5235,30 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" t="s">
         <v>748</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8" t="s">
+      <c r="D2" t="s">
         <v>746</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8" t="s">
+      <c r="D3" t="s">
         <v>747</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" t="s">
         <v>745</v>
       </c>
     </row>
@@ -9307,8 +11703,8 @@
   </sheetPr>
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" activeCellId="1" sqref="A1:A17 F1:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tennis/WTA Tour/Na Li.xlsx
+++ b/Tennis/WTA Tour/Na Li.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7595" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7E26025-C454-4225-BA4E-6DFF13486493}"/>
+  <xr:revisionPtr revIDLastSave="7596" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2864B6CD-BE53-43BF-AF9E-B3FC53C44410}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="9" activeTab="18" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="9" activeTab="15" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="1999" sheetId="5" r:id="rId1"/>
@@ -4808,7 +4808,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{35E954B3-444B-4142-8B42-2FD824968604}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4865,7 +4865,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8572500" cy="5827568"/>
+    <xdr:ext cx="8582025" cy="5838825"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -4892,10 +4892,6 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5200,21 +5196,21 @@
   </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E32" activeCellId="1" sqref="E25 E32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -5234,7 +5230,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>748</v>
       </c>
@@ -5251,7 +5247,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>747</v>
       </c>
@@ -5262,7 +5258,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -5270,7 +5266,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -5290,7 +5286,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -5304,7 +5300,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>2</v>
       </c>
@@ -5318,7 +5314,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>0</v>
       </c>
@@ -5332,7 +5328,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>41</v>
       </c>
@@ -5346,7 +5342,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>63</v>
       </c>
@@ -5366,7 +5362,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>3</v>
       </c>
@@ -5380,7 +5376,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>2</v>
       </c>
@@ -5394,7 +5390,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>0</v>
       </c>
@@ -5408,7 +5404,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>41</v>
       </c>
@@ -5422,7 +5418,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>75</v>
       </c>
@@ -5442,7 +5438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -5456,7 +5452,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>2</v>
       </c>
@@ -5470,7 +5466,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>0</v>
       </c>
@@ -5484,7 +5480,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>41</v>
       </c>
@@ -5498,7 +5494,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>81</v>
       </c>
@@ -5518,7 +5514,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -5532,7 +5528,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -5546,7 +5542,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>85</v>
       </c>
@@ -5566,7 +5562,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -5580,7 +5576,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>88</v>
       </c>
@@ -5600,7 +5596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>3</v>
       </c>
@@ -5614,7 +5610,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>2</v>
       </c>
@@ -5628,7 +5624,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>93</v>
       </c>
@@ -5648,7 +5644,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>94</v>
       </c>
@@ -5668,7 +5664,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -5695,21 +5691,21 @@
   </sheetPr>
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E58" activeCellId="13" sqref="E10 E12 E18 E24 E27 E30 E36 E41 E43 E45 E49 E51 E53 E58"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -5729,7 +5725,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>314</v>
       </c>
@@ -5749,7 +5745,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -5763,7 +5759,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -5777,7 +5773,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -5791,7 +5787,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>41</v>
       </c>
@@ -5805,7 +5801,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>201</v>
       </c>
@@ -5825,7 +5821,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>25</v>
       </c>
@@ -5839,7 +5835,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -5853,7 +5849,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>750</v>
       </c>
@@ -5870,7 +5866,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>547</v>
       </c>
@@ -5881,7 +5877,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>468</v>
       </c>
@@ -5901,7 +5897,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -5915,7 +5911,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>2</v>
       </c>
@@ -5929,7 +5925,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -5943,7 +5939,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>328</v>
       </c>
@@ -5963,7 +5959,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -5977,7 +5973,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>3</v>
       </c>
@@ -5991,7 +5987,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>2</v>
       </c>
@@ -6005,7 +6001,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>0</v>
       </c>
@@ -6019,7 +6015,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>477</v>
       </c>
@@ -6039,7 +6035,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -6053,7 +6049,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -6073,7 +6069,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>25</v>
       </c>
@@ -6087,7 +6083,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>192</v>
       </c>
@@ -6107,7 +6103,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>4</v>
       </c>
@@ -6121,7 +6117,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -6135,7 +6131,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>2</v>
       </c>
@@ -6149,7 +6145,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -6163,7 +6159,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -6183,7 +6179,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>25</v>
       </c>
@@ -6197,7 +6193,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -6211,7 +6207,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -6225,7 +6221,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>432</v>
       </c>
@@ -6245,7 +6241,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>275</v>
       </c>
@@ -6265,7 +6261,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>492</v>
       </c>
@@ -6285,7 +6281,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>3</v>
       </c>
@@ -6299,7 +6295,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>2</v>
       </c>
@@ -6313,7 +6309,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>425</v>
       </c>
@@ -6333,7 +6329,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>493</v>
       </c>
@@ -6353,7 +6349,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>496</v>
       </c>
@@ -6373,7 +6369,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -6387,7 +6383,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>2</v>
       </c>
@@ -6401,7 +6397,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>0</v>
       </c>
@@ -6429,21 +6425,21 @@
   </sheetPr>
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E68" activeCellId="13" sqref="E2 E7:E10 E13:E15 E18:E21 E24 E29 E32:E34 E37:E40 E43 E52:E53 E46:E47 E56:E59 E62:E65 E68"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -6463,7 +6459,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>506</v>
       </c>
@@ -6483,7 +6479,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -6497,7 +6493,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>333</v>
       </c>
@@ -6517,7 +6513,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>509</v>
       </c>
@@ -6537,7 +6533,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -6551,7 +6547,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -6565,7 +6561,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>0</v>
       </c>
@@ -6579,7 +6575,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>41</v>
       </c>
@@ -6593,7 +6589,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>372</v>
       </c>
@@ -6613,7 +6609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>25</v>
       </c>
@@ -6627,7 +6623,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -6641,7 +6637,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -6655,7 +6651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>377</v>
       </c>
@@ -6675,7 +6671,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>25</v>
       </c>
@@ -6689,7 +6685,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -6703,7 +6699,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -6717,7 +6713,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -6731,7 +6727,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>492</v>
       </c>
@@ -6751,7 +6747,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -6765,7 +6761,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>524</v>
       </c>
@@ -6785,7 +6781,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>744</v>
       </c>
@@ -6805,7 +6801,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>4</v>
       </c>
@@ -6819,7 +6815,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>398</v>
       </c>
@@ -6839,7 +6835,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>25</v>
       </c>
@@ -6853,7 +6849,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>4</v>
       </c>
@@ -6867,7 +6863,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -6881,7 +6877,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>400</v>
       </c>
@@ -6901,7 +6897,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -6915,7 +6911,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -6929,7 +6925,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>0</v>
       </c>
@@ -6943,7 +6939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>41</v>
       </c>
@@ -6957,7 +6953,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>477</v>
       </c>
@@ -6977,7 +6973,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -6991,7 +6987,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>34</v>
       </c>
@@ -7011,7 +7007,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>25</v>
       </c>
@@ -7025,7 +7021,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>4</v>
       </c>
@@ -7039,7 +7035,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>538</v>
       </c>
@@ -7059,7 +7055,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>346</v>
       </c>
@@ -7079,7 +7075,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>4</v>
       </c>
@@ -7093,7 +7089,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -7107,7 +7103,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>39</v>
       </c>
@@ -7127,7 +7123,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>25</v>
       </c>
@@ -7141,7 +7137,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>4</v>
       </c>
@@ -7155,7 +7151,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>3</v>
       </c>
@@ -7169,7 +7165,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -7183,7 +7179,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>432</v>
       </c>
@@ -7203,7 +7199,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>4</v>
       </c>
@@ -7217,7 +7213,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>3</v>
       </c>
@@ -7231,7 +7227,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>2</v>
       </c>
@@ -7245,7 +7241,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>0</v>
       </c>
@@ -7259,7 +7255,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>275</v>
       </c>
@@ -7279,7 +7275,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -7307,21 +7303,21 @@
   </sheetPr>
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -7341,7 +7337,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>558</v>
       </c>
@@ -7361,7 +7357,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>361</v>
       </c>
@@ -7381,7 +7377,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -7395,7 +7391,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>201</v>
       </c>
@@ -7415,7 +7411,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>25</v>
       </c>
@@ -7429,7 +7425,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -7443,7 +7439,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -7457,7 +7453,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -7471,7 +7467,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -7485,7 +7481,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>333</v>
       </c>
@@ -7505,7 +7501,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -7519,7 +7515,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>2</v>
       </c>
@@ -7533,7 +7529,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>564</v>
       </c>
@@ -7553,7 +7549,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>372</v>
       </c>
@@ -7573,7 +7569,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>377</v>
       </c>
@@ -7593,7 +7589,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>492</v>
       </c>
@@ -7613,7 +7609,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -7627,7 +7623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>2</v>
       </c>
@@ -7641,7 +7637,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>744</v>
       </c>
@@ -7661,7 +7657,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>4</v>
       </c>
@@ -7675,7 +7671,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -7689,7 +7685,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>2</v>
       </c>
@@ -7703,7 +7699,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>571</v>
       </c>
@@ -7723,7 +7719,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -7737,7 +7733,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>2</v>
       </c>
@@ -7751,7 +7747,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -7765,7 +7761,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>398</v>
       </c>
@@ -7785,7 +7781,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>25</v>
       </c>
@@ -7799,7 +7795,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -7813,7 +7809,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>400</v>
       </c>
@@ -7833,7 +7829,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>3</v>
       </c>
@@ -7847,7 +7843,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>2</v>
       </c>
@@ -7861,7 +7857,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>0</v>
       </c>
@@ -7875,7 +7871,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>41</v>
       </c>
@@ -7889,7 +7885,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>477</v>
       </c>
@@ -7909,7 +7905,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>34</v>
       </c>
@@ -7929,7 +7925,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>25</v>
       </c>
@@ -7943,7 +7939,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>4</v>
       </c>
@@ -7957,7 +7953,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>3</v>
       </c>
@@ -7971,7 +7967,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>2</v>
       </c>
@@ -7985,7 +7981,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>587</v>
       </c>
@@ -8005,7 +8001,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>3</v>
       </c>
@@ -8019,7 +8015,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>2</v>
       </c>
@@ -8033,7 +8029,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>0</v>
       </c>
@@ -8047,7 +8043,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>590</v>
       </c>
@@ -8067,7 +8063,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>3</v>
       </c>
@@ -8081,7 +8077,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>348</v>
       </c>
@@ -8101,7 +8097,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>3</v>
       </c>
@@ -8115,7 +8111,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>39</v>
       </c>
@@ -8135,7 +8131,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>275</v>
       </c>
@@ -8155,7 +8151,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>4</v>
       </c>
@@ -8169,7 +8165,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>3</v>
       </c>
@@ -8183,7 +8179,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>2</v>
       </c>
@@ -8197,7 +8193,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>0</v>
       </c>
@@ -8211,7 +8207,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>425</v>
       </c>
@@ -8231,7 +8227,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>695</v>
       </c>
@@ -8264,21 +8260,21 @@
   </sheetPr>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -8298,7 +8294,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>361</v>
       </c>
@@ -8318,7 +8314,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -8332,7 +8328,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -8346,7 +8342,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -8360,7 +8356,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>41</v>
       </c>
@@ -8374,7 +8370,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>201</v>
       </c>
@@ -8394,7 +8390,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>25</v>
       </c>
@@ -8408,7 +8404,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -8422,7 +8418,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -8436,7 +8432,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -8450,7 +8446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>0</v>
       </c>
@@ -8464,7 +8460,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>41</v>
       </c>
@@ -8478,7 +8474,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>333</v>
       </c>
@@ -8498,7 +8494,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>328</v>
       </c>
@@ -8518,7 +8514,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>372</v>
       </c>
@@ -8538,7 +8534,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>377</v>
       </c>
@@ -8558,7 +8554,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>492</v>
       </c>
@@ -8578,7 +8574,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -8592,7 +8588,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>744</v>
       </c>
@@ -8612,7 +8608,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -8626,7 +8622,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -8640,7 +8636,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -8654,7 +8650,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>0</v>
       </c>
@@ -8668,7 +8664,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>524</v>
       </c>
@@ -8688,7 +8684,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -8702,7 +8698,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>2</v>
       </c>
@@ -8716,7 +8712,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -8730,7 +8726,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>398</v>
       </c>
@@ -8750,7 +8746,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>25</v>
       </c>
@@ -8764,7 +8760,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -8778,7 +8774,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -8792,7 +8788,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>2</v>
       </c>
@@ -8806,7 +8802,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>0</v>
       </c>
@@ -8820,7 +8816,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>41</v>
       </c>
@@ -8834,7 +8830,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>477</v>
       </c>
@@ -8854,7 +8850,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -8868,7 +8864,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>34</v>
       </c>
@@ -8888,7 +8884,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>25</v>
       </c>
@@ -8902,7 +8898,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>348</v>
       </c>
@@ -8922,7 +8918,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>590</v>
       </c>
@@ -8942,7 +8938,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -8956,7 +8952,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>417</v>
       </c>
@@ -8976,7 +8972,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>2</v>
       </c>
@@ -8990,7 +8986,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>0</v>
       </c>
@@ -9004,7 +9000,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>39</v>
       </c>
@@ -9024,7 +9020,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>275</v>
       </c>
@@ -9044,7 +9040,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>693</v>
       </c>
@@ -9064,7 +9060,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>694</v>
       </c>
@@ -9078,7 +9074,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>694</v>
       </c>
@@ -9105,21 +9101,21 @@
   </sheetPr>
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E81" activeCellId="16" sqref="E6 E11 E17 E22 E27 E31 E36 E42 E47 E50 E52 E58 E68 E71 E77 E79 E81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -9139,7 +9135,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>633</v>
       </c>
@@ -9159,7 +9155,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -9173,7 +9169,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -9187,7 +9183,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -9201,7 +9197,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>41</v>
       </c>
@@ -9215,7 +9211,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>201</v>
       </c>
@@ -9235,7 +9231,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>25</v>
       </c>
@@ -9249,7 +9245,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -9263,7 +9259,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -9277,7 +9273,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>750</v>
       </c>
@@ -9294,7 +9290,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>776</v>
       </c>
@@ -9305,7 +9301,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>423</v>
       </c>
@@ -9316,7 +9312,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>506</v>
       </c>
@@ -9336,7 +9332,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>372</v>
       </c>
@@ -9356,7 +9352,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -9370,7 +9366,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -9384,7 +9380,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -9398,7 +9394,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>377</v>
       </c>
@@ -9418,7 +9414,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>4</v>
       </c>
@@ -9432,7 +9428,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -9446,7 +9442,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -9460,7 +9456,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>492</v>
       </c>
@@ -9480,7 +9476,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -9494,7 +9490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>2</v>
       </c>
@@ -9508,7 +9504,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>744</v>
       </c>
@@ -9528,7 +9524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>4</v>
       </c>
@@ -9542,7 +9538,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -9556,7 +9552,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -9570,7 +9566,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>524</v>
       </c>
@@ -9590,7 +9586,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>3</v>
       </c>
@@ -9604,7 +9600,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>2</v>
       </c>
@@ -9618,7 +9614,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>0</v>
       </c>
@@ -9632,7 +9628,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>41</v>
       </c>
@@ -9646,7 +9642,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>398</v>
       </c>
@@ -9666,7 +9662,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>25</v>
       </c>
@@ -9680,7 +9676,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>4</v>
       </c>
@@ -9694,7 +9690,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -9708,7 +9704,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>34</v>
       </c>
@@ -9728,7 +9724,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>25</v>
       </c>
@@ -9742,7 +9738,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>192</v>
       </c>
@@ -9762,7 +9758,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>348</v>
       </c>
@@ -9782,7 +9778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -9796,7 +9792,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>2</v>
       </c>
@@ -9810,7 +9806,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>0</v>
       </c>
@@ -9824,7 +9820,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>41</v>
       </c>
@@ -9838,7 +9834,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>590</v>
       </c>
@@ -9858,7 +9854,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -9872,7 +9868,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>2</v>
       </c>
@@ -9886,7 +9882,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>0</v>
       </c>
@@ -9900,7 +9896,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>41</v>
       </c>
@@ -9914,7 +9910,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>39</v>
       </c>
@@ -9934,7 +9930,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>25</v>
       </c>
@@ -9948,7 +9944,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>4</v>
       </c>
@@ -9962,7 +9958,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>432</v>
       </c>
@@ -9982,7 +9978,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>3</v>
       </c>
@@ -9996,7 +9992,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>275</v>
       </c>
@@ -10016,7 +10012,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>4</v>
       </c>
@@ -10030,7 +10026,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>3</v>
       </c>
@@ -10044,7 +10040,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>2</v>
       </c>
@@ -10058,7 +10054,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>0</v>
       </c>
@@ -10072,7 +10068,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>693</v>
       </c>
@@ -10092,7 +10088,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>694</v>
       </c>
@@ -10106,7 +10102,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>694</v>
       </c>
@@ -10134,21 +10130,21 @@
   </sheetPr>
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -10168,7 +10164,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>679</v>
       </c>
@@ -10188,7 +10184,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -10202,7 +10198,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -10216,7 +10212,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -10230,7 +10226,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>41</v>
       </c>
@@ -10244,7 +10240,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>361</v>
       </c>
@@ -10264,7 +10260,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -10278,7 +10274,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -10292,7 +10288,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -10306,7 +10302,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>201</v>
       </c>
@@ -10326,7 +10322,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>25</v>
       </c>
@@ -10340,7 +10336,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -10354,7 +10350,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -10368,7 +10364,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>2</v>
       </c>
@@ -10382,7 +10378,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -10396,7 +10392,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>41</v>
       </c>
@@ -10410,7 +10406,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>377</v>
       </c>
@@ -10430,7 +10426,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>4</v>
       </c>
@@ -10444,7 +10440,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -10458,7 +10454,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -10472,7 +10468,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>492</v>
       </c>
@@ -10492,7 +10488,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -10506,7 +10502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>0</v>
       </c>
@@ -10520,7 +10516,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>41</v>
       </c>
@@ -10534,7 +10530,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>744</v>
       </c>
@@ -10554,7 +10550,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>524</v>
       </c>
@@ -10574,7 +10570,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -10588,7 +10584,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>398</v>
       </c>
@@ -10608,7 +10604,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>25</v>
       </c>
@@ -10622,7 +10618,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>477</v>
       </c>
@@ -10642,7 +10638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -10656,7 +10652,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>2</v>
       </c>
@@ -10670,7 +10666,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>34</v>
       </c>
@@ -10690,7 +10686,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>25</v>
       </c>
@@ -10704,7 +10700,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>4</v>
       </c>
@@ -10718,7 +10714,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -10732,7 +10728,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>2</v>
       </c>
@@ -10746,7 +10742,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>348</v>
       </c>
@@ -10766,7 +10762,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>3</v>
       </c>
@@ -10780,7 +10776,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>2</v>
       </c>
@@ -10794,7 +10790,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>0</v>
       </c>
@@ -10808,7 +10804,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>590</v>
       </c>
@@ -10828,7 +10824,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -10842,7 +10838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>2</v>
       </c>
@@ -10856,7 +10852,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>0</v>
       </c>
@@ -10870,7 +10866,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>39</v>
       </c>
@@ -10890,7 +10886,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>25</v>
       </c>
@@ -10904,7 +10900,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>4</v>
       </c>
@@ -10918,7 +10914,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>3</v>
       </c>
@@ -10932,7 +10928,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>2</v>
       </c>
@@ -10946,7 +10942,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>0</v>
       </c>
@@ -10960,7 +10956,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>275</v>
       </c>
@@ -10980,7 +10976,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>4</v>
       </c>
@@ -10994,7 +10990,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -11008,7 +11004,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>2</v>
       </c>
@@ -11022,7 +11018,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>693</v>
       </c>
@@ -11042,7 +11038,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>694</v>
       </c>
@@ -11056,7 +11052,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>694</v>
       </c>
@@ -11070,7 +11066,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>0</v>
       </c>
@@ -11084,7 +11080,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>41</v>
       </c>
@@ -11112,21 +11108,21 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -11146,7 +11142,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>679</v>
       </c>
@@ -11166,7 +11162,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -11180,7 +11176,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -11194,7 +11190,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -11208,7 +11204,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>41</v>
       </c>
@@ -11222,7 +11218,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>201</v>
       </c>
@@ -11242,7 +11238,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>25</v>
       </c>
@@ -11256,7 +11252,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -11270,7 +11266,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -11284,7 +11280,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -11298,7 +11294,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>0</v>
       </c>
@@ -11312,7 +11308,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>41</v>
       </c>
@@ -11326,7 +11322,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>328</v>
       </c>
@@ -11346,7 +11342,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -11360,7 +11356,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>372</v>
       </c>
@@ -11380,7 +11376,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -11394,7 +11390,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -11408,7 +11404,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -11422,7 +11418,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -11436,7 +11432,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>377</v>
       </c>
@@ -11456,7 +11452,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -11470,7 +11466,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -11484,7 +11480,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>0</v>
       </c>
@@ -11498,7 +11494,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>41</v>
       </c>
@@ -11512,7 +11508,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>744</v>
       </c>
@@ -11532,7 +11528,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>4</v>
       </c>
@@ -11546,7 +11542,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -11560,7 +11556,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -11574,7 +11570,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>524</v>
       </c>
@@ -11594,7 +11590,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -11608,7 +11604,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>2</v>
       </c>
@@ -11622,7 +11618,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>398</v>
       </c>
@@ -11642,7 +11638,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>34</v>
       </c>
@@ -11662,7 +11658,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>25</v>
       </c>
@@ -11676,7 +11672,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>4</v>
       </c>
@@ -11703,22 +11699,22 @@
   </sheetPr>
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" activeCellId="1" sqref="A1:A17 F1:F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -11738,7 +11734,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1999</v>
       </c>
@@ -11759,7 +11755,7 @@
         <v>0.82608695652173914</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2000</v>
       </c>
@@ -11780,7 +11776,7 @@
         <v>0.79032258064516125</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2001</v>
       </c>
@@ -11801,7 +11797,7 @@
         <v>0.46153846153846156</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2002</v>
       </c>
@@ -11822,7 +11818,7 @@
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2003</v>
       </c>
@@ -11843,7 +11839,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2004</v>
       </c>
@@ -11864,7 +11860,7 @@
         <v>0.91304347826086951</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2005</v>
       </c>
@@ -11886,7 +11882,7 @@
       </c>
       <c r="N8" s="7"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2006</v>
       </c>
@@ -11908,7 +11904,7 @@
       </c>
       <c r="N9" s="7"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2007</v>
       </c>
@@ -11930,7 +11926,7 @@
       </c>
       <c r="N10" s="7"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2008</v>
       </c>
@@ -11952,7 +11948,7 @@
       </c>
       <c r="N11" s="7"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2009</v>
       </c>
@@ -11974,7 +11970,7 @@
       </c>
       <c r="N12" s="7"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2010</v>
       </c>
@@ -11995,7 +11991,7 @@
         <v>0.44444444444444442</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2011</v>
       </c>
@@ -12016,7 +12012,7 @@
         <v>0.46875</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2012</v>
       </c>
@@ -12037,7 +12033,7 @@
         <v>0.62222222222222223</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2013</v>
       </c>
@@ -12058,7 +12054,7 @@
         <v>0.68181818181818177</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2014</v>
       </c>
@@ -12079,7 +12075,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -12104,7 +12100,7 @@
         <v>0.63636363636363635</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>55</v>
       </c>
@@ -12151,21 +12147,21 @@
   </sheetPr>
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="E97" activeCellId="12" sqref="E11 E16 E21 E54 E69 E71 E75 E77 E85 E88 E90 E93 E97"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -12185,7 +12181,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>114</v>
       </c>
@@ -12205,7 +12201,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -12219,7 +12215,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -12233,7 +12229,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -12247,7 +12243,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>41</v>
       </c>
@@ -12261,7 +12257,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>120</v>
       </c>
@@ -12281,7 +12277,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -12295,7 +12291,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -12309,7 +12305,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -12323,7 +12319,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>124</v>
       </c>
@@ -12343,7 +12339,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -12357,7 +12353,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -12371,7 +12367,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -12385,7 +12381,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>130</v>
       </c>
@@ -12405,7 +12401,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -12419,7 +12415,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>2</v>
       </c>
@@ -12433,7 +12429,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>0</v>
       </c>
@@ -12447,7 +12443,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>134</v>
       </c>
@@ -12467,7 +12463,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -12481,7 +12477,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -12495,7 +12491,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>0</v>
       </c>
@@ -12509,7 +12505,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>41</v>
       </c>
@@ -12523,7 +12519,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>134</v>
       </c>
@@ -12543,7 +12539,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -12557,7 +12553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>2</v>
       </c>
@@ -12571,7 +12567,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>0</v>
       </c>
@@ -12585,7 +12581,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>41</v>
       </c>
@@ -12599,7 +12595,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>143</v>
       </c>
@@ -12619,7 +12615,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -12633,7 +12629,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>2</v>
       </c>
@@ -12647,7 +12643,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>0</v>
       </c>
@@ -12661,7 +12657,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>41</v>
       </c>
@@ -12675,7 +12671,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>152</v>
       </c>
@@ -12695,7 +12691,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>3</v>
       </c>
@@ -12709,7 +12705,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>2</v>
       </c>
@@ -12723,7 +12719,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>0</v>
       </c>
@@ -12737,7 +12733,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>41</v>
       </c>
@@ -12751,7 +12747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>750</v>
       </c>
@@ -12768,7 +12764,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
         <v>752</v>
       </c>
@@ -12779,7 +12775,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
         <v>753</v>
       </c>
@@ -12790,7 +12786,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
         <v>754</v>
       </c>
@@ -12801,7 +12797,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
         <v>755</v>
       </c>
@@ -12812,7 +12808,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
         <v>322</v>
       </c>
@@ -12823,7 +12819,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>158</v>
       </c>
@@ -12843,7 +12839,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>160</v>
       </c>
@@ -12863,7 +12859,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>3</v>
       </c>
@@ -12877,7 +12873,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>2</v>
       </c>
@@ -12891,7 +12887,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>0</v>
       </c>
@@ -12905,7 +12901,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>41</v>
       </c>
@@ -12919,7 +12915,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>163</v>
       </c>
@@ -12939,7 +12935,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>3</v>
       </c>
@@ -12953,7 +12949,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>2</v>
       </c>
@@ -12967,7 +12963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>0</v>
       </c>
@@ -12981,7 +12977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>41</v>
       </c>
@@ -12995,7 +12991,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>169</v>
       </c>
@@ -13015,7 +13011,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -13029,7 +13025,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>171</v>
       </c>
@@ -13049,7 +13045,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>174</v>
       </c>
@@ -13069,7 +13065,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>3</v>
       </c>
@@ -13083,7 +13079,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>2</v>
       </c>
@@ -13097,7 +13093,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>178</v>
       </c>
@@ -13117,7 +13113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>181</v>
       </c>
@@ -13137,7 +13133,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>3</v>
       </c>
@@ -13151,7 +13147,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>2</v>
       </c>
@@ -13165,7 +13161,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>0</v>
       </c>
@@ -13179,7 +13175,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>41</v>
       </c>
@@ -13193,7 +13189,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>186</v>
       </c>
@@ -13213,7 +13209,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>39</v>
       </c>
@@ -13233,7 +13229,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>189</v>
       </c>
@@ -13247,7 +13243,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>192</v>
       </c>
@@ -13267,7 +13263,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>193</v>
       </c>
@@ -13287,7 +13283,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>3</v>
       </c>
@@ -13301,7 +13297,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>195</v>
       </c>
@@ -13321,7 +13317,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>189</v>
       </c>
@@ -13335,7 +13331,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="97" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>196</v>
       </c>
@@ -13363,21 +13359,21 @@
   </sheetPr>
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E29" activeCellId="6" sqref="E2 E4 E8 E17 E19 E21 E29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -13397,7 +13393,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>201</v>
       </c>
@@ -13417,7 +13413,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>204</v>
       </c>
@@ -13437,7 +13433,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>750</v>
       </c>
@@ -13454,7 +13450,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>145</v>
       </c>
@@ -13465,7 +13461,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>758</v>
       </c>
@@ -13476,7 +13472,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>163</v>
       </c>
@@ -13496,7 +13492,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -13510,7 +13506,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -13524,7 +13520,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>0</v>
       </c>
@@ -13538,7 +13534,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>41</v>
       </c>
@@ -13552,7 +13548,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>160</v>
       </c>
@@ -13572,7 +13568,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -13586,7 +13582,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -13606,7 +13602,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>217</v>
       </c>
@@ -13626,7 +13622,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>219</v>
       </c>
@@ -13646,7 +13642,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -13660,7 +13656,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -13674,7 +13670,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>0</v>
       </c>
@@ -13688,7 +13684,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>41</v>
       </c>
@@ -13702,7 +13698,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>193</v>
       </c>
@@ -13735,21 +13731,21 @@
   </sheetPr>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" activeCellId="3" sqref="E2:E4 E7 E10:E14 E16:E20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -13769,7 +13765,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>228</v>
       </c>
@@ -13789,7 +13785,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -13803,7 +13799,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -13817,7 +13813,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -13831,7 +13827,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -13839,7 +13835,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>233</v>
       </c>
@@ -13859,7 +13855,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -13873,7 +13869,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>236</v>
       </c>
@@ -13893,7 +13889,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -13907,7 +13903,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -13921,7 +13917,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>0</v>
       </c>
@@ -13935,7 +13931,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>41</v>
       </c>
@@ -13949,7 +13945,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>750</v>
       </c>
@@ -13966,7 +13962,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>760</v>
       </c>
@@ -13977,7 +13973,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>761</v>
       </c>
@@ -13988,7 +13984,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>763</v>
       </c>
@@ -13999,7 +13995,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>764</v>
       </c>
@@ -14010,7 +14006,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>242</v>
       </c>
@@ -14030,7 +14026,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>750</v>
       </c>
@@ -14060,21 +14056,21 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -14094,7 +14090,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>244</v>
       </c>
@@ -14128,21 +14124,21 @@
   </sheetPr>
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E60" activeCellId="3" sqref="E29 E35 E41 E60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -14162,7 +14158,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>246</v>
       </c>
@@ -14182,7 +14178,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -14196,7 +14192,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -14210,7 +14206,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -14224,7 +14220,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>41</v>
       </c>
@@ -14238,7 +14234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>255</v>
       </c>
@@ -14258,7 +14254,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -14272,7 +14268,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -14286,7 +14282,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -14300,7 +14296,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>41</v>
       </c>
@@ -14314,7 +14310,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>260</v>
       </c>
@@ -14334,7 +14330,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -14348,7 +14344,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>2</v>
       </c>
@@ -14362,7 +14358,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>0</v>
       </c>
@@ -14376,7 +14372,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>41</v>
       </c>
@@ -14390,7 +14386,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>264</v>
       </c>
@@ -14410,7 +14406,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -14424,7 +14420,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -14438,7 +14434,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -14452,7 +14448,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>41</v>
       </c>
@@ -14466,7 +14462,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>186</v>
       </c>
@@ -14486,7 +14482,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -14500,7 +14496,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>2</v>
       </c>
@@ -14514,7 +14510,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>0</v>
       </c>
@@ -14528,7 +14524,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>246</v>
       </c>
@@ -14548,7 +14544,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -14562,7 +14558,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>2</v>
       </c>
@@ -14576,7 +14572,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>0</v>
       </c>
@@ -14590,7 +14586,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>41</v>
       </c>
@@ -14604,7 +14600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>275</v>
       </c>
@@ -14624,7 +14620,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>189</v>
       </c>
@@ -14638,7 +14634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>196</v>
       </c>
@@ -14652,7 +14648,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -14666,7 +14662,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -14680,7 +14676,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>282</v>
       </c>
@@ -14700,7 +14696,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>189</v>
       </c>
@@ -14714,7 +14710,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>196</v>
       </c>
@@ -14728,7 +14724,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>4</v>
       </c>
@@ -14742,7 +14738,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -14756,7 +14752,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>2</v>
       </c>
@@ -14770,7 +14766,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>0</v>
       </c>
@@ -14784,7 +14780,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>41</v>
       </c>
@@ -14798,7 +14794,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>291</v>
       </c>
@@ -14818,7 +14814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>3</v>
       </c>
@@ -14832,7 +14828,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>2</v>
       </c>
@@ -14846,7 +14842,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>0</v>
       </c>
@@ -14860,7 +14856,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>41</v>
       </c>
@@ -14874,7 +14870,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>291</v>
       </c>
@@ -14894,7 +14890,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>3</v>
       </c>
@@ -14908,7 +14904,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -14936,21 +14932,21 @@
   </sheetPr>
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E64" activeCellId="13" sqref="E3 E8 E12 E16 E21 E27 E37 E42 E47 E51 E53 E58 E62 E64"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -14970,7 +14966,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>314</v>
       </c>
@@ -14990,7 +14986,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -15004,7 +15000,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>317</v>
       </c>
@@ -15024,7 +15020,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -15038,7 +15034,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>2</v>
       </c>
@@ -15052,7 +15048,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>0</v>
       </c>
@@ -15066,7 +15062,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>201</v>
       </c>
@@ -15086,7 +15082,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>25</v>
       </c>
@@ -15100,7 +15096,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>4</v>
       </c>
@@ -15114,7 +15110,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>324</v>
       </c>
@@ -15134,7 +15130,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -15148,7 +15144,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>2</v>
       </c>
@@ -15162,7 +15158,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>328</v>
       </c>
@@ -15182,7 +15178,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>189</v>
       </c>
@@ -15196,7 +15192,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>196</v>
       </c>
@@ -15210,7 +15206,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -15224,7 +15220,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>333</v>
       </c>
@@ -15244,7 +15240,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>189</v>
       </c>
@@ -15258,7 +15254,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>196</v>
       </c>
@@ -15272,7 +15268,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>4</v>
       </c>
@@ -15286,7 +15282,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -15300,7 +15296,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>750</v>
       </c>
@@ -15317,7 +15313,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>767</v>
       </c>
@@ -15328,7 +15324,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>768</v>
       </c>
@@ -15339,7 +15335,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>337</v>
       </c>
@@ -15359,7 +15355,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -15373,7 +15369,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>2</v>
       </c>
@@ -15387,7 +15383,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -15401,7 +15397,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>41</v>
       </c>
@@ -15415,7 +15411,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>342</v>
       </c>
@@ -15435,7 +15431,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -15449,7 +15445,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>2</v>
       </c>
@@ -15463,7 +15459,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>0</v>
       </c>
@@ -15477,7 +15473,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>750</v>
       </c>
@@ -15494,7 +15490,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
         <v>770</v>
       </c>
@@ -15505,7 +15501,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>346</v>
       </c>
@@ -15525,7 +15521,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>348</v>
       </c>
@@ -15545,7 +15541,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>4</v>
       </c>
@@ -15559,7 +15555,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>3</v>
       </c>
@@ -15573,7 +15569,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>39</v>
       </c>
@@ -15593,7 +15589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>352</v>
       </c>
@@ -15613,7 +15609,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -15627,7 +15623,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>2</v>
       </c>
@@ -15641,7 +15637,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>0</v>
       </c>
@@ -15655,7 +15651,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>282</v>
       </c>
@@ -15675,7 +15671,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -15689,7 +15685,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>2</v>
       </c>
@@ -15703,7 +15699,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>275</v>
       </c>
@@ -15737,21 +15733,21 @@
   </sheetPr>
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E89" activeCellId="20" sqref="E3 E9 E11 E13 E15 E19 E24 E27 E36 E42 E46 E50 E54 E56 E62 E69 E71 E79 E83 E87 E89"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -15771,7 +15767,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>314</v>
       </c>
@@ -15791,7 +15787,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -15805,7 +15801,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>361</v>
       </c>
@@ -15825,7 +15821,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>189</v>
       </c>
@@ -15839,7 +15835,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>196</v>
       </c>
@@ -15853,7 +15849,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>4</v>
       </c>
@@ -15867,7 +15863,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -15881,7 +15877,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>201</v>
       </c>
@@ -15901,7 +15897,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>195</v>
       </c>
@@ -15921,7 +15917,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>367</v>
       </c>
@@ -15941,7 +15937,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>328</v>
       </c>
@@ -15961,7 +15957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -15975,7 +15971,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>2</v>
       </c>
@@ -15989,7 +15985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>372</v>
       </c>
@@ -16009,7 +16005,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>25</v>
       </c>
@@ -16023,7 +16019,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>4</v>
       </c>
@@ -16037,7 +16033,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -16051,7 +16047,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>377</v>
       </c>
@@ -16071,7 +16067,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>25</v>
       </c>
@@ -16085,7 +16081,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>750</v>
       </c>
@@ -16102,7 +16098,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>771</v>
       </c>
@@ -16113,7 +16109,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>337</v>
       </c>
@@ -16133,7 +16129,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -16147,7 +16143,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -16161,7 +16157,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>0</v>
       </c>
@@ -16175,7 +16171,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>41</v>
       </c>
@@ -16189,7 +16185,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>386</v>
       </c>
@@ -16209,7 +16205,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>4</v>
       </c>
@@ -16223,7 +16219,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -16237,7 +16233,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>2</v>
       </c>
@@ -16251,7 +16247,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>0</v>
       </c>
@@ -16265,7 +16261,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>396</v>
       </c>
@@ -16285,7 +16281,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>3</v>
       </c>
@@ -16299,7 +16295,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>2</v>
       </c>
@@ -16313,7 +16309,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>398</v>
       </c>
@@ -16333,7 +16329,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>25</v>
       </c>
@@ -16347,7 +16343,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>4</v>
       </c>
@@ -16361,7 +16357,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>400</v>
       </c>
@@ -16381,7 +16377,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>4</v>
       </c>
@@ -16395,7 +16391,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -16409,7 +16405,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>772</v>
       </c>
@@ -16429,7 +16425,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>34</v>
       </c>
@@ -16449,7 +16445,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>25</v>
       </c>
@@ -16463,7 +16459,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>4</v>
       </c>
@@ -16477,7 +16473,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -16491,7 +16487,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>2</v>
       </c>
@@ -16505,7 +16501,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>750</v>
       </c>
@@ -16522,7 +16518,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
         <v>774</v>
       </c>
@@ -16533,7 +16529,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>406</v>
       </c>
@@ -16553,7 +16549,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -16567,7 +16563,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>2</v>
       </c>
@@ -16581,7 +16577,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>348</v>
       </c>
@@ -16601,7 +16597,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>417</v>
       </c>
@@ -16621,7 +16617,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>3</v>
       </c>
@@ -16635,7 +16631,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>39</v>
       </c>
@@ -16655,7 +16651,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>25</v>
       </c>
@@ -16669,7 +16665,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>4</v>
       </c>
@@ -16683,7 +16679,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>3</v>
       </c>
@@ -16697,7 +16693,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>275</v>
       </c>
@@ -16717,7 +16713,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>3</v>
       </c>
@@ -16731,7 +16727,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>2</v>
       </c>
@@ -16745,7 +16741,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>282</v>
       </c>
@@ -16765,7 +16761,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>3</v>
       </c>
@@ -16779,7 +16775,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>2</v>
       </c>
@@ -16793,7 +16789,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>425</v>
       </c>
@@ -16827,22 +16823,22 @@
   </sheetPr>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E46" activeCellId="11" sqref="E5 E10 E13 E15 E21 E26 E28 E31 E34 E38 E42 E46"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -16862,7 +16858,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>361</v>
       </c>
@@ -16882,7 +16878,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -16896,7 +16892,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -16910,7 +16906,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -16924,7 +16920,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>201</v>
       </c>
@@ -16944,7 +16940,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>25</v>
       </c>
@@ -16958,7 +16954,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -16972,7 +16968,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -16986,7 +16982,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>432</v>
       </c>
@@ -17006,7 +17002,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>3</v>
       </c>
@@ -17020,7 +17016,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>333</v>
       </c>
@@ -17040,7 +17036,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>372</v>
       </c>
@@ -17060,7 +17056,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>4</v>
       </c>
@@ -17074,7 +17070,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -17088,7 +17084,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>2</v>
       </c>
@@ -17102,7 +17098,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>0</v>
       </c>
@@ -17116,7 +17112,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>377</v>
       </c>
@@ -17136,7 +17132,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -17150,7 +17146,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -17164,7 +17160,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>2</v>
       </c>
@@ -17178,7 +17174,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>447</v>
       </c>
@@ -17198,7 +17194,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>449</v>
       </c>
@@ -17218,7 +17214,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>3</v>
       </c>
@@ -17232,7 +17228,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>386</v>
       </c>
@@ -17252,7 +17248,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>4</v>
       </c>
@@ -17266,7 +17262,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>396</v>
       </c>
@@ -17286,7 +17282,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -17300,7 +17296,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>2</v>
       </c>
@@ -17314,7 +17310,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>398</v>
       </c>
@@ -17334,7 +17330,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>25</v>
       </c>
@@ -17348,7 +17344,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>4</v>
       </c>
@@ -17362,7 +17358,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>400</v>
       </c>
@@ -17382,7 +17378,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>3</v>
       </c>
@@ -17396,7 +17392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>2</v>
       </c>

--- a/Tennis/WTA Tour/Na Li.xlsx
+++ b/Tennis/WTA Tour/Na Li.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7596" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2864B6CD-BE53-43BF-AF9E-B3FC53C44410}"/>
+  <xr:revisionPtr revIDLastSave="7597" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C8AF4E8-38F7-4A58-9DE7-E87350174F97}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="9" activeTab="15" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="9" activeTab="15" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="1999" sheetId="5" r:id="rId1"/>
@@ -5197,20 +5197,20 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -5230,7 +5230,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>748</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
         <v>747</v>
       </c>
@@ -5258,7 +5258,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -5266,7 +5266,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -5286,7 +5286,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -5300,7 +5300,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>2</v>
       </c>
@@ -5314,7 +5314,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>0</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>41</v>
       </c>
@@ -5342,7 +5342,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>63</v>
       </c>
@@ -5362,7 +5362,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>3</v>
       </c>
@@ -5376,7 +5376,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>2</v>
       </c>
@@ -5390,7 +5390,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>0</v>
       </c>
@@ -5404,7 +5404,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>41</v>
       </c>
@@ -5418,7 +5418,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>75</v>
       </c>
@@ -5438,7 +5438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -5452,7 +5452,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>2</v>
       </c>
@@ -5466,7 +5466,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>0</v>
       </c>
@@ -5480,7 +5480,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>41</v>
       </c>
@@ -5494,7 +5494,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>81</v>
       </c>
@@ -5514,7 +5514,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -5528,7 +5528,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -5542,7 +5542,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>85</v>
       </c>
@@ -5562,7 +5562,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>88</v>
       </c>
@@ -5596,7 +5596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>3</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>2</v>
       </c>
@@ -5624,7 +5624,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>93</v>
       </c>
@@ -5644,7 +5644,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>94</v>
       </c>
@@ -5664,7 +5664,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -5692,20 +5692,20 @@
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -5725,7 +5725,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>314</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -5759,7 +5759,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -5773,7 +5773,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -5787,7 +5787,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>41</v>
       </c>
@@ -5801,7 +5801,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>201</v>
       </c>
@@ -5821,7 +5821,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>25</v>
       </c>
@@ -5835,7 +5835,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>750</v>
       </c>
@@ -5866,7 +5866,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>547</v>
       </c>
@@ -5877,7 +5877,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>468</v>
       </c>
@@ -5897,7 +5897,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -5911,7 +5911,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>2</v>
       </c>
@@ -5925,7 +5925,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -5939,7 +5939,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>328</v>
       </c>
@@ -5959,7 +5959,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -5973,7 +5973,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>3</v>
       </c>
@@ -5987,7 +5987,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>2</v>
       </c>
@@ -6001,7 +6001,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>0</v>
       </c>
@@ -6015,7 +6015,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>477</v>
       </c>
@@ -6035,7 +6035,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -6049,7 +6049,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -6069,7 +6069,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>25</v>
       </c>
@@ -6083,7 +6083,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>192</v>
       </c>
@@ -6103,7 +6103,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>4</v>
       </c>
@@ -6117,7 +6117,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -6131,7 +6131,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>2</v>
       </c>
@@ -6145,7 +6145,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -6159,7 +6159,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -6179,7 +6179,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>25</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -6207,7 +6207,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -6221,7 +6221,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>432</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>275</v>
       </c>
@@ -6261,7 +6261,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>492</v>
       </c>
@@ -6281,7 +6281,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>3</v>
       </c>
@@ -6295,7 +6295,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>2</v>
       </c>
@@ -6309,7 +6309,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>425</v>
       </c>
@@ -6329,7 +6329,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>493</v>
       </c>
@@ -6349,7 +6349,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>496</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -6383,7 +6383,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>2</v>
       </c>
@@ -6397,7 +6397,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>0</v>
       </c>
@@ -6426,20 +6426,20 @@
   <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -6459,7 +6459,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>506</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -6493,7 +6493,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>333</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>509</v>
       </c>
@@ -6533,7 +6533,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -6547,7 +6547,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -6561,7 +6561,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>0</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>41</v>
       </c>
@@ -6589,7 +6589,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>372</v>
       </c>
@@ -6609,7 +6609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>25</v>
       </c>
@@ -6623,7 +6623,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -6637,7 +6637,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -6651,7 +6651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>377</v>
       </c>
@@ -6671,7 +6671,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>25</v>
       </c>
@@ -6685,7 +6685,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -6699,7 +6699,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -6727,7 +6727,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>492</v>
       </c>
@@ -6747,7 +6747,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -6761,7 +6761,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>524</v>
       </c>
@@ -6781,7 +6781,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>744</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>4</v>
       </c>
@@ -6815,7 +6815,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>398</v>
       </c>
@@ -6835,7 +6835,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>25</v>
       </c>
@@ -6849,7 +6849,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>4</v>
       </c>
@@ -6863,7 +6863,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -6877,7 +6877,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>400</v>
       </c>
@@ -6897,7 +6897,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -6911,7 +6911,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -6925,7 +6925,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>0</v>
       </c>
@@ -6939,7 +6939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>41</v>
       </c>
@@ -6953,7 +6953,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>477</v>
       </c>
@@ -6973,7 +6973,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -6987,7 +6987,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>34</v>
       </c>
@@ -7007,7 +7007,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>25</v>
       </c>
@@ -7021,7 +7021,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>4</v>
       </c>
@@ -7035,7 +7035,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>538</v>
       </c>
@@ -7055,7 +7055,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>346</v>
       </c>
@@ -7075,7 +7075,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>4</v>
       </c>
@@ -7089,7 +7089,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -7103,7 +7103,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>39</v>
       </c>
@@ -7123,7 +7123,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>25</v>
       </c>
@@ -7137,7 +7137,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>4</v>
       </c>
@@ -7151,7 +7151,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>3</v>
       </c>
@@ -7165,7 +7165,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -7179,7 +7179,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>432</v>
       </c>
@@ -7199,7 +7199,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>4</v>
       </c>
@@ -7213,7 +7213,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>3</v>
       </c>
@@ -7227,7 +7227,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>2</v>
       </c>
@@ -7241,7 +7241,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>0</v>
       </c>
@@ -7255,7 +7255,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>275</v>
       </c>
@@ -7275,7 +7275,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -7304,20 +7304,20 @@
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -7337,7 +7337,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>558</v>
       </c>
@@ -7357,7 +7357,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>361</v>
       </c>
@@ -7377,7 +7377,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -7391,7 +7391,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>201</v>
       </c>
@@ -7411,7 +7411,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>25</v>
       </c>
@@ -7425,7 +7425,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -7439,7 +7439,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -7453,7 +7453,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -7467,7 +7467,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -7481,7 +7481,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>333</v>
       </c>
@@ -7501,7 +7501,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -7515,7 +7515,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>2</v>
       </c>
@@ -7529,7 +7529,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>564</v>
       </c>
@@ -7549,7 +7549,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>372</v>
       </c>
@@ -7569,7 +7569,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>377</v>
       </c>
@@ -7589,7 +7589,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>492</v>
       </c>
@@ -7609,7 +7609,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -7623,7 +7623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>2</v>
       </c>
@@ -7637,7 +7637,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>744</v>
       </c>
@@ -7657,7 +7657,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>4</v>
       </c>
@@ -7671,7 +7671,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -7685,7 +7685,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>2</v>
       </c>
@@ -7699,7 +7699,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>571</v>
       </c>
@@ -7719,7 +7719,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -7733,7 +7733,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>2</v>
       </c>
@@ -7747,7 +7747,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -7761,7 +7761,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>398</v>
       </c>
@@ -7781,7 +7781,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>25</v>
       </c>
@@ -7795,7 +7795,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -7809,7 +7809,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>400</v>
       </c>
@@ -7829,7 +7829,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>3</v>
       </c>
@@ -7843,7 +7843,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>2</v>
       </c>
@@ -7857,7 +7857,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>0</v>
       </c>
@@ -7871,7 +7871,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>41</v>
       </c>
@@ -7885,7 +7885,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>477</v>
       </c>
@@ -7905,7 +7905,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>34</v>
       </c>
@@ -7925,7 +7925,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>25</v>
       </c>
@@ -7939,7 +7939,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>4</v>
       </c>
@@ -7953,7 +7953,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>3</v>
       </c>
@@ -7967,7 +7967,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>2</v>
       </c>
@@ -7981,7 +7981,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>587</v>
       </c>
@@ -8001,7 +8001,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>3</v>
       </c>
@@ -8015,7 +8015,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>2</v>
       </c>
@@ -8029,7 +8029,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>0</v>
       </c>
@@ -8043,7 +8043,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>590</v>
       </c>
@@ -8063,7 +8063,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>3</v>
       </c>
@@ -8077,7 +8077,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>348</v>
       </c>
@@ -8097,7 +8097,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>3</v>
       </c>
@@ -8111,7 +8111,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>39</v>
       </c>
@@ -8131,7 +8131,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>275</v>
       </c>
@@ -8151,7 +8151,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>4</v>
       </c>
@@ -8165,7 +8165,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>3</v>
       </c>
@@ -8179,7 +8179,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>2</v>
       </c>
@@ -8193,7 +8193,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>0</v>
       </c>
@@ -8207,7 +8207,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>425</v>
       </c>
@@ -8227,7 +8227,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>695</v>
       </c>
@@ -8261,20 +8261,20 @@
   <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -8294,7 +8294,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>361</v>
       </c>
@@ -8314,7 +8314,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -8328,7 +8328,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -8342,7 +8342,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -8356,7 +8356,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>41</v>
       </c>
@@ -8370,7 +8370,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>201</v>
       </c>
@@ -8390,7 +8390,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>25</v>
       </c>
@@ -8404,7 +8404,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -8418,7 +8418,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -8432,7 +8432,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -8446,7 +8446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>0</v>
       </c>
@@ -8460,7 +8460,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>41</v>
       </c>
@@ -8474,7 +8474,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>333</v>
       </c>
@@ -8494,7 +8494,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>328</v>
       </c>
@@ -8514,7 +8514,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>372</v>
       </c>
@@ -8534,7 +8534,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>377</v>
       </c>
@@ -8554,7 +8554,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>492</v>
       </c>
@@ -8574,7 +8574,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -8588,7 +8588,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>744</v>
       </c>
@@ -8608,7 +8608,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -8622,7 +8622,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -8636,7 +8636,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -8650,7 +8650,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>0</v>
       </c>
@@ -8664,7 +8664,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>524</v>
       </c>
@@ -8684,7 +8684,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -8698,7 +8698,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>2</v>
       </c>
@@ -8712,7 +8712,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -8726,7 +8726,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>398</v>
       </c>
@@ -8746,7 +8746,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>25</v>
       </c>
@@ -8760,7 +8760,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -8774,7 +8774,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -8788,7 +8788,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>2</v>
       </c>
@@ -8802,7 +8802,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>0</v>
       </c>
@@ -8816,7 +8816,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>41</v>
       </c>
@@ -8830,7 +8830,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>477</v>
       </c>
@@ -8850,7 +8850,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -8864,7 +8864,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>34</v>
       </c>
@@ -8884,7 +8884,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>25</v>
       </c>
@@ -8898,7 +8898,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>348</v>
       </c>
@@ -8918,7 +8918,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>590</v>
       </c>
@@ -8938,7 +8938,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -8952,7 +8952,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>417</v>
       </c>
@@ -8972,7 +8972,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>2</v>
       </c>
@@ -8986,7 +8986,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>0</v>
       </c>
@@ -9000,7 +9000,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>39</v>
       </c>
@@ -9020,7 +9020,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>275</v>
       </c>
@@ -9040,7 +9040,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>693</v>
       </c>
@@ -9060,7 +9060,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>694</v>
       </c>
@@ -9074,7 +9074,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>694</v>
       </c>
@@ -9102,20 +9102,20 @@
   <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -9135,7 +9135,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>633</v>
       </c>
@@ -9155,7 +9155,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -9169,7 +9169,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -9183,7 +9183,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -9197,7 +9197,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>41</v>
       </c>
@@ -9211,7 +9211,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>201</v>
       </c>
@@ -9231,7 +9231,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>25</v>
       </c>
@@ -9245,7 +9245,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -9259,7 +9259,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -9273,7 +9273,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>750</v>
       </c>
@@ -9290,7 +9290,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>776</v>
       </c>
@@ -9301,7 +9301,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>423</v>
       </c>
@@ -9312,7 +9312,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>506</v>
       </c>
@@ -9332,7 +9332,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>372</v>
       </c>
@@ -9352,7 +9352,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -9366,7 +9366,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -9380,7 +9380,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -9394,7 +9394,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>377</v>
       </c>
@@ -9414,7 +9414,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>4</v>
       </c>
@@ -9428,7 +9428,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -9442,7 +9442,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -9456,7 +9456,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>492</v>
       </c>
@@ -9476,7 +9476,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -9490,7 +9490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>2</v>
       </c>
@@ -9504,7 +9504,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>744</v>
       </c>
@@ -9524,7 +9524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>4</v>
       </c>
@@ -9538,7 +9538,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -9552,7 +9552,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -9566,7 +9566,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>524</v>
       </c>
@@ -9586,7 +9586,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>3</v>
       </c>
@@ -9600,7 +9600,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>2</v>
       </c>
@@ -9614,7 +9614,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>0</v>
       </c>
@@ -9628,7 +9628,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>41</v>
       </c>
@@ -9642,7 +9642,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>398</v>
       </c>
@@ -9662,7 +9662,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>25</v>
       </c>
@@ -9676,7 +9676,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>4</v>
       </c>
@@ -9690,7 +9690,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -9704,7 +9704,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>34</v>
       </c>
@@ -9724,7 +9724,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>25</v>
       </c>
@@ -9738,7 +9738,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>192</v>
       </c>
@@ -9758,7 +9758,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>348</v>
       </c>
@@ -9778,7 +9778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -9792,7 +9792,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>2</v>
       </c>
@@ -9806,7 +9806,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>0</v>
       </c>
@@ -9820,7 +9820,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>41</v>
       </c>
@@ -9834,7 +9834,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>590</v>
       </c>
@@ -9854,7 +9854,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -9868,7 +9868,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>2</v>
       </c>
@@ -9882,7 +9882,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>0</v>
       </c>
@@ -9896,7 +9896,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>41</v>
       </c>
@@ -9910,7 +9910,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>39</v>
       </c>
@@ -9930,7 +9930,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>25</v>
       </c>
@@ -9944,7 +9944,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>4</v>
       </c>
@@ -9958,7 +9958,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>432</v>
       </c>
@@ -9978,7 +9978,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>3</v>
       </c>
@@ -9992,7 +9992,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>275</v>
       </c>
@@ -10012,7 +10012,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>4</v>
       </c>
@@ -10026,7 +10026,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>3</v>
       </c>
@@ -10040,7 +10040,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>2</v>
       </c>
@@ -10054,7 +10054,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>0</v>
       </c>
@@ -10068,7 +10068,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>693</v>
       </c>
@@ -10088,7 +10088,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>694</v>
       </c>
@@ -10102,7 +10102,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>694</v>
       </c>
@@ -10131,20 +10131,20 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -10164,7 +10164,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>679</v>
       </c>
@@ -10184,7 +10184,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -10198,7 +10198,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -10212,7 +10212,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -10226,7 +10226,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>41</v>
       </c>
@@ -10240,7 +10240,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>361</v>
       </c>
@@ -10260,7 +10260,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -10274,7 +10274,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -10288,7 +10288,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -10302,7 +10302,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>201</v>
       </c>
@@ -10322,7 +10322,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>25</v>
       </c>
@@ -10336,7 +10336,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -10350,7 +10350,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -10364,7 +10364,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>2</v>
       </c>
@@ -10378,7 +10378,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -10392,7 +10392,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>41</v>
       </c>
@@ -10406,7 +10406,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>377</v>
       </c>
@@ -10426,7 +10426,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>4</v>
       </c>
@@ -10440,7 +10440,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -10454,7 +10454,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -10468,7 +10468,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>492</v>
       </c>
@@ -10488,7 +10488,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -10502,7 +10502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>0</v>
       </c>
@@ -10516,7 +10516,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>41</v>
       </c>
@@ -10530,7 +10530,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>744</v>
       </c>
@@ -10550,7 +10550,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>524</v>
       </c>
@@ -10570,7 +10570,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -10584,7 +10584,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>398</v>
       </c>
@@ -10604,7 +10604,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>25</v>
       </c>
@@ -10618,7 +10618,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>477</v>
       </c>
@@ -10638,7 +10638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -10652,7 +10652,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>2</v>
       </c>
@@ -10666,7 +10666,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>34</v>
       </c>
@@ -10686,7 +10686,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>25</v>
       </c>
@@ -10700,7 +10700,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>4</v>
       </c>
@@ -10714,7 +10714,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -10728,7 +10728,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>2</v>
       </c>
@@ -10742,7 +10742,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>348</v>
       </c>
@@ -10762,7 +10762,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>3</v>
       </c>
@@ -10776,7 +10776,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>2</v>
       </c>
@@ -10790,7 +10790,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>0</v>
       </c>
@@ -10804,7 +10804,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>590</v>
       </c>
@@ -10824,7 +10824,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -10838,7 +10838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>2</v>
       </c>
@@ -10852,7 +10852,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>0</v>
       </c>
@@ -10866,7 +10866,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>39</v>
       </c>
@@ -10886,7 +10886,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>25</v>
       </c>
@@ -10900,7 +10900,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>4</v>
       </c>
@@ -10914,7 +10914,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>3</v>
       </c>
@@ -10928,7 +10928,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>2</v>
       </c>
@@ -10942,7 +10942,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>0</v>
       </c>
@@ -10956,7 +10956,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>275</v>
       </c>
@@ -10976,7 +10976,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>4</v>
       </c>
@@ -10990,7 +10990,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -11004,7 +11004,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>2</v>
       </c>
@@ -11018,7 +11018,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>693</v>
       </c>
@@ -11038,7 +11038,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>694</v>
       </c>
@@ -11052,7 +11052,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>694</v>
       </c>
@@ -11066,7 +11066,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>0</v>
       </c>
@@ -11080,7 +11080,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>41</v>
       </c>
@@ -11109,20 +11109,20 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -11142,7 +11142,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>679</v>
       </c>
@@ -11162,7 +11162,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -11176,7 +11176,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -11190,7 +11190,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -11204,7 +11204,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>41</v>
       </c>
@@ -11218,7 +11218,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>201</v>
       </c>
@@ -11238,7 +11238,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>25</v>
       </c>
@@ -11252,7 +11252,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -11266,7 +11266,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -11280,7 +11280,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -11294,7 +11294,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>0</v>
       </c>
@@ -11308,7 +11308,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>41</v>
       </c>
@@ -11322,7 +11322,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>328</v>
       </c>
@@ -11342,7 +11342,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -11356,7 +11356,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>372</v>
       </c>
@@ -11376,7 +11376,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -11390,7 +11390,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -11404,7 +11404,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -11418,7 +11418,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -11432,7 +11432,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>377</v>
       </c>
@@ -11452,7 +11452,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -11466,7 +11466,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -11480,7 +11480,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>0</v>
       </c>
@@ -11494,7 +11494,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>41</v>
       </c>
@@ -11508,7 +11508,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>744</v>
       </c>
@@ -11528,7 +11528,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>4</v>
       </c>
@@ -11542,7 +11542,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -11556,7 +11556,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -11570,7 +11570,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>524</v>
       </c>
@@ -11590,7 +11590,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -11604,7 +11604,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>2</v>
       </c>
@@ -11618,7 +11618,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>398</v>
       </c>
@@ -11638,7 +11638,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>34</v>
       </c>
@@ -11658,7 +11658,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>25</v>
       </c>
@@ -11672,7 +11672,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>4</v>
       </c>
@@ -11700,21 +11700,21 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -11734,7 +11734,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1999</v>
       </c>
@@ -11755,7 +11755,7 @@
         <v>0.82608695652173914</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2000</v>
       </c>
@@ -11776,7 +11776,7 @@
         <v>0.79032258064516125</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2001</v>
       </c>
@@ -11797,7 +11797,7 @@
         <v>0.46153846153846156</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2002</v>
       </c>
@@ -11818,7 +11818,7 @@
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2003</v>
       </c>
@@ -11839,7 +11839,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2004</v>
       </c>
@@ -11860,7 +11860,7 @@
         <v>0.91304347826086951</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2005</v>
       </c>
@@ -11882,7 +11882,7 @@
       </c>
       <c r="N8" s="7"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2006</v>
       </c>
@@ -11904,7 +11904,7 @@
       </c>
       <c r="N9" s="7"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2007</v>
       </c>
@@ -11926,7 +11926,7 @@
       </c>
       <c r="N10" s="7"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2008</v>
       </c>
@@ -11948,7 +11948,7 @@
       </c>
       <c r="N11" s="7"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2009</v>
       </c>
@@ -11970,7 +11970,7 @@
       </c>
       <c r="N12" s="7"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2010</v>
       </c>
@@ -11991,7 +11991,7 @@
         <v>0.44444444444444442</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2011</v>
       </c>
@@ -12012,7 +12012,7 @@
         <v>0.46875</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2012</v>
       </c>
@@ -12033,7 +12033,7 @@
         <v>0.62222222222222223</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2013</v>
       </c>
@@ -12054,7 +12054,7 @@
         <v>0.68181818181818177</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2014</v>
       </c>
@@ -12075,7 +12075,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -12100,7 +12100,7 @@
         <v>0.63636363636363635</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>55</v>
       </c>
@@ -12148,20 +12148,20 @@
   <dimension ref="A1:F97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -12181,7 +12181,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>114</v>
       </c>
@@ -12201,7 +12201,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -12215,7 +12215,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -12229,7 +12229,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -12243,7 +12243,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>41</v>
       </c>
@@ -12257,7 +12257,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>120</v>
       </c>
@@ -12277,7 +12277,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -12291,7 +12291,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -12305,7 +12305,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -12319,7 +12319,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>124</v>
       </c>
@@ -12339,7 +12339,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -12353,7 +12353,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -12367,7 +12367,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -12381,7 +12381,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>130</v>
       </c>
@@ -12401,7 +12401,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -12415,7 +12415,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>2</v>
       </c>
@@ -12429,7 +12429,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>0</v>
       </c>
@@ -12443,7 +12443,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>134</v>
       </c>
@@ -12463,7 +12463,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -12477,7 +12477,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -12491,7 +12491,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>0</v>
       </c>
@@ -12505,7 +12505,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>41</v>
       </c>
@@ -12519,7 +12519,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>134</v>
       </c>
@@ -12539,7 +12539,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -12553,7 +12553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>2</v>
       </c>
@@ -12567,7 +12567,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>0</v>
       </c>
@@ -12581,7 +12581,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>41</v>
       </c>
@@ -12595,7 +12595,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>143</v>
       </c>
@@ -12615,7 +12615,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -12629,7 +12629,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>2</v>
       </c>
@@ -12643,7 +12643,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>0</v>
       </c>
@@ -12657,7 +12657,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>41</v>
       </c>
@@ -12671,7 +12671,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>152</v>
       </c>
@@ -12691,7 +12691,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>3</v>
       </c>
@@ -12705,7 +12705,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>2</v>
       </c>
@@ -12719,7 +12719,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>0</v>
       </c>
@@ -12733,7 +12733,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>41</v>
       </c>
@@ -12747,7 +12747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>750</v>
       </c>
@@ -12764,7 +12764,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D48" t="s">
         <v>752</v>
       </c>
@@ -12775,7 +12775,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
         <v>753</v>
       </c>
@@ -12786,7 +12786,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D50" t="s">
         <v>754</v>
       </c>
@@ -12797,7 +12797,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D51" t="s">
         <v>755</v>
       </c>
@@ -12808,7 +12808,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D52" t="s">
         <v>322</v>
       </c>
@@ -12819,7 +12819,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>158</v>
       </c>
@@ -12839,7 +12839,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>160</v>
       </c>
@@ -12859,7 +12859,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>3</v>
       </c>
@@ -12873,7 +12873,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>2</v>
       </c>
@@ -12887,7 +12887,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>0</v>
       </c>
@@ -12901,7 +12901,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>41</v>
       </c>
@@ -12915,7 +12915,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>163</v>
       </c>
@@ -12935,7 +12935,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>3</v>
       </c>
@@ -12949,7 +12949,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>2</v>
       </c>
@@ -12963,7 +12963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>0</v>
       </c>
@@ -12977,7 +12977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>41</v>
       </c>
@@ -12991,7 +12991,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>169</v>
       </c>
@@ -13011,7 +13011,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -13025,7 +13025,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>171</v>
       </c>
@@ -13045,7 +13045,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>174</v>
       </c>
@@ -13065,7 +13065,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>3</v>
       </c>
@@ -13079,7 +13079,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>2</v>
       </c>
@@ -13093,7 +13093,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>178</v>
       </c>
@@ -13113,7 +13113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>181</v>
       </c>
@@ -13133,7 +13133,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>3</v>
       </c>
@@ -13147,7 +13147,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>2</v>
       </c>
@@ -13161,7 +13161,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>0</v>
       </c>
@@ -13175,7 +13175,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>41</v>
       </c>
@@ -13189,7 +13189,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>186</v>
       </c>
@@ -13209,7 +13209,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>39</v>
       </c>
@@ -13229,7 +13229,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>189</v>
       </c>
@@ -13243,7 +13243,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>192</v>
       </c>
@@ -13263,7 +13263,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>193</v>
       </c>
@@ -13283,7 +13283,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>3</v>
       </c>
@@ -13297,7 +13297,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>195</v>
       </c>
@@ -13317,7 +13317,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
         <v>189</v>
       </c>
@@ -13331,7 +13331,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="97" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
         <v>196</v>
       </c>
@@ -13360,20 +13360,20 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -13393,7 +13393,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>201</v>
       </c>
@@ -13413,7 +13413,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>204</v>
       </c>
@@ -13433,7 +13433,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>750</v>
       </c>
@@ -13450,7 +13450,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>145</v>
       </c>
@@ -13461,7 +13461,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>758</v>
       </c>
@@ -13472,7 +13472,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>163</v>
       </c>
@@ -13492,7 +13492,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -13506,7 +13506,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -13520,7 +13520,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>0</v>
       </c>
@@ -13534,7 +13534,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>41</v>
       </c>
@@ -13548,7 +13548,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>160</v>
       </c>
@@ -13568,7 +13568,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -13582,7 +13582,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -13602,7 +13602,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>217</v>
       </c>
@@ -13622,7 +13622,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>219</v>
       </c>
@@ -13642,7 +13642,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -13656,7 +13656,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -13670,7 +13670,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>0</v>
       </c>
@@ -13684,7 +13684,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>41</v>
       </c>
@@ -13698,7 +13698,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>193</v>
       </c>
@@ -13732,20 +13732,20 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -13765,7 +13765,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>228</v>
       </c>
@@ -13785,7 +13785,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -13799,7 +13799,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -13813,7 +13813,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -13827,7 +13827,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -13835,7 +13835,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>233</v>
       </c>
@@ -13855,7 +13855,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -13869,7 +13869,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>236</v>
       </c>
@@ -13889,7 +13889,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -13903,7 +13903,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -13917,7 +13917,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>0</v>
       </c>
@@ -13931,7 +13931,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>41</v>
       </c>
@@ -13945,7 +13945,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>750</v>
       </c>
@@ -13962,7 +13962,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>760</v>
       </c>
@@ -13973,7 +13973,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
         <v>761</v>
       </c>
@@ -13984,7 +13984,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>763</v>
       </c>
@@ -13995,7 +13995,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>764</v>
       </c>
@@ -14006,7 +14006,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>242</v>
       </c>
@@ -14026,7 +14026,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>750</v>
       </c>
@@ -14057,20 +14057,20 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -14090,7 +14090,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>244</v>
       </c>
@@ -14125,20 +14125,20 @@
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -14158,7 +14158,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>246</v>
       </c>
@@ -14178,7 +14178,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -14192,7 +14192,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -14206,7 +14206,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -14220,7 +14220,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>41</v>
       </c>
@@ -14234,7 +14234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>255</v>
       </c>
@@ -14254,7 +14254,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -14268,7 +14268,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -14282,7 +14282,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -14296,7 +14296,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>41</v>
       </c>
@@ -14310,7 +14310,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>260</v>
       </c>
@@ -14330,7 +14330,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -14344,7 +14344,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>2</v>
       </c>
@@ -14358,7 +14358,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>0</v>
       </c>
@@ -14372,7 +14372,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>41</v>
       </c>
@@ -14386,7 +14386,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>264</v>
       </c>
@@ -14406,7 +14406,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -14420,7 +14420,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -14434,7 +14434,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -14448,7 +14448,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>41</v>
       </c>
@@ -14462,7 +14462,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>186</v>
       </c>
@@ -14482,7 +14482,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -14496,7 +14496,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>2</v>
       </c>
@@ -14510,7 +14510,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>0</v>
       </c>
@@ -14524,7 +14524,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>246</v>
       </c>
@@ -14544,7 +14544,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -14558,7 +14558,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>2</v>
       </c>
@@ -14572,7 +14572,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>0</v>
       </c>
@@ -14586,7 +14586,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>41</v>
       </c>
@@ -14600,7 +14600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>275</v>
       </c>
@@ -14620,7 +14620,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>189</v>
       </c>
@@ -14634,7 +14634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>196</v>
       </c>
@@ -14648,7 +14648,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -14662,7 +14662,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -14676,7 +14676,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>282</v>
       </c>
@@ -14696,7 +14696,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>189</v>
       </c>
@@ -14710,7 +14710,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>196</v>
       </c>
@@ -14724,7 +14724,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>4</v>
       </c>
@@ -14738,7 +14738,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -14752,7 +14752,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>2</v>
       </c>
@@ -14766,7 +14766,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>0</v>
       </c>
@@ -14780,7 +14780,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>41</v>
       </c>
@@ -14794,7 +14794,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>291</v>
       </c>
@@ -14814,7 +14814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>3</v>
       </c>
@@ -14828,7 +14828,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>2</v>
       </c>
@@ -14842,7 +14842,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>0</v>
       </c>
@@ -14856,7 +14856,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>41</v>
       </c>
@@ -14870,7 +14870,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>291</v>
       </c>
@@ -14890,7 +14890,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>3</v>
       </c>
@@ -14904,7 +14904,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -14933,20 +14933,20 @@
   <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -14966,7 +14966,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>314</v>
       </c>
@@ -14986,7 +14986,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -15000,7 +15000,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>317</v>
       </c>
@@ -15020,7 +15020,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -15034,7 +15034,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>2</v>
       </c>
@@ -15048,7 +15048,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>0</v>
       </c>
@@ -15062,7 +15062,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>201</v>
       </c>
@@ -15082,7 +15082,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>25</v>
       </c>
@@ -15096,7 +15096,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>4</v>
       </c>
@@ -15110,7 +15110,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>324</v>
       </c>
@@ -15130,7 +15130,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -15144,7 +15144,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>2</v>
       </c>
@@ -15158,7 +15158,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>328</v>
       </c>
@@ -15178,7 +15178,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>189</v>
       </c>
@@ -15192,7 +15192,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>196</v>
       </c>
@@ -15206,7 +15206,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -15220,7 +15220,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>333</v>
       </c>
@@ -15240,7 +15240,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>189</v>
       </c>
@@ -15254,7 +15254,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>196</v>
       </c>
@@ -15268,7 +15268,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>4</v>
       </c>
@@ -15282,7 +15282,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -15296,7 +15296,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>750</v>
       </c>
@@ -15313,7 +15313,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
         <v>767</v>
       </c>
@@ -15324,7 +15324,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
         <v>768</v>
       </c>
@@ -15335,7 +15335,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>337</v>
       </c>
@@ -15355,7 +15355,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -15369,7 +15369,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>2</v>
       </c>
@@ -15383,7 +15383,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -15397,7 +15397,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>41</v>
       </c>
@@ -15411,7 +15411,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>342</v>
       </c>
@@ -15431,7 +15431,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -15445,7 +15445,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>2</v>
       </c>
@@ -15459,7 +15459,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>0</v>
       </c>
@@ -15473,7 +15473,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>750</v>
       </c>
@@ -15490,7 +15490,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
         <v>770</v>
       </c>
@@ -15501,7 +15501,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>346</v>
       </c>
@@ -15521,7 +15521,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>348</v>
       </c>
@@ -15541,7 +15541,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>4</v>
       </c>
@@ -15555,7 +15555,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>3</v>
       </c>
@@ -15569,7 +15569,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>39</v>
       </c>
@@ -15589,7 +15589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>352</v>
       </c>
@@ -15609,7 +15609,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -15623,7 +15623,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>2</v>
       </c>
@@ -15637,7 +15637,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>0</v>
       </c>
@@ -15651,7 +15651,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>282</v>
       </c>
@@ -15671,7 +15671,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -15685,7 +15685,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>2</v>
       </c>
@@ -15699,7 +15699,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>275</v>
       </c>
@@ -15734,20 +15734,20 @@
   <dimension ref="A1:F89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -15767,7 +15767,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>314</v>
       </c>
@@ -15787,7 +15787,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -15801,7 +15801,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>361</v>
       </c>
@@ -15821,7 +15821,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>189</v>
       </c>
@@ -15835,7 +15835,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>196</v>
       </c>
@@ -15849,7 +15849,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>4</v>
       </c>
@@ -15863,7 +15863,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -15877,7 +15877,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>201</v>
       </c>
@@ -15897,7 +15897,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>195</v>
       </c>
@@ -15917,7 +15917,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>367</v>
       </c>
@@ -15937,7 +15937,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>328</v>
       </c>
@@ -15957,7 +15957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -15971,7 +15971,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>2</v>
       </c>
@@ -15985,7 +15985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>372</v>
       </c>
@@ -16005,7 +16005,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>25</v>
       </c>
@@ -16019,7 +16019,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>4</v>
       </c>
@@ -16033,7 +16033,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -16047,7 +16047,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>377</v>
       </c>
@@ -16067,7 +16067,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>25</v>
       </c>
@@ -16081,7 +16081,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>750</v>
       </c>
@@ -16098,7 +16098,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
         <v>771</v>
       </c>
@@ -16109,7 +16109,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>337</v>
       </c>
@@ -16129,7 +16129,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -16143,7 +16143,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -16157,7 +16157,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>0</v>
       </c>
@@ -16171,7 +16171,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>41</v>
       </c>
@@ -16185,7 +16185,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>386</v>
       </c>
@@ -16205,7 +16205,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>4</v>
       </c>
@@ -16219,7 +16219,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -16233,7 +16233,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>2</v>
       </c>
@@ -16247,7 +16247,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>0</v>
       </c>
@@ -16261,7 +16261,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>396</v>
       </c>
@@ -16281,7 +16281,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>3</v>
       </c>
@@ -16295,7 +16295,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>2</v>
       </c>
@@ -16309,7 +16309,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>398</v>
       </c>
@@ -16329,7 +16329,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>25</v>
       </c>
@@ -16343,7 +16343,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>4</v>
       </c>
@@ -16357,7 +16357,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>400</v>
       </c>
@@ -16377,7 +16377,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>4</v>
       </c>
@@ -16391,7 +16391,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -16405,7 +16405,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>772</v>
       </c>
@@ -16425,7 +16425,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>34</v>
       </c>
@@ -16445,7 +16445,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>25</v>
       </c>
@@ -16459,7 +16459,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>4</v>
       </c>
@@ -16473,7 +16473,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -16487,7 +16487,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>2</v>
       </c>
@@ -16501,7 +16501,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>750</v>
       </c>
@@ -16518,7 +16518,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D65" t="s">
         <v>774</v>
       </c>
@@ -16529,7 +16529,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>406</v>
       </c>
@@ -16549,7 +16549,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -16563,7 +16563,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>2</v>
       </c>
@@ -16577,7 +16577,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>348</v>
       </c>
@@ -16597,7 +16597,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>417</v>
       </c>
@@ -16617,7 +16617,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>3</v>
       </c>
@@ -16631,7 +16631,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>39</v>
       </c>
@@ -16651,7 +16651,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>25</v>
       </c>
@@ -16665,7 +16665,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>4</v>
       </c>
@@ -16679,7 +16679,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>3</v>
       </c>
@@ -16693,7 +16693,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>275</v>
       </c>
@@ -16713,7 +16713,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>3</v>
       </c>
@@ -16727,7 +16727,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>2</v>
       </c>
@@ -16741,7 +16741,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>282</v>
       </c>
@@ -16761,7 +16761,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>3</v>
       </c>
@@ -16775,7 +16775,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>2</v>
       </c>
@@ -16789,7 +16789,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>425</v>
       </c>
@@ -16824,21 +16824,21 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -16858,7 +16858,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>361</v>
       </c>
@@ -16878,7 +16878,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -16892,7 +16892,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -16906,7 +16906,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -16920,7 +16920,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>201</v>
       </c>
@@ -16940,7 +16940,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>25</v>
       </c>
@@ -16954,7 +16954,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -16968,7 +16968,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -16982,7 +16982,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>432</v>
       </c>
@@ -17002,7 +17002,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>3</v>
       </c>
@@ -17016,7 +17016,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>333</v>
       </c>
@@ -17036,7 +17036,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>372</v>
       </c>
@@ -17056,7 +17056,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>4</v>
       </c>
@@ -17070,7 +17070,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -17084,7 +17084,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>2</v>
       </c>
@@ -17098,7 +17098,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>0</v>
       </c>
@@ -17112,7 +17112,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>377</v>
       </c>
@@ -17132,7 +17132,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -17146,7 +17146,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -17160,7 +17160,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>2</v>
       </c>
@@ -17174,7 +17174,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>447</v>
       </c>
@@ -17194,7 +17194,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>449</v>
       </c>
@@ -17214,7 +17214,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>3</v>
       </c>
@@ -17228,7 +17228,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>386</v>
       </c>
@@ -17248,7 +17248,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>4</v>
       </c>
@@ -17262,7 +17262,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>396</v>
       </c>
@@ -17282,7 +17282,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -17296,7 +17296,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>2</v>
       </c>
@@ -17310,7 +17310,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>398</v>
       </c>
@@ -17330,7 +17330,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>25</v>
       </c>
@@ -17344,7 +17344,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>4</v>
       </c>
@@ -17358,7 +17358,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>400</v>
       </c>
@@ -17378,7 +17378,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>3</v>
       </c>
@@ -17392,7 +17392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>2</v>
       </c>

--- a/Tennis/WTA Tour/Na Li.xlsx
+++ b/Tennis/WTA Tour/Na Li.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -4894,6 +4894,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5197,7 +5201,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5692,7 +5696,7 @@
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6426,7 +6430,7 @@
   <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7304,7 +7308,7 @@
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8261,7 +8265,7 @@
   <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9102,7 +9106,7 @@
   <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10131,7 +10135,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11109,7 +11113,7 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11700,7 +11704,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12148,7 +12152,7 @@
   <dimension ref="A1:F97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13360,7 +13364,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13732,7 +13736,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14057,7 +14061,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14125,7 +14129,7 @@
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14933,7 +14937,7 @@
   <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15734,7 +15738,7 @@
   <dimension ref="A1:F89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16824,7 +16828,7 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tennis/WTA Tour/Na Li.xlsx
+++ b/Tennis/WTA Tour/Na Li.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7597" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C8AF4E8-38F7-4A58-9DE7-E87350174F97}"/>
+  <xr:revisionPtr revIDLastSave="7600" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0DB80B6-4639-43BB-A3C4-238658EADD9B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="9" activeTab="15" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3305" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3314" uniqueCount="776">
   <si>
     <t>Semifinal</t>
   </si>
@@ -1784,9 +1784,6 @@
     <t>4-6 6-3 7-5</t>
   </si>
   <si>
-    <t>Anne Keothavong (GREAT BRITAIN)</t>
-  </si>
-  <si>
     <t>Angelique Kerber (GERMANY)</t>
   </si>
   <si>
@@ -2279,9 +2276,6 @@
     <t>Kristina Mladenovic (FRANCE)</t>
   </si>
   <si>
-    <t>Paula Kania-Choduń (POLAND)</t>
-  </si>
-  <si>
     <t>Yvonne Meusburger (AUSTRIA)</t>
   </si>
   <si>
@@ -2382,6 +2376,9 @@
   </si>
   <si>
     <t>Nigina Abduraimova (UZBEKISTAN)</t>
+  </si>
+  <si>
+    <t>Paula Kania (POLAND)</t>
   </si>
 </sst>
 </file>
@@ -4894,10 +4891,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5198,7 +5191,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -5236,13 +5229,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>19</v>
@@ -5253,13 +5246,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -5680,6 +5673,11 @@
       </c>
       <c r="F37" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>775</v>
       </c>
     </row>
   </sheetData>
@@ -5855,7 +5853,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -5867,7 +5865,7 @@
         <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -6223,6 +6221,11 @@
       </c>
       <c r="F41" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -6787,7 +6790,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
@@ -6955,6 +6958,11 @@
       </c>
       <c r="F41" t="s">
         <v>529</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -7643,7 +7651,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
@@ -7824,7 +7832,7 @@
         <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>577</v>
+        <v>775</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>19</v>
@@ -7838,7 +7846,7 @@
         <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>19</v>
@@ -7880,7 +7888,7 @@
         <v>41</v>
       </c>
       <c r="D46" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>19</v>
@@ -7906,7 +7914,7 @@
         <v>18</v>
       </c>
       <c r="F48" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -7920,7 +7928,7 @@
         <v>321</v>
       </c>
       <c r="D50" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>19</v>
@@ -7934,7 +7942,7 @@
         <v>25</v>
       </c>
       <c r="D51" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>19</v>
@@ -7982,12 +7990,12 @@
         <v>18</v>
       </c>
       <c r="F54" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B56" t="s">
         <v>17</v>
@@ -7996,7 +8004,7 @@
         <v>4</v>
       </c>
       <c r="D56" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>19</v>
@@ -8024,7 +8032,7 @@
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>19</v>
@@ -8038,18 +8046,18 @@
         <v>0</v>
       </c>
       <c r="D59" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F59" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B61" t="s">
         <v>17</v>
@@ -8072,13 +8080,13 @@
         <v>3</v>
       </c>
       <c r="D62" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F62" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -8092,7 +8100,7 @@
         <v>4</v>
       </c>
       <c r="D64" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>19</v>
@@ -8132,7 +8140,7 @@
         <v>18</v>
       </c>
       <c r="F67" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -8146,7 +8154,7 @@
         <v>25</v>
       </c>
       <c r="D69" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>19</v>
@@ -8160,7 +8168,7 @@
         <v>4</v>
       </c>
       <c r="D70" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>19</v>
@@ -8174,7 +8182,7 @@
         <v>3</v>
       </c>
       <c r="D71" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>19</v>
@@ -8188,7 +8196,7 @@
         <v>2</v>
       </c>
       <c r="D72" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>19</v>
@@ -8233,7 +8241,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B77" t="s">
         <v>17</v>
@@ -8242,7 +8250,7 @@
         <v>2</v>
       </c>
       <c r="D77" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>18</v>
@@ -8329,7 +8337,7 @@
         <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -8343,7 +8351,7 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -8351,7 +8359,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
@@ -8371,7 +8379,7 @@
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -8391,7 +8399,7 @@
         <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -8399,13 +8407,13 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -8413,7 +8421,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>19</v>
@@ -8433,7 +8441,7 @@
         <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -8441,7 +8449,7 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>19</v>
@@ -8461,7 +8469,7 @@
         <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -8489,13 +8497,13 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -8509,7 +8517,7 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>18</v>
@@ -8549,13 +8557,13 @@
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F22" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -8569,7 +8577,7 @@
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>19</v>
@@ -8583,18 +8591,18 @@
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F25" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B27" t="s">
         <v>29</v>
@@ -8609,7 +8617,7 @@
         <v>19</v>
       </c>
       <c r="F27" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -8637,7 +8645,7 @@
         <v>19</v>
       </c>
       <c r="F29" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -8645,7 +8653,7 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>19</v>
@@ -8659,7 +8667,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>18</v>
@@ -8727,7 +8735,7 @@
         <v>18</v>
       </c>
       <c r="F36" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -8741,13 +8749,13 @@
         <v>321</v>
       </c>
       <c r="D38" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F38" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -8755,7 +8763,7 @@
         <v>25</v>
       </c>
       <c r="D39" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>19</v>
@@ -8769,13 +8777,13 @@
         <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F40" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -8783,13 +8791,13 @@
         <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F41" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -8797,13 +8805,13 @@
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>462</v>
+        <v>775</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F42" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -8817,7 +8825,7 @@
         <v>19</v>
       </c>
       <c r="F43" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -8831,7 +8839,7 @@
         <v>19</v>
       </c>
       <c r="F44" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -8845,7 +8853,7 @@
         <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>19</v>
@@ -8879,7 +8887,7 @@
         <v>321</v>
       </c>
       <c r="D49" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>19</v>
@@ -8893,13 +8901,13 @@
         <v>25</v>
       </c>
       <c r="D50" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F50" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -8924,7 +8932,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B54" t="s">
         <v>17</v>
@@ -8973,7 +8981,7 @@
         <v>19</v>
       </c>
       <c r="F57" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -9001,7 +9009,7 @@
         <v>18</v>
       </c>
       <c r="F59" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -9015,7 +9023,7 @@
         <v>321</v>
       </c>
       <c r="D61" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>18</v>
@@ -9035,7 +9043,7 @@
         <v>25</v>
       </c>
       <c r="D63" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>18</v>
@@ -9046,27 +9054,27 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B65" t="s">
         <v>17</v>
       </c>
       <c r="C65" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D65" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F65" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D66" t="s">
         <v>462</v>
@@ -9080,7 +9088,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D67" t="s">
         <v>434</v>
@@ -9141,7 +9149,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -9164,13 +9172,13 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -9184,7 +9192,7 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -9192,13 +9200,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -9226,7 +9234,7 @@
         <v>321</v>
       </c>
       <c r="D8" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>19</v>
@@ -9240,13 +9248,13 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -9260,7 +9268,7 @@
         <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -9274,18 +9282,18 @@
         <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>19</v>
@@ -9296,7 +9304,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>19</v>
@@ -9333,7 +9341,7 @@
         <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -9375,7 +9383,7 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>19</v>
@@ -9389,7 +9397,7 @@
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>18</v>
@@ -9409,7 +9417,7 @@
         <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>19</v>
@@ -9437,7 +9445,7 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>19</v>
@@ -9477,7 +9485,7 @@
         <v>19</v>
       </c>
       <c r="F29" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -9485,7 +9493,7 @@
         <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>19</v>
@@ -9510,7 +9518,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B33" t="s">
         <v>29</v>
@@ -9519,7 +9527,7 @@
         <v>25</v>
       </c>
       <c r="D33" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>19</v>
@@ -9533,7 +9541,7 @@
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>19</v>
@@ -9547,7 +9555,7 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>19</v>
@@ -9595,7 +9603,7 @@
         <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>19</v>
@@ -9637,13 +9645,13 @@
         <v>41</v>
       </c>
       <c r="D42" t="s">
-        <v>323</v>
+        <v>775</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F42" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -9657,13 +9665,13 @@
         <v>321</v>
       </c>
       <c r="D44" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F44" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -9671,13 +9679,13 @@
         <v>25</v>
       </c>
       <c r="D45" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F45" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -9685,13 +9693,13 @@
         <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F46" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -9705,7 +9713,7 @@
         <v>18</v>
       </c>
       <c r="F47" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -9719,13 +9727,13 @@
         <v>321</v>
       </c>
       <c r="D49" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F49" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -9733,7 +9741,7 @@
         <v>25</v>
       </c>
       <c r="D50" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>18</v>
@@ -9759,7 +9767,7 @@
         <v>18</v>
       </c>
       <c r="F52" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -9773,7 +9781,7 @@
         <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>19</v>
@@ -9829,18 +9837,18 @@
         <v>41</v>
       </c>
       <c r="D58" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F58" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B60" t="s">
         <v>17</v>
@@ -9849,13 +9857,13 @@
         <v>4</v>
       </c>
       <c r="D60" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F60" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -9863,7 +9871,7 @@
         <v>3</v>
       </c>
       <c r="D61" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>19</v>
@@ -9891,13 +9899,13 @@
         <v>0</v>
       </c>
       <c r="D63" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F63" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -9905,13 +9913,13 @@
         <v>41</v>
       </c>
       <c r="D64" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F64" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -9925,13 +9933,13 @@
         <v>321</v>
       </c>
       <c r="D66" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F66" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -9939,13 +9947,13 @@
         <v>25</v>
       </c>
       <c r="D67" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F67" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -9953,7 +9961,7 @@
         <v>4</v>
       </c>
       <c r="D68" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>18</v>
@@ -9973,13 +9981,13 @@
         <v>4</v>
       </c>
       <c r="D70" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F70" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -10021,7 +10029,7 @@
         <v>4</v>
       </c>
       <c r="D74" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>19</v>
@@ -10035,13 +10043,13 @@
         <v>3</v>
       </c>
       <c r="D75" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F75" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -10063,7 +10071,7 @@
         <v>0</v>
       </c>
       <c r="D77" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>18</v>
@@ -10074,13 +10082,13 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B79" t="s">
         <v>17</v>
       </c>
       <c r="C79" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D79" t="s">
         <v>365</v>
@@ -10094,10 +10102,10 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D80" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>19</v>
@@ -10108,7 +10116,7 @@
     </row>
     <row r="81" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D81" t="s">
         <v>462</v>
@@ -10170,7 +10178,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -10179,7 +10187,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>19</v>
@@ -10193,7 +10201,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>19</v>
@@ -10207,7 +10215,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>19</v>
@@ -10221,7 +10229,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
@@ -10235,13 +10243,13 @@
         <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -10255,13 +10263,13 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -10269,7 +10277,7 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>19</v>
@@ -10283,13 +10291,13 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -10317,13 +10325,13 @@
         <v>321</v>
       </c>
       <c r="D13" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -10331,13 +10339,13 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -10345,13 +10353,13 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -10359,13 +10367,13 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F16" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -10379,7 +10387,7 @@
         <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -10387,13 +10395,13 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F18" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -10407,7 +10415,7 @@
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -10421,7 +10429,7 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>19</v>
@@ -10435,7 +10443,7 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>19</v>
@@ -10449,7 +10457,7 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>19</v>
@@ -10469,7 +10477,7 @@
         <v>18</v>
       </c>
       <c r="F24" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -10483,13 +10491,13 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
+        <v>689</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" t="s">
         <v>690</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -10497,7 +10505,7 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>19</v>
@@ -10511,7 +10519,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>19</v>
@@ -10525,18 +10533,18 @@
         <v>41</v>
       </c>
       <c r="D29" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F29" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B31" t="s">
         <v>29</v>
@@ -10545,7 +10553,7 @@
         <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>18</v>
@@ -10585,7 +10593,7 @@
         <v>18</v>
       </c>
       <c r="F34" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -10599,13 +10607,13 @@
         <v>321</v>
       </c>
       <c r="D36" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F36" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -10613,13 +10621,13 @@
         <v>25</v>
       </c>
       <c r="D37" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F37" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -10670,6 +10678,11 @@
         <v>543</v>
       </c>
     </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>775</v>
+      </c>
+    </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>34</v>
@@ -10681,13 +10694,13 @@
         <v>321</v>
       </c>
       <c r="D43" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F43" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -10695,13 +10708,13 @@
         <v>25</v>
       </c>
       <c r="D44" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F44" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -10709,13 +10722,13 @@
         <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -10723,13 +10736,13 @@
         <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F46" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -10743,7 +10756,7 @@
         <v>18</v>
       </c>
       <c r="F47" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -10757,7 +10770,7 @@
         <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>19</v>
@@ -10777,7 +10790,7 @@
         <v>19</v>
       </c>
       <c r="F50" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -10791,7 +10804,7 @@
         <v>19</v>
       </c>
       <c r="F51" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -10799,18 +10812,18 @@
         <v>0</v>
       </c>
       <c r="D52" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F52" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B54" t="s">
         <v>17</v>
@@ -10819,13 +10832,13 @@
         <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F54" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -10833,7 +10846,7 @@
         <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>19</v>
@@ -10881,13 +10894,13 @@
         <v>321</v>
       </c>
       <c r="D59" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F59" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -10895,13 +10908,13 @@
         <v>25</v>
       </c>
       <c r="D60" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F60" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -10909,13 +10922,13 @@
         <v>4</v>
       </c>
       <c r="D61" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F61" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -10929,7 +10942,7 @@
         <v>19</v>
       </c>
       <c r="F62" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -10985,7 +10998,7 @@
         <v>4</v>
       </c>
       <c r="D67" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>19</v>
@@ -10999,7 +11012,7 @@
         <v>3</v>
       </c>
       <c r="D68" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>19</v>
@@ -11013,24 +11026,24 @@
         <v>2</v>
       </c>
       <c r="D69" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F69" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B71" t="s">
         <v>17</v>
       </c>
       <c r="C71" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D71" t="s">
         <v>568</v>
@@ -11039,12 +11052,12 @@
         <v>19</v>
       </c>
       <c r="F71" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D72" t="s">
         <v>287</v>
@@ -11053,12 +11066,12 @@
         <v>19</v>
       </c>
       <c r="F72" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D73" t="s">
         <v>462</v>
@@ -11075,7 +11088,7 @@
         <v>0</v>
       </c>
       <c r="D74" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>19</v>
@@ -11095,7 +11108,7 @@
         <v>18</v>
       </c>
       <c r="F75" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
   </sheetData>
@@ -11148,7 +11161,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -11171,7 +11184,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>19</v>
@@ -11185,13 +11198,13 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -11199,7 +11212,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
@@ -11213,7 +11226,7 @@
         <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>19</v>
@@ -11233,13 +11246,13 @@
         <v>321</v>
       </c>
       <c r="D8" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -11247,13 +11260,13 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -11267,7 +11280,7 @@
         <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -11303,13 +11316,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -11323,7 +11336,7 @@
         <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -11357,7 +11370,7 @@
         <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -11385,7 +11398,7 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>19</v>
@@ -11399,7 +11412,7 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>19</v>
@@ -11419,7 +11432,7 @@
         <v>19</v>
       </c>
       <c r="F22" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -11447,13 +11460,13 @@
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F25" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -11495,7 +11508,7 @@
         <v>19</v>
       </c>
       <c r="F28" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -11509,12 +11522,12 @@
         <v>18</v>
       </c>
       <c r="F29" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B31" t="s">
         <v>29</v>
@@ -11523,13 +11536,13 @@
         <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -11551,7 +11564,7 @@
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>19</v>
@@ -11565,13 +11578,13 @@
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F34" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -11585,7 +11598,7 @@
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>19</v>
@@ -11633,13 +11646,13 @@
         <v>321</v>
       </c>
       <c r="D40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F40" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -11653,7 +11666,7 @@
         <v>321</v>
       </c>
       <c r="D42" t="s">
-        <v>742</v>
+        <v>775</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>19</v>
@@ -11667,7 +11680,7 @@
         <v>25</v>
       </c>
       <c r="D43" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>19</v>
@@ -11681,13 +11694,13 @@
         <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F44" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
   </sheetData>
@@ -11701,7 +11714,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -11712,7 +11725,7 @@
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.109375" customWidth="1"/>
@@ -12127,6 +12140,11 @@
       <c r="F19" s="6">
         <f t="shared" si="1"/>
         <v>0.63636363636363635</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>775</v>
       </c>
     </row>
   </sheetData>
@@ -12700,7 +12718,7 @@
         <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>154</v>
+        <v>775</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>19</v>
@@ -12753,13 +12771,13 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B47" t="s">
         <v>17</v>
       </c>
       <c r="D47" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>19</v>
@@ -12770,7 +12788,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D48" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>19</v>
@@ -12781,18 +12799,18 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F49" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D50" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>19</v>
@@ -12803,7 +12821,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D51" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>19</v>
@@ -13361,7 +13379,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -13439,19 +13457,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -13467,7 +13485,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>18</v>
@@ -13720,6 +13738,11 @@
       </c>
       <c r="F29" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>775</v>
       </c>
     </row>
   </sheetData>
@@ -13733,7 +13756,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -13951,13 +13974,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>19</v>
@@ -13968,7 +13991,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>19</v>
@@ -13979,7 +14002,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>19</v>
@@ -13990,7 +14013,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>19</v>
@@ -14001,13 +14024,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -14032,19 +14055,24 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B24" t="s">
         <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F24" t="s">
         <v>269</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>775</v>
       </c>
     </row>
   </sheetData>
@@ -14058,7 +14086,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -14069,7 +14097,7 @@
     <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -14112,6 +14140,11 @@
       </c>
       <c r="F2" t="s">
         <v>244</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>775</v>
       </c>
     </row>
   </sheetData>
@@ -14680,6 +14713,11 @@
         <v>276</v>
       </c>
     </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>775</v>
+      </c>
+    </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>282</v>
@@ -15302,13 +15340,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B29" t="s">
         <v>17</v>
       </c>
       <c r="D29" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>19</v>
@@ -15319,7 +15357,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>19</v>
@@ -15330,7 +15368,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>19</v>
@@ -15468,7 +15506,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>344</v>
+        <v>775</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>18</v>
@@ -15479,13 +15517,13 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B44" t="s">
         <v>17</v>
       </c>
       <c r="D44" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>19</v>
@@ -15496,7 +15534,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>19</v>
@@ -16087,7 +16125,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B29" t="s">
         <v>17</v>
@@ -16099,12 +16137,12 @@
         <v>19</v>
       </c>
       <c r="F29" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>19</v>
@@ -16256,7 +16294,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>316</v>
+        <v>775</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>18</v>
@@ -16411,7 +16449,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B56" t="s">
         <v>32</v>
@@ -16507,13 +16545,13 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B64" t="s">
         <v>17</v>
       </c>
       <c r="D64" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>19</v>
@@ -16524,7 +16562,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D65" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>19</v>
@@ -17353,7 +17391,7 @@
         <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>454</v>
+        <v>775</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>18</v>

--- a/Tennis/WTA Tour/Na Li.xlsx
+++ b/Tennis/WTA Tour/Na Li.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7600" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0DB80B6-4639-43BB-A3C4-238658EADD9B}"/>
+  <xr:revisionPtr revIDLastSave="7601" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68EB0911-1606-4A7B-ADFC-3446579D361F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="9" activeTab="15" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="9" activeTab="15" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="1999" sheetId="5" r:id="rId1"/>
@@ -4891,6 +4891,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5197,17 +5201,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -5227,7 +5231,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>746</v>
       </c>
@@ -5244,7 +5248,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>745</v>
       </c>
@@ -5255,7 +5259,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -5263,7 +5267,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -5283,7 +5287,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -5297,7 +5301,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>2</v>
       </c>
@@ -5311,7 +5315,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>0</v>
       </c>
@@ -5325,7 +5329,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>41</v>
       </c>
@@ -5339,7 +5343,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>63</v>
       </c>
@@ -5359,7 +5363,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>3</v>
       </c>
@@ -5373,7 +5377,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>2</v>
       </c>
@@ -5387,7 +5391,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>0</v>
       </c>
@@ -5401,7 +5405,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>41</v>
       </c>
@@ -5415,7 +5419,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>75</v>
       </c>
@@ -5435,7 +5439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -5449,7 +5453,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>2</v>
       </c>
@@ -5463,7 +5467,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>0</v>
       </c>
@@ -5477,7 +5481,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>41</v>
       </c>
@@ -5491,7 +5495,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>81</v>
       </c>
@@ -5511,7 +5515,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -5525,7 +5529,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -5539,7 +5543,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>85</v>
       </c>
@@ -5559,7 +5563,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -5573,7 +5577,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>88</v>
       </c>
@@ -5593,7 +5597,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>3</v>
       </c>
@@ -5607,7 +5611,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>2</v>
       </c>
@@ -5621,7 +5625,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>93</v>
       </c>
@@ -5641,7 +5645,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>94</v>
       </c>
@@ -5661,7 +5665,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -5675,7 +5679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
         <v>775</v>
       </c>
@@ -5697,17 +5701,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -5727,7 +5731,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>314</v>
       </c>
@@ -5747,7 +5751,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -5761,7 +5765,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -5775,7 +5779,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -5789,7 +5793,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>41</v>
       </c>
@@ -5803,7 +5807,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>201</v>
       </c>
@@ -5823,7 +5827,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>25</v>
       </c>
@@ -5837,7 +5841,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -5851,7 +5855,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>748</v>
       </c>
@@ -5868,7 +5872,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>547</v>
       </c>
@@ -5879,7 +5883,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>468</v>
       </c>
@@ -5899,7 +5903,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -5913,7 +5917,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>2</v>
       </c>
@@ -5927,7 +5931,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -5941,7 +5945,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>328</v>
       </c>
@@ -5961,7 +5965,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -5975,7 +5979,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>3</v>
       </c>
@@ -5989,7 +5993,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>2</v>
       </c>
@@ -6003,7 +6007,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>0</v>
       </c>
@@ -6017,7 +6021,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>477</v>
       </c>
@@ -6037,7 +6041,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -6051,7 +6055,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -6071,7 +6075,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>25</v>
       </c>
@@ -6085,7 +6089,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>192</v>
       </c>
@@ -6105,7 +6109,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>4</v>
       </c>
@@ -6119,7 +6123,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -6133,7 +6137,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>2</v>
       </c>
@@ -6147,7 +6151,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -6161,7 +6165,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -6181,7 +6185,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>25</v>
       </c>
@@ -6195,7 +6199,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -6209,7 +6213,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -6223,12 +6227,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>432</v>
       </c>
@@ -6248,7 +6252,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>275</v>
       </c>
@@ -6268,7 +6272,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>492</v>
       </c>
@@ -6288,7 +6292,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>3</v>
       </c>
@@ -6302,7 +6306,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>2</v>
       </c>
@@ -6316,7 +6320,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>425</v>
       </c>
@@ -6336,7 +6340,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>493</v>
       </c>
@@ -6356,7 +6360,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>496</v>
       </c>
@@ -6376,7 +6380,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -6390,7 +6394,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>2</v>
       </c>
@@ -6404,7 +6408,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>0</v>
       </c>
@@ -6436,17 +6440,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -6466,7 +6470,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>506</v>
       </c>
@@ -6486,7 +6490,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -6500,7 +6504,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>333</v>
       </c>
@@ -6520,7 +6524,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>509</v>
       </c>
@@ -6540,7 +6544,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -6554,7 +6558,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -6568,7 +6572,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>0</v>
       </c>
@@ -6582,7 +6586,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>41</v>
       </c>
@@ -6596,7 +6600,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>372</v>
       </c>
@@ -6616,7 +6620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>25</v>
       </c>
@@ -6630,7 +6634,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -6644,7 +6648,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -6658,7 +6662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>377</v>
       </c>
@@ -6678,7 +6682,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>25</v>
       </c>
@@ -6692,7 +6696,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -6706,7 +6710,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -6720,7 +6724,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -6734,7 +6738,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>492</v>
       </c>
@@ -6754,7 +6758,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -6768,7 +6772,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>524</v>
       </c>
@@ -6788,7 +6792,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>742</v>
       </c>
@@ -6808,7 +6812,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>4</v>
       </c>
@@ -6822,7 +6826,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>398</v>
       </c>
@@ -6842,7 +6846,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>25</v>
       </c>
@@ -6856,7 +6860,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>4</v>
       </c>
@@ -6870,7 +6874,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -6884,7 +6888,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>400</v>
       </c>
@@ -6904,7 +6908,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -6918,7 +6922,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -6932,7 +6936,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>0</v>
       </c>
@@ -6946,7 +6950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>41</v>
       </c>
@@ -6960,12 +6964,12 @@
         <v>529</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>477</v>
       </c>
@@ -6985,7 +6989,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -6999,7 +7003,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>34</v>
       </c>
@@ -7019,7 +7023,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>25</v>
       </c>
@@ -7033,7 +7037,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>4</v>
       </c>
@@ -7047,7 +7051,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>538</v>
       </c>
@@ -7067,7 +7071,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>346</v>
       </c>
@@ -7087,7 +7091,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>4</v>
       </c>
@@ -7101,7 +7105,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -7115,7 +7119,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>39</v>
       </c>
@@ -7135,7 +7139,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>25</v>
       </c>
@@ -7149,7 +7153,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>4</v>
       </c>
@@ -7163,7 +7167,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>3</v>
       </c>
@@ -7177,7 +7181,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -7191,7 +7195,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>432</v>
       </c>
@@ -7211,7 +7215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>4</v>
       </c>
@@ -7225,7 +7229,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>3</v>
       </c>
@@ -7239,7 +7243,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>2</v>
       </c>
@@ -7253,7 +7257,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>0</v>
       </c>
@@ -7267,7 +7271,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>275</v>
       </c>
@@ -7287,7 +7291,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -7319,17 +7323,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -7349,7 +7353,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>558</v>
       </c>
@@ -7369,7 +7373,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>361</v>
       </c>
@@ -7389,7 +7393,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -7403,7 +7407,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>201</v>
       </c>
@@ -7423,7 +7427,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>25</v>
       </c>
@@ -7437,7 +7441,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -7451,7 +7455,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -7465,7 +7469,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -7479,7 +7483,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -7493,7 +7497,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>333</v>
       </c>
@@ -7513,7 +7517,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -7527,7 +7531,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>2</v>
       </c>
@@ -7541,7 +7545,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>564</v>
       </c>
@@ -7561,7 +7565,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>372</v>
       </c>
@@ -7581,7 +7585,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>377</v>
       </c>
@@ -7601,7 +7605,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>492</v>
       </c>
@@ -7621,7 +7625,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -7635,7 +7639,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>2</v>
       </c>
@@ -7649,7 +7653,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>742</v>
       </c>
@@ -7669,7 +7673,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>4</v>
       </c>
@@ -7683,7 +7687,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -7697,7 +7701,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>2</v>
       </c>
@@ -7711,7 +7715,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>571</v>
       </c>
@@ -7731,7 +7735,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -7745,7 +7749,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>2</v>
       </c>
@@ -7759,7 +7763,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -7773,7 +7777,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>398</v>
       </c>
@@ -7793,7 +7797,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>25</v>
       </c>
@@ -7807,7 +7811,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -7821,7 +7825,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>400</v>
       </c>
@@ -7841,7 +7845,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>3</v>
       </c>
@@ -7855,7 +7859,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>2</v>
       </c>
@@ -7869,7 +7873,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>0</v>
       </c>
@@ -7883,7 +7887,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>41</v>
       </c>
@@ -7897,7 +7901,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>477</v>
       </c>
@@ -7917,7 +7921,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>34</v>
       </c>
@@ -7937,7 +7941,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>25</v>
       </c>
@@ -7951,7 +7955,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>4</v>
       </c>
@@ -7965,7 +7969,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>3</v>
       </c>
@@ -7979,7 +7983,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>2</v>
       </c>
@@ -7993,7 +7997,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>586</v>
       </c>
@@ -8013,7 +8017,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>3</v>
       </c>
@@ -8027,7 +8031,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>2</v>
       </c>
@@ -8041,7 +8045,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>0</v>
       </c>
@@ -8055,7 +8059,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>589</v>
       </c>
@@ -8075,7 +8079,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>3</v>
       </c>
@@ -8089,7 +8093,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>348</v>
       </c>
@@ -8109,7 +8113,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>3</v>
       </c>
@@ -8123,7 +8127,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>39</v>
       </c>
@@ -8143,7 +8147,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>275</v>
       </c>
@@ -8163,7 +8167,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>4</v>
       </c>
@@ -8177,7 +8181,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>3</v>
       </c>
@@ -8191,7 +8195,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>2</v>
       </c>
@@ -8205,7 +8209,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>0</v>
       </c>
@@ -8219,7 +8223,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>425</v>
       </c>
@@ -8239,7 +8243,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>694</v>
       </c>
@@ -8276,17 +8280,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -8306,7 +8310,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>361</v>
       </c>
@@ -8326,7 +8330,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -8340,7 +8344,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -8354,7 +8358,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -8368,7 +8372,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>41</v>
       </c>
@@ -8382,7 +8386,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>201</v>
       </c>
@@ -8402,7 +8406,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>25</v>
       </c>
@@ -8416,7 +8420,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -8430,7 +8434,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -8444,7 +8448,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -8458,7 +8462,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>0</v>
       </c>
@@ -8472,7 +8476,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>41</v>
       </c>
@@ -8486,7 +8490,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>333</v>
       </c>
@@ -8506,7 +8510,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>328</v>
       </c>
@@ -8526,7 +8530,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>372</v>
       </c>
@@ -8546,7 +8550,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>377</v>
       </c>
@@ -8566,7 +8570,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>492</v>
       </c>
@@ -8586,7 +8590,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -8600,7 +8604,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>742</v>
       </c>
@@ -8620,7 +8624,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -8634,7 +8638,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -8648,7 +8652,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -8662,7 +8666,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>0</v>
       </c>
@@ -8676,7 +8680,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>524</v>
       </c>
@@ -8696,7 +8700,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -8710,7 +8714,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>2</v>
       </c>
@@ -8724,7 +8728,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -8738,7 +8742,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>398</v>
       </c>
@@ -8758,7 +8762,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>25</v>
       </c>
@@ -8772,7 +8776,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -8786,7 +8790,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -8800,7 +8804,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>2</v>
       </c>
@@ -8814,7 +8818,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>0</v>
       </c>
@@ -8828,7 +8832,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>41</v>
       </c>
@@ -8842,7 +8846,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>477</v>
       </c>
@@ -8862,7 +8866,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -8876,7 +8880,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>34</v>
       </c>
@@ -8896,7 +8900,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>25</v>
       </c>
@@ -8910,7 +8914,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>348</v>
       </c>
@@ -8930,7 +8934,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>589</v>
       </c>
@@ -8950,7 +8954,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -8964,7 +8968,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>417</v>
       </c>
@@ -8984,7 +8988,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>2</v>
       </c>
@@ -8998,7 +9002,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>0</v>
       </c>
@@ -9012,7 +9016,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>39</v>
       </c>
@@ -9032,7 +9036,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>275</v>
       </c>
@@ -9052,7 +9056,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>692</v>
       </c>
@@ -9072,7 +9076,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>693</v>
       </c>
@@ -9086,7 +9090,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>693</v>
       </c>
@@ -9117,17 +9121,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -9147,7 +9151,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>632</v>
       </c>
@@ -9167,7 +9171,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -9181,7 +9185,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -9195,7 +9199,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -9209,7 +9213,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>41</v>
       </c>
@@ -9223,7 +9227,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>201</v>
       </c>
@@ -9243,7 +9247,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>25</v>
       </c>
@@ -9257,7 +9261,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -9271,7 +9275,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -9285,7 +9289,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>748</v>
       </c>
@@ -9302,7 +9306,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>774</v>
       </c>
@@ -9313,7 +9317,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>423</v>
       </c>
@@ -9324,7 +9328,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>506</v>
       </c>
@@ -9344,7 +9348,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>372</v>
       </c>
@@ -9364,7 +9368,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -9378,7 +9382,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -9392,7 +9396,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -9406,7 +9410,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>377</v>
       </c>
@@ -9426,7 +9430,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>4</v>
       </c>
@@ -9440,7 +9444,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -9454,7 +9458,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -9468,7 +9472,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>492</v>
       </c>
@@ -9488,7 +9492,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -9502,7 +9506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>2</v>
       </c>
@@ -9516,7 +9520,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>742</v>
       </c>
@@ -9536,7 +9540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>4</v>
       </c>
@@ -9550,7 +9554,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -9564,7 +9568,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -9578,7 +9582,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>524</v>
       </c>
@@ -9598,7 +9602,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>3</v>
       </c>
@@ -9612,7 +9616,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>2</v>
       </c>
@@ -9626,7 +9630,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>0</v>
       </c>
@@ -9640,7 +9644,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>41</v>
       </c>
@@ -9654,7 +9658,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>398</v>
       </c>
@@ -9674,7 +9678,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>25</v>
       </c>
@@ -9688,7 +9692,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>4</v>
       </c>
@@ -9702,7 +9706,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -9716,7 +9720,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>34</v>
       </c>
@@ -9736,7 +9740,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>25</v>
       </c>
@@ -9750,7 +9754,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>192</v>
       </c>
@@ -9770,7 +9774,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>348</v>
       </c>
@@ -9790,7 +9794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -9804,7 +9808,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>2</v>
       </c>
@@ -9818,7 +9822,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>0</v>
       </c>
@@ -9832,7 +9836,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>41</v>
       </c>
@@ -9846,7 +9850,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>589</v>
       </c>
@@ -9866,7 +9870,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -9880,7 +9884,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>2</v>
       </c>
@@ -9894,7 +9898,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>0</v>
       </c>
@@ -9908,7 +9912,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>41</v>
       </c>
@@ -9922,7 +9926,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>39</v>
       </c>
@@ -9942,7 +9946,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>25</v>
       </c>
@@ -9956,7 +9960,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>4</v>
       </c>
@@ -9970,7 +9974,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>432</v>
       </c>
@@ -9990,7 +9994,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>3</v>
       </c>
@@ -10004,7 +10008,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>275</v>
       </c>
@@ -10024,7 +10028,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>4</v>
       </c>
@@ -10038,7 +10042,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>3</v>
       </c>
@@ -10052,7 +10056,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>2</v>
       </c>
@@ -10066,7 +10070,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>0</v>
       </c>
@@ -10080,7 +10084,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>692</v>
       </c>
@@ -10100,7 +10104,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>693</v>
       </c>
@@ -10114,7 +10118,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>693</v>
       </c>
@@ -10146,17 +10150,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -10176,7 +10180,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>678</v>
       </c>
@@ -10196,7 +10200,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -10210,7 +10214,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -10224,7 +10228,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -10238,7 +10242,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>41</v>
       </c>
@@ -10252,7 +10256,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>361</v>
       </c>
@@ -10272,7 +10276,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -10286,7 +10290,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -10300,7 +10304,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -10314,7 +10318,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>201</v>
       </c>
@@ -10334,7 +10338,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>25</v>
       </c>
@@ -10348,7 +10352,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -10362,7 +10366,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -10376,7 +10380,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>2</v>
       </c>
@@ -10390,7 +10394,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -10404,7 +10408,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>41</v>
       </c>
@@ -10418,7 +10422,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>377</v>
       </c>
@@ -10438,7 +10442,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>4</v>
       </c>
@@ -10452,7 +10456,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -10466,7 +10470,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -10480,7 +10484,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>492</v>
       </c>
@@ -10500,7 +10504,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -10514,7 +10518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>0</v>
       </c>
@@ -10528,7 +10532,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>41</v>
       </c>
@@ -10542,7 +10546,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>742</v>
       </c>
@@ -10562,7 +10566,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>524</v>
       </c>
@@ -10582,7 +10586,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -10596,7 +10600,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>398</v>
       </c>
@@ -10616,7 +10620,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>25</v>
       </c>
@@ -10630,7 +10634,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>477</v>
       </c>
@@ -10650,7 +10654,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -10664,7 +10668,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>2</v>
       </c>
@@ -10678,12 +10682,12 @@
         <v>543</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>34</v>
       </c>
@@ -10703,7 +10707,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>25</v>
       </c>
@@ -10717,7 +10721,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>4</v>
       </c>
@@ -10731,7 +10735,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -10745,7 +10749,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>2</v>
       </c>
@@ -10759,7 +10763,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>348</v>
       </c>
@@ -10779,7 +10783,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>3</v>
       </c>
@@ -10793,7 +10797,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>2</v>
       </c>
@@ -10807,7 +10811,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>0</v>
       </c>
@@ -10821,7 +10825,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>589</v>
       </c>
@@ -10841,7 +10845,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -10855,7 +10859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>2</v>
       </c>
@@ -10869,7 +10873,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>0</v>
       </c>
@@ -10883,7 +10887,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>39</v>
       </c>
@@ -10903,7 +10907,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>25</v>
       </c>
@@ -10917,7 +10921,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>4</v>
       </c>
@@ -10931,7 +10935,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>3</v>
       </c>
@@ -10945,7 +10949,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>2</v>
       </c>
@@ -10959,7 +10963,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>0</v>
       </c>
@@ -10973,7 +10977,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>275</v>
       </c>
@@ -10993,7 +10997,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>4</v>
       </c>
@@ -11007,7 +11011,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -11021,7 +11025,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>2</v>
       </c>
@@ -11035,7 +11039,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>692</v>
       </c>
@@ -11055,7 +11059,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>693</v>
       </c>
@@ -11069,7 +11073,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>693</v>
       </c>
@@ -11083,7 +11087,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>0</v>
       </c>
@@ -11097,7 +11101,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>41</v>
       </c>
@@ -11129,17 +11133,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -11159,7 +11163,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>678</v>
       </c>
@@ -11179,7 +11183,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -11193,7 +11197,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -11207,7 +11211,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -11221,7 +11225,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>41</v>
       </c>
@@ -11235,7 +11239,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>201</v>
       </c>
@@ -11255,7 +11259,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>25</v>
       </c>
@@ -11269,7 +11273,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -11283,7 +11287,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -11297,7 +11301,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -11311,7 +11315,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>0</v>
       </c>
@@ -11325,7 +11329,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>41</v>
       </c>
@@ -11339,7 +11343,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>328</v>
       </c>
@@ -11359,7 +11363,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -11373,7 +11377,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>372</v>
       </c>
@@ -11393,7 +11397,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -11407,7 +11411,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -11421,7 +11425,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -11435,7 +11439,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -11449,7 +11453,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>377</v>
       </c>
@@ -11469,7 +11473,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -11483,7 +11487,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -11497,7 +11501,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>0</v>
       </c>
@@ -11511,7 +11515,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>41</v>
       </c>
@@ -11525,7 +11529,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>742</v>
       </c>
@@ -11545,7 +11549,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>4</v>
       </c>
@@ -11559,7 +11563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -11573,7 +11577,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -11587,7 +11591,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>524</v>
       </c>
@@ -11607,7 +11611,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -11621,7 +11625,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>2</v>
       </c>
@@ -11635,7 +11639,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>398</v>
       </c>
@@ -11655,7 +11659,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>34</v>
       </c>
@@ -11675,7 +11679,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>25</v>
       </c>
@@ -11689,7 +11693,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>4</v>
       </c>
@@ -11720,18 +11724,18 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -11751,7 +11755,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1999</v>
       </c>
@@ -11772,7 +11776,7 @@
         <v>0.82608695652173914</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2000</v>
       </c>
@@ -11793,7 +11797,7 @@
         <v>0.79032258064516125</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2001</v>
       </c>
@@ -11814,7 +11818,7 @@
         <v>0.46153846153846156</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2002</v>
       </c>
@@ -11835,7 +11839,7 @@
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2003</v>
       </c>
@@ -11856,7 +11860,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2004</v>
       </c>
@@ -11877,7 +11881,7 @@
         <v>0.91304347826086951</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2005</v>
       </c>
@@ -11899,7 +11903,7 @@
       </c>
       <c r="N8" s="7"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2006</v>
       </c>
@@ -11921,7 +11925,7 @@
       </c>
       <c r="N9" s="7"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2007</v>
       </c>
@@ -11943,7 +11947,7 @@
       </c>
       <c r="N10" s="7"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2008</v>
       </c>
@@ -11965,7 +11969,7 @@
       </c>
       <c r="N11" s="7"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2009</v>
       </c>
@@ -11987,7 +11991,7 @@
       </c>
       <c r="N12" s="7"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2010</v>
       </c>
@@ -12008,7 +12012,7 @@
         <v>0.44444444444444442</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2011</v>
       </c>
@@ -12029,7 +12033,7 @@
         <v>0.46875</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2012</v>
       </c>
@@ -12050,7 +12054,7 @@
         <v>0.62222222222222223</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2013</v>
       </c>
@@ -12071,7 +12075,7 @@
         <v>0.68181818181818177</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2014</v>
       </c>
@@ -12092,7 +12096,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -12117,7 +12121,7 @@
         <v>0.63636363636363635</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>55</v>
       </c>
@@ -12142,7 +12146,7 @@
         <v>0.63636363636363635</v>
       </c>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
         <v>775</v>
       </c>
@@ -12173,17 +12177,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -12203,7 +12207,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>114</v>
       </c>
@@ -12223,7 +12227,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -12237,7 +12241,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -12251,7 +12255,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -12265,7 +12269,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>41</v>
       </c>
@@ -12279,7 +12283,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>120</v>
       </c>
@@ -12299,7 +12303,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -12313,7 +12317,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -12327,7 +12331,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -12341,7 +12345,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>124</v>
       </c>
@@ -12361,7 +12365,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -12375,7 +12379,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -12389,7 +12393,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -12403,7 +12407,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>130</v>
       </c>
@@ -12423,7 +12427,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -12437,7 +12441,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>2</v>
       </c>
@@ -12451,7 +12455,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>0</v>
       </c>
@@ -12465,7 +12469,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>134</v>
       </c>
@@ -12485,7 +12489,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -12499,7 +12503,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -12513,7 +12517,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>0</v>
       </c>
@@ -12527,7 +12531,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>41</v>
       </c>
@@ -12541,7 +12545,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>134</v>
       </c>
@@ -12561,7 +12565,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -12575,7 +12579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>2</v>
       </c>
@@ -12589,7 +12593,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>0</v>
       </c>
@@ -12603,7 +12607,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>41</v>
       </c>
@@ -12617,7 +12621,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>143</v>
       </c>
@@ -12637,7 +12641,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -12651,7 +12655,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>2</v>
       </c>
@@ -12665,7 +12669,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>0</v>
       </c>
@@ -12679,7 +12683,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>41</v>
       </c>
@@ -12693,7 +12697,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>152</v>
       </c>
@@ -12713,7 +12717,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>3</v>
       </c>
@@ -12727,7 +12731,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>2</v>
       </c>
@@ -12741,7 +12745,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>0</v>
       </c>
@@ -12755,7 +12759,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>41</v>
       </c>
@@ -12769,7 +12773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>748</v>
       </c>
@@ -12786,7 +12790,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
         <v>750</v>
       </c>
@@ -12797,7 +12801,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
         <v>751</v>
       </c>
@@ -12808,7 +12812,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
         <v>752</v>
       </c>
@@ -12819,7 +12823,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
         <v>753</v>
       </c>
@@ -12830,7 +12834,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
         <v>322</v>
       </c>
@@ -12841,7 +12845,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>158</v>
       </c>
@@ -12861,7 +12865,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>160</v>
       </c>
@@ -12881,7 +12885,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>3</v>
       </c>
@@ -12895,7 +12899,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>2</v>
       </c>
@@ -12909,7 +12913,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>0</v>
       </c>
@@ -12923,7 +12927,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>41</v>
       </c>
@@ -12937,7 +12941,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>163</v>
       </c>
@@ -12957,7 +12961,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>3</v>
       </c>
@@ -12971,7 +12975,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>2</v>
       </c>
@@ -12985,7 +12989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>0</v>
       </c>
@@ -12999,7 +13003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>41</v>
       </c>
@@ -13013,7 +13017,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>169</v>
       </c>
@@ -13033,7 +13037,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -13047,7 +13051,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>171</v>
       </c>
@@ -13067,7 +13071,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>174</v>
       </c>
@@ -13087,7 +13091,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>3</v>
       </c>
@@ -13101,7 +13105,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>2</v>
       </c>
@@ -13115,7 +13119,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>178</v>
       </c>
@@ -13135,7 +13139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>181</v>
       </c>
@@ -13155,7 +13159,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>3</v>
       </c>
@@ -13169,7 +13173,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>2</v>
       </c>
@@ -13183,7 +13187,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>0</v>
       </c>
@@ -13197,7 +13201,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>41</v>
       </c>
@@ -13211,7 +13215,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>186</v>
       </c>
@@ -13231,7 +13235,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>39</v>
       </c>
@@ -13251,7 +13255,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>189</v>
       </c>
@@ -13265,7 +13269,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>192</v>
       </c>
@@ -13285,7 +13289,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>193</v>
       </c>
@@ -13305,7 +13309,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>3</v>
       </c>
@@ -13319,7 +13323,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>195</v>
       </c>
@@ -13339,7 +13343,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>189</v>
       </c>
@@ -13353,7 +13357,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="97" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>196</v>
       </c>
@@ -13385,17 +13389,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -13415,7 +13419,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>201</v>
       </c>
@@ -13435,7 +13439,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>204</v>
       </c>
@@ -13455,7 +13459,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>748</v>
       </c>
@@ -13472,7 +13476,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>145</v>
       </c>
@@ -13483,7 +13487,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>756</v>
       </c>
@@ -13494,7 +13498,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>163</v>
       </c>
@@ -13514,7 +13518,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -13528,7 +13532,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -13542,7 +13546,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>0</v>
       </c>
@@ -13556,7 +13560,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>41</v>
       </c>
@@ -13570,7 +13574,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>160</v>
       </c>
@@ -13590,7 +13594,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -13604,7 +13608,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -13624,7 +13628,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>217</v>
       </c>
@@ -13644,7 +13648,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>219</v>
       </c>
@@ -13664,7 +13668,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -13678,7 +13682,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -13692,7 +13696,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>0</v>
       </c>
@@ -13706,7 +13710,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>41</v>
       </c>
@@ -13720,7 +13724,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>193</v>
       </c>
@@ -13740,7 +13744,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
         <v>775</v>
       </c>
@@ -13762,17 +13766,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -13792,7 +13796,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>228</v>
       </c>
@@ -13812,7 +13816,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -13826,7 +13830,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -13840,7 +13844,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -13854,7 +13858,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -13862,7 +13866,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>233</v>
       </c>
@@ -13882,7 +13886,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -13896,7 +13900,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>236</v>
       </c>
@@ -13916,7 +13920,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -13930,7 +13934,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -13944,7 +13948,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>0</v>
       </c>
@@ -13958,7 +13962,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>41</v>
       </c>
@@ -13972,7 +13976,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>748</v>
       </c>
@@ -13989,7 +13993,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>758</v>
       </c>
@@ -14000,7 +14004,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>759</v>
       </c>
@@ -14011,7 +14015,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>761</v>
       </c>
@@ -14022,7 +14026,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>762</v>
       </c>
@@ -14033,7 +14037,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>242</v>
       </c>
@@ -14053,7 +14057,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>748</v>
       </c>
@@ -14070,7 +14074,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
         <v>775</v>
       </c>
@@ -14092,17 +14096,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -14122,7 +14126,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>244</v>
       </c>
@@ -14142,7 +14146,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
         <v>775</v>
       </c>
@@ -14165,17 +14169,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -14195,7 +14199,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>246</v>
       </c>
@@ -14215,7 +14219,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -14229,7 +14233,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -14243,7 +14247,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -14257,7 +14261,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>41</v>
       </c>
@@ -14271,7 +14275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>255</v>
       </c>
@@ -14291,7 +14295,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -14305,7 +14309,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -14319,7 +14323,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -14333,7 +14337,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>41</v>
       </c>
@@ -14347,7 +14351,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>260</v>
       </c>
@@ -14367,7 +14371,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -14381,7 +14385,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>2</v>
       </c>
@@ -14395,7 +14399,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>0</v>
       </c>
@@ -14409,7 +14413,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>41</v>
       </c>
@@ -14423,7 +14427,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>264</v>
       </c>
@@ -14443,7 +14447,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -14457,7 +14461,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -14471,7 +14475,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -14485,7 +14489,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>41</v>
       </c>
@@ -14499,7 +14503,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>186</v>
       </c>
@@ -14519,7 +14523,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -14533,7 +14537,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>2</v>
       </c>
@@ -14547,7 +14551,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>0</v>
       </c>
@@ -14561,7 +14565,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>246</v>
       </c>
@@ -14581,7 +14585,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -14595,7 +14599,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>2</v>
       </c>
@@ -14609,7 +14613,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>0</v>
       </c>
@@ -14623,7 +14627,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>41</v>
       </c>
@@ -14637,7 +14641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>275</v>
       </c>
@@ -14657,7 +14661,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>189</v>
       </c>
@@ -14671,7 +14675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>196</v>
       </c>
@@ -14685,7 +14689,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -14699,7 +14703,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -14713,12 +14717,12 @@
         <v>276</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>282</v>
       </c>
@@ -14738,7 +14742,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>189</v>
       </c>
@@ -14752,7 +14756,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>196</v>
       </c>
@@ -14766,7 +14770,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>4</v>
       </c>
@@ -14780,7 +14784,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -14794,7 +14798,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>2</v>
       </c>
@@ -14808,7 +14812,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>0</v>
       </c>
@@ -14822,7 +14826,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>41</v>
       </c>
@@ -14836,7 +14840,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>291</v>
       </c>
@@ -14856,7 +14860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>3</v>
       </c>
@@ -14870,7 +14874,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>2</v>
       </c>
@@ -14884,7 +14888,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>0</v>
       </c>
@@ -14898,7 +14902,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>41</v>
       </c>
@@ -14912,7 +14916,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>291</v>
       </c>
@@ -14932,7 +14936,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>3</v>
       </c>
@@ -14946,7 +14950,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -14978,17 +14982,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -15008,7 +15012,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>314</v>
       </c>
@@ -15028,7 +15032,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -15042,7 +15046,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>317</v>
       </c>
@@ -15062,7 +15066,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -15076,7 +15080,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>2</v>
       </c>
@@ -15090,7 +15094,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>0</v>
       </c>
@@ -15104,7 +15108,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>201</v>
       </c>
@@ -15124,7 +15128,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>25</v>
       </c>
@@ -15138,7 +15142,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>4</v>
       </c>
@@ -15152,7 +15156,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>324</v>
       </c>
@@ -15172,7 +15176,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -15186,7 +15190,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>2</v>
       </c>
@@ -15200,7 +15204,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>328</v>
       </c>
@@ -15220,7 +15224,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>189</v>
       </c>
@@ -15234,7 +15238,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>196</v>
       </c>
@@ -15248,7 +15252,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -15262,7 +15266,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>333</v>
       </c>
@@ -15282,7 +15286,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>189</v>
       </c>
@@ -15296,7 +15300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>196</v>
       </c>
@@ -15310,7 +15314,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>4</v>
       </c>
@@ -15324,7 +15328,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -15338,7 +15342,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>748</v>
       </c>
@@ -15355,7 +15359,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>765</v>
       </c>
@@ -15366,7 +15370,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>766</v>
       </c>
@@ -15377,7 +15381,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>337</v>
       </c>
@@ -15397,7 +15401,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -15411,7 +15415,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>2</v>
       </c>
@@ -15425,7 +15429,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -15439,7 +15443,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>41</v>
       </c>
@@ -15453,7 +15457,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>342</v>
       </c>
@@ -15473,7 +15477,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -15487,7 +15491,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>2</v>
       </c>
@@ -15501,7 +15505,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>0</v>
       </c>
@@ -15515,7 +15519,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>748</v>
       </c>
@@ -15532,7 +15536,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
         <v>768</v>
       </c>
@@ -15543,7 +15547,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>346</v>
       </c>
@@ -15563,7 +15567,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>348</v>
       </c>
@@ -15583,7 +15587,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>4</v>
       </c>
@@ -15597,7 +15601,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>3</v>
       </c>
@@ -15611,7 +15615,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>39</v>
       </c>
@@ -15631,7 +15635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>352</v>
       </c>
@@ -15651,7 +15655,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -15665,7 +15669,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>2</v>
       </c>
@@ -15679,7 +15683,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>0</v>
       </c>
@@ -15693,7 +15697,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>282</v>
       </c>
@@ -15713,7 +15717,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -15727,7 +15731,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>2</v>
       </c>
@@ -15741,7 +15745,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>275</v>
       </c>
@@ -15779,17 +15783,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -15809,7 +15813,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>314</v>
       </c>
@@ -15829,7 +15833,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -15843,7 +15847,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>361</v>
       </c>
@@ -15863,7 +15867,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>189</v>
       </c>
@@ -15877,7 +15881,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>196</v>
       </c>
@@ -15891,7 +15895,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>4</v>
       </c>
@@ -15905,7 +15909,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -15919,7 +15923,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>201</v>
       </c>
@@ -15939,7 +15943,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>195</v>
       </c>
@@ -15959,7 +15963,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>367</v>
       </c>
@@ -15979,7 +15983,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>328</v>
       </c>
@@ -15999,7 +16003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -16013,7 +16017,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>2</v>
       </c>
@@ -16027,7 +16031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>372</v>
       </c>
@@ -16047,7 +16051,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>25</v>
       </c>
@@ -16061,7 +16065,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>4</v>
       </c>
@@ -16075,7 +16079,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -16089,7 +16093,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>377</v>
       </c>
@@ -16109,7 +16113,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>25</v>
       </c>
@@ -16123,7 +16127,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>748</v>
       </c>
@@ -16140,7 +16144,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>769</v>
       </c>
@@ -16151,7 +16155,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>337</v>
       </c>
@@ -16171,7 +16175,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -16185,7 +16189,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -16199,7 +16203,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>0</v>
       </c>
@@ -16213,7 +16217,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>41</v>
       </c>
@@ -16227,7 +16231,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>386</v>
       </c>
@@ -16247,7 +16251,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>4</v>
       </c>
@@ -16261,7 +16265,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -16275,7 +16279,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>2</v>
       </c>
@@ -16289,7 +16293,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>0</v>
       </c>
@@ -16303,7 +16307,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>396</v>
       </c>
@@ -16323,7 +16327,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>3</v>
       </c>
@@ -16337,7 +16341,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>2</v>
       </c>
@@ -16351,7 +16355,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>398</v>
       </c>
@@ -16371,7 +16375,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>25</v>
       </c>
@@ -16385,7 +16389,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>4</v>
       </c>
@@ -16399,7 +16403,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>400</v>
       </c>
@@ -16419,7 +16423,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>4</v>
       </c>
@@ -16433,7 +16437,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -16447,7 +16451,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>770</v>
       </c>
@@ -16467,7 +16471,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>34</v>
       </c>
@@ -16487,7 +16491,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>25</v>
       </c>
@@ -16501,7 +16505,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>4</v>
       </c>
@@ -16515,7 +16519,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -16529,7 +16533,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>2</v>
       </c>
@@ -16543,7 +16547,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>748</v>
       </c>
@@ -16560,7 +16564,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
         <v>772</v>
       </c>
@@ -16571,7 +16575,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>406</v>
       </c>
@@ -16591,7 +16595,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -16605,7 +16609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>2</v>
       </c>
@@ -16619,7 +16623,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>348</v>
       </c>
@@ -16639,7 +16643,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>417</v>
       </c>
@@ -16659,7 +16663,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>3</v>
       </c>
@@ -16673,7 +16677,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>39</v>
       </c>
@@ -16693,7 +16697,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>25</v>
       </c>
@@ -16707,7 +16711,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>4</v>
       </c>
@@ -16721,7 +16725,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>3</v>
       </c>
@@ -16735,7 +16739,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>275</v>
       </c>
@@ -16755,7 +16759,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>3</v>
       </c>
@@ -16769,7 +16773,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>2</v>
       </c>
@@ -16783,7 +16787,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>282</v>
       </c>
@@ -16803,7 +16807,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>3</v>
       </c>
@@ -16817,7 +16821,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>2</v>
       </c>
@@ -16831,7 +16835,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>425</v>
       </c>
@@ -16869,18 +16873,18 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -16900,7 +16904,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>361</v>
       </c>
@@ -16920,7 +16924,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -16934,7 +16938,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -16948,7 +16952,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -16962,7 +16966,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>201</v>
       </c>
@@ -16982,7 +16986,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>25</v>
       </c>
@@ -16996,7 +17000,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -17010,7 +17014,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -17024,7 +17028,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>432</v>
       </c>
@@ -17044,7 +17048,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>3</v>
       </c>
@@ -17058,7 +17062,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>333</v>
       </c>
@@ -17078,7 +17082,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>372</v>
       </c>
@@ -17098,7 +17102,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>4</v>
       </c>
@@ -17112,7 +17116,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -17126,7 +17130,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>2</v>
       </c>
@@ -17140,7 +17144,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>0</v>
       </c>
@@ -17154,7 +17158,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>377</v>
       </c>
@@ -17174,7 +17178,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -17188,7 +17192,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -17202,7 +17206,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>2</v>
       </c>
@@ -17216,7 +17220,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>447</v>
       </c>
@@ -17236,7 +17240,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>449</v>
       </c>
@@ -17256,7 +17260,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>3</v>
       </c>
@@ -17270,7 +17274,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>386</v>
       </c>
@@ -17290,7 +17294,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>4</v>
       </c>
@@ -17304,7 +17308,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>396</v>
       </c>
@@ -17324,7 +17328,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -17338,7 +17342,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>2</v>
       </c>
@@ -17352,7 +17356,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>398</v>
       </c>
@@ -17372,7 +17376,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>25</v>
       </c>
@@ -17386,7 +17390,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>4</v>
       </c>
@@ -17400,7 +17404,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>400</v>
       </c>
@@ -17420,7 +17424,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>3</v>
       </c>
@@ -17434,7 +17438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>2</v>
       </c>

--- a/Tennis/WTA Tour/Na Li.xlsx
+++ b/Tennis/WTA Tour/Na Li.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7601" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68EB0911-1606-4A7B-ADFC-3446579D361F}"/>
+  <xr:revisionPtr revIDLastSave="7602" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98330517-CFA8-4814-8BF3-1ECA3CB9DE5F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="9" activeTab="15" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="3312" yWindow="3312" windowWidth="17280" windowHeight="8880" firstSheet="9" activeTab="15" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="1999" sheetId="5" r:id="rId1"/>
@@ -4891,10 +4891,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5201,17 +5197,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -5231,7 +5227,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>746</v>
       </c>
@@ -5248,7 +5244,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
         <v>745</v>
       </c>
@@ -5259,7 +5255,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -5267,7 +5263,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -5287,7 +5283,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -5301,7 +5297,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>2</v>
       </c>
@@ -5315,7 +5311,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>0</v>
       </c>
@@ -5329,7 +5325,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>41</v>
       </c>
@@ -5343,7 +5339,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>63</v>
       </c>
@@ -5363,7 +5359,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>3</v>
       </c>
@@ -5377,7 +5373,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>2</v>
       </c>
@@ -5391,7 +5387,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>0</v>
       </c>
@@ -5405,7 +5401,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>41</v>
       </c>
@@ -5419,7 +5415,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>75</v>
       </c>
@@ -5439,7 +5435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -5453,7 +5449,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>2</v>
       </c>
@@ -5467,7 +5463,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>0</v>
       </c>
@@ -5481,7 +5477,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>41</v>
       </c>
@@ -5495,7 +5491,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>81</v>
       </c>
@@ -5515,7 +5511,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -5529,7 +5525,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -5543,7 +5539,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>85</v>
       </c>
@@ -5563,7 +5559,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -5577,7 +5573,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>88</v>
       </c>
@@ -5597,7 +5593,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>3</v>
       </c>
@@ -5611,7 +5607,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>2</v>
       </c>
@@ -5625,7 +5621,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>93</v>
       </c>
@@ -5645,7 +5641,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>94</v>
       </c>
@@ -5665,7 +5661,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -5679,7 +5675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
         <v>775</v>
       </c>
@@ -5701,17 +5697,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -5731,7 +5727,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>314</v>
       </c>
@@ -5751,7 +5747,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -5765,7 +5761,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -5779,7 +5775,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -5793,7 +5789,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>41</v>
       </c>
@@ -5807,7 +5803,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>201</v>
       </c>
@@ -5827,7 +5823,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>25</v>
       </c>
@@ -5841,7 +5837,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -5855,7 +5851,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>748</v>
       </c>
@@ -5872,7 +5868,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>547</v>
       </c>
@@ -5883,7 +5879,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>468</v>
       </c>
@@ -5903,7 +5899,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -5917,7 +5913,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>2</v>
       </c>
@@ -5931,7 +5927,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -5945,7 +5941,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>328</v>
       </c>
@@ -5965,7 +5961,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -5979,7 +5975,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>3</v>
       </c>
@@ -5993,7 +5989,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>2</v>
       </c>
@@ -6007,7 +6003,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>0</v>
       </c>
@@ -6021,7 +6017,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>477</v>
       </c>
@@ -6041,7 +6037,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -6055,7 +6051,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -6075,7 +6071,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>25</v>
       </c>
@@ -6089,7 +6085,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>192</v>
       </c>
@@ -6109,7 +6105,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>4</v>
       </c>
@@ -6123,7 +6119,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -6137,7 +6133,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>2</v>
       </c>
@@ -6151,7 +6147,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -6165,7 +6161,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -6185,7 +6181,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>25</v>
       </c>
@@ -6199,7 +6195,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -6213,7 +6209,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -6227,12 +6223,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>432</v>
       </c>
@@ -6252,7 +6248,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>275</v>
       </c>
@@ -6272,7 +6268,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>492</v>
       </c>
@@ -6292,7 +6288,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>3</v>
       </c>
@@ -6306,7 +6302,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>2</v>
       </c>
@@ -6320,7 +6316,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>425</v>
       </c>
@@ -6340,7 +6336,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>493</v>
       </c>
@@ -6360,7 +6356,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>496</v>
       </c>
@@ -6380,7 +6376,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -6394,7 +6390,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>2</v>
       </c>
@@ -6408,7 +6404,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>0</v>
       </c>
@@ -6440,17 +6436,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -6470,7 +6466,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>506</v>
       </c>
@@ -6490,7 +6486,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -6504,7 +6500,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>333</v>
       </c>
@@ -6524,7 +6520,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>509</v>
       </c>
@@ -6544,7 +6540,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -6558,7 +6554,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -6572,7 +6568,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>0</v>
       </c>
@@ -6586,7 +6582,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>41</v>
       </c>
@@ -6600,7 +6596,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>372</v>
       </c>
@@ -6620,7 +6616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>25</v>
       </c>
@@ -6634,7 +6630,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -6648,7 +6644,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -6662,7 +6658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>377</v>
       </c>
@@ -6682,7 +6678,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>25</v>
       </c>
@@ -6696,7 +6692,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -6710,7 +6706,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -6724,7 +6720,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -6738,7 +6734,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>492</v>
       </c>
@@ -6758,7 +6754,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -6772,7 +6768,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>524</v>
       </c>
@@ -6792,7 +6788,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>742</v>
       </c>
@@ -6812,7 +6808,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>4</v>
       </c>
@@ -6826,7 +6822,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>398</v>
       </c>
@@ -6846,7 +6842,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>25</v>
       </c>
@@ -6860,7 +6856,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>4</v>
       </c>
@@ -6874,7 +6870,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -6888,7 +6884,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>400</v>
       </c>
@@ -6908,7 +6904,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -6922,7 +6918,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -6936,7 +6932,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>0</v>
       </c>
@@ -6950,7 +6946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>41</v>
       </c>
@@ -6964,12 +6960,12 @@
         <v>529</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>477</v>
       </c>
@@ -6989,7 +6985,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -7003,7 +6999,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>34</v>
       </c>
@@ -7023,7 +7019,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>25</v>
       </c>
@@ -7037,7 +7033,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>4</v>
       </c>
@@ -7051,7 +7047,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>538</v>
       </c>
@@ -7071,7 +7067,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>346</v>
       </c>
@@ -7091,7 +7087,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>4</v>
       </c>
@@ -7105,7 +7101,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -7119,7 +7115,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>39</v>
       </c>
@@ -7139,7 +7135,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>25</v>
       </c>
@@ -7153,7 +7149,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>4</v>
       </c>
@@ -7167,7 +7163,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>3</v>
       </c>
@@ -7181,7 +7177,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -7195,7 +7191,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>432</v>
       </c>
@@ -7215,7 +7211,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>4</v>
       </c>
@@ -7229,7 +7225,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>3</v>
       </c>
@@ -7243,7 +7239,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>2</v>
       </c>
@@ -7257,7 +7253,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>0</v>
       </c>
@@ -7271,7 +7267,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>275</v>
       </c>
@@ -7291,7 +7287,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -7323,17 +7319,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -7353,7 +7349,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>558</v>
       </c>
@@ -7373,7 +7369,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>361</v>
       </c>
@@ -7393,7 +7389,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -7407,7 +7403,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>201</v>
       </c>
@@ -7427,7 +7423,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>25</v>
       </c>
@@ -7441,7 +7437,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -7455,7 +7451,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -7469,7 +7465,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -7483,7 +7479,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -7497,7 +7493,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>333</v>
       </c>
@@ -7517,7 +7513,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -7531,7 +7527,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>2</v>
       </c>
@@ -7545,7 +7541,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>564</v>
       </c>
@@ -7565,7 +7561,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>372</v>
       </c>
@@ -7585,7 +7581,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>377</v>
       </c>
@@ -7605,7 +7601,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>492</v>
       </c>
@@ -7625,7 +7621,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -7639,7 +7635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>2</v>
       </c>
@@ -7653,7 +7649,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>742</v>
       </c>
@@ -7673,7 +7669,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>4</v>
       </c>
@@ -7687,7 +7683,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -7701,7 +7697,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>2</v>
       </c>
@@ -7715,7 +7711,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>571</v>
       </c>
@@ -7735,7 +7731,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -7749,7 +7745,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>2</v>
       </c>
@@ -7763,7 +7759,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -7777,7 +7773,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>398</v>
       </c>
@@ -7797,7 +7793,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>25</v>
       </c>
@@ -7811,7 +7807,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -7825,7 +7821,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>400</v>
       </c>
@@ -7845,7 +7841,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>3</v>
       </c>
@@ -7859,7 +7855,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>2</v>
       </c>
@@ -7873,7 +7869,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>0</v>
       </c>
@@ -7887,7 +7883,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>41</v>
       </c>
@@ -7901,7 +7897,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>477</v>
       </c>
@@ -7921,7 +7917,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>34</v>
       </c>
@@ -7941,7 +7937,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>25</v>
       </c>
@@ -7955,7 +7951,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>4</v>
       </c>
@@ -7969,7 +7965,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>3</v>
       </c>
@@ -7983,7 +7979,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>2</v>
       </c>
@@ -7997,7 +7993,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>586</v>
       </c>
@@ -8017,7 +8013,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>3</v>
       </c>
@@ -8031,7 +8027,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>2</v>
       </c>
@@ -8045,7 +8041,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>0</v>
       </c>
@@ -8059,7 +8055,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>589</v>
       </c>
@@ -8079,7 +8075,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>3</v>
       </c>
@@ -8093,7 +8089,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>348</v>
       </c>
@@ -8113,7 +8109,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>3</v>
       </c>
@@ -8127,7 +8123,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>39</v>
       </c>
@@ -8147,7 +8143,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>275</v>
       </c>
@@ -8167,7 +8163,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>4</v>
       </c>
@@ -8181,7 +8177,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>3</v>
       </c>
@@ -8195,7 +8191,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>2</v>
       </c>
@@ -8209,7 +8205,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>0</v>
       </c>
@@ -8223,7 +8219,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>425</v>
       </c>
@@ -8243,7 +8239,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>694</v>
       </c>
@@ -8280,17 +8276,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -8310,7 +8306,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>361</v>
       </c>
@@ -8330,7 +8326,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -8344,7 +8340,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -8358,7 +8354,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -8372,7 +8368,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>41</v>
       </c>
@@ -8386,7 +8382,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>201</v>
       </c>
@@ -8406,7 +8402,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>25</v>
       </c>
@@ -8420,7 +8416,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -8434,7 +8430,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -8448,7 +8444,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -8462,7 +8458,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>0</v>
       </c>
@@ -8476,7 +8472,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>41</v>
       </c>
@@ -8490,7 +8486,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>333</v>
       </c>
@@ -8510,7 +8506,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>328</v>
       </c>
@@ -8530,7 +8526,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>372</v>
       </c>
@@ -8550,7 +8546,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>377</v>
       </c>
@@ -8570,7 +8566,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>492</v>
       </c>
@@ -8590,7 +8586,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -8604,7 +8600,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>742</v>
       </c>
@@ -8624,7 +8620,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -8638,7 +8634,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -8652,7 +8648,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -8666,7 +8662,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>0</v>
       </c>
@@ -8680,7 +8676,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>524</v>
       </c>
@@ -8700,7 +8696,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -8714,7 +8710,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>2</v>
       </c>
@@ -8728,7 +8724,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -8742,7 +8738,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>398</v>
       </c>
@@ -8762,7 +8758,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>25</v>
       </c>
@@ -8776,7 +8772,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -8790,7 +8786,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -8804,7 +8800,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>2</v>
       </c>
@@ -8818,7 +8814,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>0</v>
       </c>
@@ -8832,7 +8828,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>41</v>
       </c>
@@ -8846,7 +8842,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>477</v>
       </c>
@@ -8866,7 +8862,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -8880,7 +8876,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>34</v>
       </c>
@@ -8900,7 +8896,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>25</v>
       </c>
@@ -8914,7 +8910,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>348</v>
       </c>
@@ -8934,7 +8930,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>589</v>
       </c>
@@ -8954,7 +8950,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -8968,7 +8964,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>417</v>
       </c>
@@ -8988,7 +8984,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>2</v>
       </c>
@@ -9002,7 +8998,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>0</v>
       </c>
@@ -9016,7 +9012,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>39</v>
       </c>
@@ -9036,7 +9032,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>275</v>
       </c>
@@ -9056,7 +9052,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>692</v>
       </c>
@@ -9076,7 +9072,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>693</v>
       </c>
@@ -9090,7 +9086,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>693</v>
       </c>
@@ -9121,17 +9117,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -9151,7 +9147,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>632</v>
       </c>
@@ -9171,7 +9167,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -9185,7 +9181,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -9199,7 +9195,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -9213,7 +9209,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>41</v>
       </c>
@@ -9227,7 +9223,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>201</v>
       </c>
@@ -9247,7 +9243,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>25</v>
       </c>
@@ -9261,7 +9257,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -9275,7 +9271,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -9289,7 +9285,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>748</v>
       </c>
@@ -9306,7 +9302,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>774</v>
       </c>
@@ -9317,7 +9313,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>423</v>
       </c>
@@ -9328,7 +9324,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>506</v>
       </c>
@@ -9348,7 +9344,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>372</v>
       </c>
@@ -9368,7 +9364,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -9382,7 +9378,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -9396,7 +9392,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -9410,7 +9406,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>377</v>
       </c>
@@ -9430,7 +9426,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>4</v>
       </c>
@@ -9444,7 +9440,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -9458,7 +9454,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -9472,7 +9468,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>492</v>
       </c>
@@ -9492,7 +9488,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -9506,7 +9502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>2</v>
       </c>
@@ -9520,7 +9516,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>742</v>
       </c>
@@ -9540,7 +9536,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>4</v>
       </c>
@@ -9554,7 +9550,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -9568,7 +9564,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -9582,7 +9578,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>524</v>
       </c>
@@ -9602,7 +9598,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>3</v>
       </c>
@@ -9616,7 +9612,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>2</v>
       </c>
@@ -9630,7 +9626,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>0</v>
       </c>
@@ -9644,7 +9640,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>41</v>
       </c>
@@ -9658,7 +9654,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>398</v>
       </c>
@@ -9678,7 +9674,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>25</v>
       </c>
@@ -9692,7 +9688,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>4</v>
       </c>
@@ -9706,7 +9702,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -9720,7 +9716,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>34</v>
       </c>
@@ -9740,7 +9736,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>25</v>
       </c>
@@ -9754,7 +9750,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>192</v>
       </c>
@@ -9774,7 +9770,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>348</v>
       </c>
@@ -9794,7 +9790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -9808,7 +9804,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>2</v>
       </c>
@@ -9822,7 +9818,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>0</v>
       </c>
@@ -9836,7 +9832,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>41</v>
       </c>
@@ -9850,7 +9846,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>589</v>
       </c>
@@ -9870,7 +9866,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -9884,7 +9880,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>2</v>
       </c>
@@ -9898,7 +9894,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>0</v>
       </c>
@@ -9912,7 +9908,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>41</v>
       </c>
@@ -9926,7 +9922,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>39</v>
       </c>
@@ -9946,7 +9942,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>25</v>
       </c>
@@ -9960,7 +9956,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>4</v>
       </c>
@@ -9974,7 +9970,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>432</v>
       </c>
@@ -9994,7 +9990,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>3</v>
       </c>
@@ -10008,7 +10004,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>275</v>
       </c>
@@ -10028,7 +10024,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>4</v>
       </c>
@@ -10042,7 +10038,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>3</v>
       </c>
@@ -10056,7 +10052,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>2</v>
       </c>
@@ -10070,7 +10066,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>0</v>
       </c>
@@ -10084,7 +10080,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>692</v>
       </c>
@@ -10104,7 +10100,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>693</v>
       </c>
@@ -10118,7 +10114,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>693</v>
       </c>
@@ -10150,17 +10146,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -10180,7 +10176,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>678</v>
       </c>
@@ -10200,7 +10196,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -10214,7 +10210,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -10228,7 +10224,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -10242,7 +10238,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>41</v>
       </c>
@@ -10256,7 +10252,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>361</v>
       </c>
@@ -10276,7 +10272,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -10290,7 +10286,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -10304,7 +10300,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -10318,7 +10314,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>201</v>
       </c>
@@ -10338,7 +10334,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>25</v>
       </c>
@@ -10352,7 +10348,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -10366,7 +10362,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -10380,7 +10376,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>2</v>
       </c>
@@ -10394,7 +10390,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -10408,7 +10404,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>41</v>
       </c>
@@ -10422,7 +10418,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>377</v>
       </c>
@@ -10442,7 +10438,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>4</v>
       </c>
@@ -10456,7 +10452,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -10470,7 +10466,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -10484,7 +10480,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>492</v>
       </c>
@@ -10504,7 +10500,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -10518,7 +10514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>0</v>
       </c>
@@ -10532,7 +10528,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>41</v>
       </c>
@@ -10546,7 +10542,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>742</v>
       </c>
@@ -10566,7 +10562,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>524</v>
       </c>
@@ -10586,7 +10582,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -10600,7 +10596,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>398</v>
       </c>
@@ -10620,7 +10616,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>25</v>
       </c>
@@ -10634,7 +10630,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>477</v>
       </c>
@@ -10654,7 +10650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -10668,7 +10664,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>2</v>
       </c>
@@ -10682,12 +10678,12 @@
         <v>543</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>34</v>
       </c>
@@ -10707,7 +10703,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>25</v>
       </c>
@@ -10721,7 +10717,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>4</v>
       </c>
@@ -10735,7 +10731,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -10749,7 +10745,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>2</v>
       </c>
@@ -10763,7 +10759,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>348</v>
       </c>
@@ -10783,7 +10779,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>3</v>
       </c>
@@ -10797,7 +10793,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>2</v>
       </c>
@@ -10811,7 +10807,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>0</v>
       </c>
@@ -10825,7 +10821,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>589</v>
       </c>
@@ -10845,7 +10841,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -10859,7 +10855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>2</v>
       </c>
@@ -10873,7 +10869,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>0</v>
       </c>
@@ -10887,7 +10883,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>39</v>
       </c>
@@ -10907,7 +10903,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>25</v>
       </c>
@@ -10921,7 +10917,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>4</v>
       </c>
@@ -10935,7 +10931,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>3</v>
       </c>
@@ -10949,7 +10945,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>2</v>
       </c>
@@ -10963,7 +10959,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>0</v>
       </c>
@@ -10977,7 +10973,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>275</v>
       </c>
@@ -10997,7 +10993,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>4</v>
       </c>
@@ -11011,7 +11007,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -11025,7 +11021,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>2</v>
       </c>
@@ -11039,7 +11035,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>692</v>
       </c>
@@ -11059,7 +11055,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>693</v>
       </c>
@@ -11073,7 +11069,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>693</v>
       </c>
@@ -11087,7 +11083,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>0</v>
       </c>
@@ -11101,7 +11097,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>41</v>
       </c>
@@ -11133,17 +11129,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -11163,7 +11159,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>678</v>
       </c>
@@ -11183,7 +11179,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -11197,7 +11193,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -11211,7 +11207,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -11225,7 +11221,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>41</v>
       </c>
@@ -11239,7 +11235,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>201</v>
       </c>
@@ -11259,7 +11255,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>25</v>
       </c>
@@ -11273,7 +11269,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -11287,7 +11283,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -11301,7 +11297,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -11315,7 +11311,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>0</v>
       </c>
@@ -11329,7 +11325,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>41</v>
       </c>
@@ -11343,7 +11339,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>328</v>
       </c>
@@ -11363,7 +11359,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -11377,7 +11373,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>372</v>
       </c>
@@ -11397,7 +11393,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -11411,7 +11407,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -11425,7 +11421,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -11439,7 +11435,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -11453,7 +11449,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>377</v>
       </c>
@@ -11473,7 +11469,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -11487,7 +11483,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -11501,7 +11497,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>0</v>
       </c>
@@ -11515,7 +11511,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>41</v>
       </c>
@@ -11529,7 +11525,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>742</v>
       </c>
@@ -11549,7 +11545,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>4</v>
       </c>
@@ -11563,7 +11559,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -11577,7 +11573,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -11591,7 +11587,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>524</v>
       </c>
@@ -11611,7 +11607,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -11625,7 +11621,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>2</v>
       </c>
@@ -11639,7 +11635,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>398</v>
       </c>
@@ -11659,7 +11655,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>34</v>
       </c>
@@ -11679,7 +11675,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>25</v>
       </c>
@@ -11693,7 +11689,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>4</v>
       </c>
@@ -11724,18 +11720,18 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -11755,7 +11751,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1999</v>
       </c>
@@ -11776,7 +11772,7 @@
         <v>0.82608695652173914</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2000</v>
       </c>
@@ -11797,7 +11793,7 @@
         <v>0.79032258064516125</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2001</v>
       </c>
@@ -11818,7 +11814,7 @@
         <v>0.46153846153846156</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2002</v>
       </c>
@@ -11839,7 +11835,7 @@
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2003</v>
       </c>
@@ -11860,7 +11856,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2004</v>
       </c>
@@ -11881,7 +11877,7 @@
         <v>0.91304347826086951</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2005</v>
       </c>
@@ -11903,7 +11899,7 @@
       </c>
       <c r="N8" s="7"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2006</v>
       </c>
@@ -11925,7 +11921,7 @@
       </c>
       <c r="N9" s="7"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2007</v>
       </c>
@@ -11947,7 +11943,7 @@
       </c>
       <c r="N10" s="7"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2008</v>
       </c>
@@ -11969,7 +11965,7 @@
       </c>
       <c r="N11" s="7"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2009</v>
       </c>
@@ -11991,7 +11987,7 @@
       </c>
       <c r="N12" s="7"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2010</v>
       </c>
@@ -12012,7 +12008,7 @@
         <v>0.44444444444444442</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2011</v>
       </c>
@@ -12033,7 +12029,7 @@
         <v>0.46875</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2012</v>
       </c>
@@ -12054,7 +12050,7 @@
         <v>0.62222222222222223</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2013</v>
       </c>
@@ -12075,7 +12071,7 @@
         <v>0.68181818181818177</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2014</v>
       </c>
@@ -12096,7 +12092,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -12121,7 +12117,7 @@
         <v>0.63636363636363635</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>55</v>
       </c>
@@ -12146,7 +12142,7 @@
         <v>0.63636363636363635</v>
       </c>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
         <v>775</v>
       </c>
@@ -12177,17 +12173,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -12207,7 +12203,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>114</v>
       </c>
@@ -12227,7 +12223,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -12241,7 +12237,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -12255,7 +12251,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -12269,7 +12265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>41</v>
       </c>
@@ -12283,7 +12279,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>120</v>
       </c>
@@ -12303,7 +12299,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -12317,7 +12313,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -12331,7 +12327,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -12345,7 +12341,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>124</v>
       </c>
@@ -12365,7 +12361,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -12379,7 +12375,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -12393,7 +12389,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -12407,7 +12403,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>130</v>
       </c>
@@ -12427,7 +12423,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -12441,7 +12437,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>2</v>
       </c>
@@ -12455,7 +12451,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>0</v>
       </c>
@@ -12469,7 +12465,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>134</v>
       </c>
@@ -12489,7 +12485,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -12503,7 +12499,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -12517,7 +12513,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>0</v>
       </c>
@@ -12531,7 +12527,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>41</v>
       </c>
@@ -12545,7 +12541,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>134</v>
       </c>
@@ -12565,7 +12561,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -12579,7 +12575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>2</v>
       </c>
@@ -12593,7 +12589,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>0</v>
       </c>
@@ -12607,7 +12603,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>41</v>
       </c>
@@ -12621,7 +12617,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>143</v>
       </c>
@@ -12641,7 +12637,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -12655,7 +12651,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>2</v>
       </c>
@@ -12669,7 +12665,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>0</v>
       </c>
@@ -12683,7 +12679,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>41</v>
       </c>
@@ -12697,7 +12693,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>152</v>
       </c>
@@ -12717,7 +12713,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>3</v>
       </c>
@@ -12731,7 +12727,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>2</v>
       </c>
@@ -12745,7 +12741,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>0</v>
       </c>
@@ -12759,7 +12755,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>41</v>
       </c>
@@ -12773,7 +12769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>748</v>
       </c>
@@ -12790,7 +12786,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D48" t="s">
         <v>750</v>
       </c>
@@ -12801,7 +12797,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
         <v>751</v>
       </c>
@@ -12812,7 +12808,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D50" t="s">
         <v>752</v>
       </c>
@@ -12823,7 +12819,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D51" t="s">
         <v>753</v>
       </c>
@@ -12834,7 +12830,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D52" t="s">
         <v>322</v>
       </c>
@@ -12845,7 +12841,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>158</v>
       </c>
@@ -12865,7 +12861,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>160</v>
       </c>
@@ -12885,7 +12881,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>3</v>
       </c>
@@ -12899,7 +12895,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>2</v>
       </c>
@@ -12913,7 +12909,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>0</v>
       </c>
@@ -12927,7 +12923,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>41</v>
       </c>
@@ -12941,7 +12937,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>163</v>
       </c>
@@ -12961,7 +12957,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>3</v>
       </c>
@@ -12975,7 +12971,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>2</v>
       </c>
@@ -12989,7 +12985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>0</v>
       </c>
@@ -13003,7 +12999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>41</v>
       </c>
@@ -13017,7 +13013,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>169</v>
       </c>
@@ -13037,7 +13033,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -13051,7 +13047,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>171</v>
       </c>
@@ -13071,7 +13067,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>174</v>
       </c>
@@ -13091,7 +13087,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>3</v>
       </c>
@@ -13105,7 +13101,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>2</v>
       </c>
@@ -13119,7 +13115,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>178</v>
       </c>
@@ -13139,7 +13135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>181</v>
       </c>
@@ -13159,7 +13155,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>3</v>
       </c>
@@ -13173,7 +13169,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>2</v>
       </c>
@@ -13187,7 +13183,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>0</v>
       </c>
@@ -13201,7 +13197,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>41</v>
       </c>
@@ -13215,7 +13211,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>186</v>
       </c>
@@ -13235,7 +13231,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>39</v>
       </c>
@@ -13255,7 +13251,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>189</v>
       </c>
@@ -13269,7 +13265,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>192</v>
       </c>
@@ -13289,7 +13285,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>193</v>
       </c>
@@ -13309,7 +13305,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>3</v>
       </c>
@@ -13323,7 +13319,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>195</v>
       </c>
@@ -13343,7 +13339,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
         <v>189</v>
       </c>
@@ -13357,7 +13353,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="97" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
         <v>196</v>
       </c>
@@ -13389,17 +13385,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -13419,7 +13415,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>201</v>
       </c>
@@ -13439,7 +13435,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>204</v>
       </c>
@@ -13459,7 +13455,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>748</v>
       </c>
@@ -13476,7 +13472,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>145</v>
       </c>
@@ -13487,7 +13483,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>756</v>
       </c>
@@ -13498,7 +13494,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>163</v>
       </c>
@@ -13518,7 +13514,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -13532,7 +13528,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -13546,7 +13542,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>0</v>
       </c>
@@ -13560,7 +13556,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>41</v>
       </c>
@@ -13574,7 +13570,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>160</v>
       </c>
@@ -13594,7 +13590,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -13608,7 +13604,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -13628,7 +13624,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>217</v>
       </c>
@@ -13648,7 +13644,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>219</v>
       </c>
@@ -13668,7 +13664,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -13682,7 +13678,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -13696,7 +13692,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>0</v>
       </c>
@@ -13710,7 +13706,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>41</v>
       </c>
@@ -13724,7 +13720,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>193</v>
       </c>
@@ -13744,7 +13740,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
         <v>775</v>
       </c>
@@ -13766,17 +13762,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -13796,7 +13792,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>228</v>
       </c>
@@ -13816,7 +13812,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -13830,7 +13826,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -13844,7 +13840,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -13858,7 +13854,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -13866,7 +13862,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>233</v>
       </c>
@@ -13886,7 +13882,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -13900,7 +13896,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>236</v>
       </c>
@@ -13920,7 +13916,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -13934,7 +13930,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -13948,7 +13944,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>0</v>
       </c>
@@ -13962,7 +13958,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>41</v>
       </c>
@@ -13976,7 +13972,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>748</v>
       </c>
@@ -13993,7 +13989,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>758</v>
       </c>
@@ -14004,7 +14000,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
         <v>759</v>
       </c>
@@ -14015,7 +14011,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>761</v>
       </c>
@@ -14026,7 +14022,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>762</v>
       </c>
@@ -14037,7 +14033,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>242</v>
       </c>
@@ -14057,7 +14053,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>748</v>
       </c>
@@ -14074,7 +14070,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
         <v>775</v>
       </c>
@@ -14096,17 +14092,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -14126,7 +14122,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>244</v>
       </c>
@@ -14146,7 +14142,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
         <v>775</v>
       </c>
@@ -14169,17 +14165,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -14199,7 +14195,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>246</v>
       </c>
@@ -14219,7 +14215,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -14233,7 +14229,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -14247,7 +14243,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -14261,7 +14257,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>41</v>
       </c>
@@ -14275,7 +14271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>255</v>
       </c>
@@ -14295,7 +14291,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -14309,7 +14305,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -14323,7 +14319,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -14337,7 +14333,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>41</v>
       </c>
@@ -14351,7 +14347,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>260</v>
       </c>
@@ -14371,7 +14367,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -14385,7 +14381,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>2</v>
       </c>
@@ -14399,7 +14395,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>0</v>
       </c>
@@ -14413,7 +14409,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>41</v>
       </c>
@@ -14427,7 +14423,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>264</v>
       </c>
@@ -14447,7 +14443,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -14461,7 +14457,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -14475,7 +14471,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -14489,7 +14485,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>41</v>
       </c>
@@ -14503,7 +14499,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>186</v>
       </c>
@@ -14523,7 +14519,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -14537,7 +14533,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>2</v>
       </c>
@@ -14551,7 +14547,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>0</v>
       </c>
@@ -14565,7 +14561,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>246</v>
       </c>
@@ -14585,7 +14581,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -14599,7 +14595,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>2</v>
       </c>
@@ -14613,7 +14609,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>0</v>
       </c>
@@ -14627,7 +14623,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>41</v>
       </c>
@@ -14641,7 +14637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>275</v>
       </c>
@@ -14661,7 +14657,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>189</v>
       </c>
@@ -14675,7 +14671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>196</v>
       </c>
@@ -14689,7 +14685,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -14703,7 +14699,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -14717,12 +14713,12 @@
         <v>276</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>282</v>
       </c>
@@ -14742,7 +14738,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>189</v>
       </c>
@@ -14756,7 +14752,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>196</v>
       </c>
@@ -14770,7 +14766,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>4</v>
       </c>
@@ -14784,7 +14780,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -14798,7 +14794,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>2</v>
       </c>
@@ -14812,7 +14808,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>0</v>
       </c>
@@ -14826,7 +14822,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>41</v>
       </c>
@@ -14840,7 +14836,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>291</v>
       </c>
@@ -14860,7 +14856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>3</v>
       </c>
@@ -14874,7 +14870,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>2</v>
       </c>
@@ -14888,7 +14884,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>0</v>
       </c>
@@ -14902,7 +14898,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>41</v>
       </c>
@@ -14916,7 +14912,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>291</v>
       </c>
@@ -14936,7 +14932,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>3</v>
       </c>
@@ -14950,7 +14946,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -14982,17 +14978,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -15012,7 +15008,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>314</v>
       </c>
@@ -15032,7 +15028,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -15046,7 +15042,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>317</v>
       </c>
@@ -15066,7 +15062,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -15080,7 +15076,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>2</v>
       </c>
@@ -15094,7 +15090,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>0</v>
       </c>
@@ -15108,7 +15104,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>201</v>
       </c>
@@ -15128,7 +15124,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>25</v>
       </c>
@@ -15142,7 +15138,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>4</v>
       </c>
@@ -15156,7 +15152,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>324</v>
       </c>
@@ -15176,7 +15172,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -15190,7 +15186,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>2</v>
       </c>
@@ -15204,7 +15200,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>328</v>
       </c>
@@ -15224,7 +15220,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>189</v>
       </c>
@@ -15238,7 +15234,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>196</v>
       </c>
@@ -15252,7 +15248,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -15266,7 +15262,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>333</v>
       </c>
@@ -15286,7 +15282,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>189</v>
       </c>
@@ -15300,7 +15296,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>196</v>
       </c>
@@ -15314,7 +15310,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>4</v>
       </c>
@@ -15328,7 +15324,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -15342,7 +15338,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>748</v>
       </c>
@@ -15359,7 +15355,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
         <v>765</v>
       </c>
@@ -15370,7 +15366,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
         <v>766</v>
       </c>
@@ -15381,7 +15377,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>337</v>
       </c>
@@ -15401,7 +15397,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -15415,7 +15411,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>2</v>
       </c>
@@ -15429,7 +15425,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -15443,7 +15439,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>41</v>
       </c>
@@ -15457,7 +15453,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>342</v>
       </c>
@@ -15477,7 +15473,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -15491,7 +15487,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>2</v>
       </c>
@@ -15505,7 +15501,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>0</v>
       </c>
@@ -15519,7 +15515,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>748</v>
       </c>
@@ -15536,7 +15532,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
         <v>768</v>
       </c>
@@ -15547,7 +15543,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>346</v>
       </c>
@@ -15567,7 +15563,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>348</v>
       </c>
@@ -15587,7 +15583,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>4</v>
       </c>
@@ -15601,7 +15597,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>3</v>
       </c>
@@ -15615,7 +15611,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>39</v>
       </c>
@@ -15635,7 +15631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>352</v>
       </c>
@@ -15655,7 +15651,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -15669,7 +15665,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>2</v>
       </c>
@@ -15683,7 +15679,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>0</v>
       </c>
@@ -15697,7 +15693,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>282</v>
       </c>
@@ -15717,7 +15713,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -15731,7 +15727,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>2</v>
       </c>
@@ -15745,7 +15741,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>275</v>
       </c>
@@ -15783,17 +15779,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -15813,7 +15809,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>314</v>
       </c>
@@ -15833,7 +15829,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -15847,7 +15843,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>361</v>
       </c>
@@ -15867,7 +15863,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>189</v>
       </c>
@@ -15881,7 +15877,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>196</v>
       </c>
@@ -15895,7 +15891,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>4</v>
       </c>
@@ -15909,7 +15905,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -15923,7 +15919,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>201</v>
       </c>
@@ -15943,7 +15939,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>195</v>
       </c>
@@ -15963,7 +15959,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>367</v>
       </c>
@@ -15983,7 +15979,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>328</v>
       </c>
@@ -16003,7 +15999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -16017,7 +16013,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>2</v>
       </c>
@@ -16031,7 +16027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>372</v>
       </c>
@@ -16051,7 +16047,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>25</v>
       </c>
@@ -16065,7 +16061,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>4</v>
       </c>
@@ -16079,7 +16075,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -16093,7 +16089,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>377</v>
       </c>
@@ -16113,7 +16109,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>25</v>
       </c>
@@ -16127,7 +16123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>748</v>
       </c>
@@ -16144,7 +16140,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
         <v>769</v>
       </c>
@@ -16155,7 +16151,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>337</v>
       </c>
@@ -16175,7 +16171,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -16189,7 +16185,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -16203,7 +16199,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>0</v>
       </c>
@@ -16217,7 +16213,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>41</v>
       </c>
@@ -16231,7 +16227,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>386</v>
       </c>
@@ -16251,7 +16247,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>4</v>
       </c>
@@ -16265,7 +16261,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -16279,7 +16275,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>2</v>
       </c>
@@ -16293,7 +16289,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>0</v>
       </c>
@@ -16307,7 +16303,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>396</v>
       </c>
@@ -16327,7 +16323,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>3</v>
       </c>
@@ -16341,7 +16337,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>2</v>
       </c>
@@ -16355,7 +16351,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>398</v>
       </c>
@@ -16375,7 +16371,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>25</v>
       </c>
@@ -16389,7 +16385,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>4</v>
       </c>
@@ -16403,7 +16399,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>400</v>
       </c>
@@ -16423,7 +16419,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>4</v>
       </c>
@@ -16437,7 +16433,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -16451,7 +16447,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>770</v>
       </c>
@@ -16471,7 +16467,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>34</v>
       </c>
@@ -16491,7 +16487,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>25</v>
       </c>
@@ -16505,7 +16501,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>4</v>
       </c>
@@ -16519,7 +16515,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -16533,7 +16529,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>2</v>
       </c>
@@ -16547,7 +16543,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>748</v>
       </c>
@@ -16564,7 +16560,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D65" t="s">
         <v>772</v>
       </c>
@@ -16575,7 +16571,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>406</v>
       </c>
@@ -16595,7 +16591,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -16609,7 +16605,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>2</v>
       </c>
@@ -16623,7 +16619,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>348</v>
       </c>
@@ -16643,7 +16639,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>417</v>
       </c>
@@ -16663,7 +16659,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>3</v>
       </c>
@@ -16677,7 +16673,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>39</v>
       </c>
@@ -16697,7 +16693,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>25</v>
       </c>
@@ -16711,7 +16707,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>4</v>
       </c>
@@ -16725,7 +16721,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>3</v>
       </c>
@@ -16739,7 +16735,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>275</v>
       </c>
@@ -16759,7 +16755,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>3</v>
       </c>
@@ -16773,7 +16769,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>2</v>
       </c>
@@ -16787,7 +16783,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>282</v>
       </c>
@@ -16807,7 +16803,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>3</v>
       </c>
@@ -16821,7 +16817,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>2</v>
       </c>
@@ -16835,7 +16831,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>425</v>
       </c>
@@ -16873,18 +16869,18 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -16904,7 +16900,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>361</v>
       </c>
@@ -16924,7 +16920,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -16938,7 +16934,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -16952,7 +16948,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -16966,7 +16962,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>201</v>
       </c>
@@ -16986,7 +16982,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>25</v>
       </c>
@@ -17000,7 +16996,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -17014,7 +17010,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -17028,7 +17024,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>432</v>
       </c>
@@ -17048,7 +17044,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>3</v>
       </c>
@@ -17062,7 +17058,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>333</v>
       </c>
@@ -17082,7 +17078,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>372</v>
       </c>
@@ -17102,7 +17098,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>4</v>
       </c>
@@ -17116,7 +17112,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -17130,7 +17126,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>2</v>
       </c>
@@ -17144,7 +17140,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>0</v>
       </c>
@@ -17158,7 +17154,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>377</v>
       </c>
@@ -17178,7 +17174,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -17192,7 +17188,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -17206,7 +17202,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>2</v>
       </c>
@@ -17220,7 +17216,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>447</v>
       </c>
@@ -17240,7 +17236,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>449</v>
       </c>
@@ -17260,7 +17256,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>3</v>
       </c>
@@ -17274,7 +17270,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>386</v>
       </c>
@@ -17294,7 +17290,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>4</v>
       </c>
@@ -17308,7 +17304,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>396</v>
       </c>
@@ -17328,7 +17324,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -17342,7 +17338,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>2</v>
       </c>
@@ -17356,7 +17352,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>398</v>
       </c>
@@ -17376,7 +17372,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>25</v>
       </c>
@@ -17390,7 +17386,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>4</v>
       </c>
@@ -17404,7 +17400,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>400</v>
       </c>
@@ -17424,7 +17420,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>3</v>
       </c>
@@ -17438,7 +17434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>2</v>
       </c>

--- a/Tennis/WTA Tour/Na Li.xlsx
+++ b/Tennis/WTA Tour/Na Li.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7602" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98330517-CFA8-4814-8BF3-1ECA3CB9DE5F}"/>
+  <xr:revisionPtr revIDLastSave="7603" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE962006-0ED9-4E94-B815-58995065B8D8}"/>
   <bookViews>
-    <workbookView xWindow="3312" yWindow="3312" windowWidth="17280" windowHeight="8880" firstSheet="9" activeTab="15" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="9" activeTab="15" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="1999" sheetId="5" r:id="rId1"/>
@@ -5197,17 +5197,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -5227,7 +5227,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>746</v>
       </c>
@@ -5244,7 +5244,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>745</v>
       </c>
@@ -5255,7 +5255,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -5263,7 +5263,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -5283,7 +5283,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -5297,7 +5297,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>2</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>0</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>41</v>
       </c>
@@ -5339,7 +5339,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>63</v>
       </c>
@@ -5359,7 +5359,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>3</v>
       </c>
@@ -5373,7 +5373,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>2</v>
       </c>
@@ -5387,7 +5387,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>0</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>41</v>
       </c>
@@ -5415,7 +5415,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>75</v>
       </c>
@@ -5435,7 +5435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>2</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>0</v>
       </c>
@@ -5477,7 +5477,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>41</v>
       </c>
@@ -5491,7 +5491,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>81</v>
       </c>
@@ -5511,7 +5511,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -5525,7 +5525,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -5539,7 +5539,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>85</v>
       </c>
@@ -5559,7 +5559,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -5573,7 +5573,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>88</v>
       </c>
@@ -5593,7 +5593,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>3</v>
       </c>
@@ -5607,7 +5607,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>2</v>
       </c>
@@ -5621,7 +5621,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>93</v>
       </c>
@@ -5641,7 +5641,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>94</v>
       </c>
@@ -5661,7 +5661,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -5675,7 +5675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
         <v>775</v>
       </c>
@@ -5697,17 +5697,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>314</v>
       </c>
@@ -5747,7 +5747,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -5761,7 +5761,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -5775,7 +5775,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -5789,7 +5789,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>41</v>
       </c>
@@ -5803,7 +5803,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>201</v>
       </c>
@@ -5823,7 +5823,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>25</v>
       </c>
@@ -5837,7 +5837,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -5851,7 +5851,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>748</v>
       </c>
@@ -5868,7 +5868,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>547</v>
       </c>
@@ -5879,7 +5879,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>468</v>
       </c>
@@ -5899,7 +5899,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>2</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -5941,7 +5941,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>328</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -5975,7 +5975,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>3</v>
       </c>
@@ -5989,7 +5989,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>2</v>
       </c>
@@ -6003,7 +6003,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>0</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>477</v>
       </c>
@@ -6037,7 +6037,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -6051,7 +6051,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -6071,7 +6071,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>25</v>
       </c>
@@ -6085,7 +6085,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>192</v>
       </c>
@@ -6105,7 +6105,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>4</v>
       </c>
@@ -6119,7 +6119,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -6133,7 +6133,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>2</v>
       </c>
@@ -6147,7 +6147,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -6161,7 +6161,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -6181,7 +6181,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>25</v>
       </c>
@@ -6195,7 +6195,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -6223,12 +6223,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>432</v>
       </c>
@@ -6248,7 +6248,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>275</v>
       </c>
@@ -6268,7 +6268,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>492</v>
       </c>
@@ -6288,7 +6288,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>3</v>
       </c>
@@ -6302,7 +6302,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>2</v>
       </c>
@@ -6316,7 +6316,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>425</v>
       </c>
@@ -6336,7 +6336,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>493</v>
       </c>
@@ -6356,7 +6356,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>496</v>
       </c>
@@ -6376,7 +6376,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -6390,7 +6390,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>2</v>
       </c>
@@ -6404,7 +6404,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>0</v>
       </c>
@@ -6436,17 +6436,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -6466,7 +6466,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>506</v>
       </c>
@@ -6486,7 +6486,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -6500,7 +6500,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>333</v>
       </c>
@@ -6520,7 +6520,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>509</v>
       </c>
@@ -6540,7 +6540,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -6554,7 +6554,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -6568,7 +6568,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>0</v>
       </c>
@@ -6582,7 +6582,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>41</v>
       </c>
@@ -6596,7 +6596,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>372</v>
       </c>
@@ -6616,7 +6616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>25</v>
       </c>
@@ -6630,7 +6630,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -6644,7 +6644,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>377</v>
       </c>
@@ -6678,7 +6678,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>25</v>
       </c>
@@ -6692,7 +6692,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -6706,7 +6706,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -6720,7 +6720,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -6734,7 +6734,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>492</v>
       </c>
@@ -6754,7 +6754,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -6768,7 +6768,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>524</v>
       </c>
@@ -6788,7 +6788,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>742</v>
       </c>
@@ -6808,7 +6808,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>4</v>
       </c>
@@ -6822,7 +6822,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>398</v>
       </c>
@@ -6842,7 +6842,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>25</v>
       </c>
@@ -6856,7 +6856,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>4</v>
       </c>
@@ -6870,7 +6870,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -6884,7 +6884,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>400</v>
       </c>
@@ -6904,7 +6904,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -6918,7 +6918,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -6932,7 +6932,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>0</v>
       </c>
@@ -6946,7 +6946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>41</v>
       </c>
@@ -6960,12 +6960,12 @@
         <v>529</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>477</v>
       </c>
@@ -6985,7 +6985,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -6999,7 +6999,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>34</v>
       </c>
@@ -7019,7 +7019,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>25</v>
       </c>
@@ -7033,7 +7033,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>4</v>
       </c>
@@ -7047,7 +7047,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>538</v>
       </c>
@@ -7067,7 +7067,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>346</v>
       </c>
@@ -7087,7 +7087,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>4</v>
       </c>
@@ -7101,7 +7101,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -7115,7 +7115,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>39</v>
       </c>
@@ -7135,7 +7135,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>25</v>
       </c>
@@ -7149,7 +7149,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>4</v>
       </c>
@@ -7163,7 +7163,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>3</v>
       </c>
@@ -7177,7 +7177,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -7191,7 +7191,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>432</v>
       </c>
@@ -7211,7 +7211,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>4</v>
       </c>
@@ -7225,7 +7225,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>3</v>
       </c>
@@ -7239,7 +7239,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>2</v>
       </c>
@@ -7253,7 +7253,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>0</v>
       </c>
@@ -7267,7 +7267,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>275</v>
       </c>
@@ -7287,7 +7287,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -7319,17 +7319,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -7349,7 +7349,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>558</v>
       </c>
@@ -7369,7 +7369,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>361</v>
       </c>
@@ -7389,7 +7389,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -7403,7 +7403,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>201</v>
       </c>
@@ -7423,7 +7423,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>25</v>
       </c>
@@ -7437,7 +7437,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -7451,7 +7451,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -7465,7 +7465,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -7479,7 +7479,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -7493,7 +7493,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>333</v>
       </c>
@@ -7513,7 +7513,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -7527,7 +7527,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>2</v>
       </c>
@@ -7541,7 +7541,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>564</v>
       </c>
@@ -7561,7 +7561,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>372</v>
       </c>
@@ -7581,7 +7581,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>377</v>
       </c>
@@ -7601,7 +7601,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>492</v>
       </c>
@@ -7621,7 +7621,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -7635,7 +7635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>2</v>
       </c>
@@ -7649,7 +7649,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>742</v>
       </c>
@@ -7669,7 +7669,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>4</v>
       </c>
@@ -7683,7 +7683,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -7697,7 +7697,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>2</v>
       </c>
@@ -7711,7 +7711,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>571</v>
       </c>
@@ -7731,7 +7731,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -7745,7 +7745,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>2</v>
       </c>
@@ -7759,7 +7759,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -7773,7 +7773,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>398</v>
       </c>
@@ -7793,7 +7793,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>25</v>
       </c>
@@ -7807,7 +7807,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -7821,7 +7821,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>400</v>
       </c>
@@ -7841,7 +7841,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>3</v>
       </c>
@@ -7855,7 +7855,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>2</v>
       </c>
@@ -7869,7 +7869,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>0</v>
       </c>
@@ -7883,7 +7883,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>41</v>
       </c>
@@ -7897,7 +7897,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>477</v>
       </c>
@@ -7917,7 +7917,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>34</v>
       </c>
@@ -7937,7 +7937,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>25</v>
       </c>
@@ -7951,7 +7951,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>4</v>
       </c>
@@ -7965,7 +7965,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>3</v>
       </c>
@@ -7979,7 +7979,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>2</v>
       </c>
@@ -7993,7 +7993,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>586</v>
       </c>
@@ -8013,7 +8013,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>3</v>
       </c>
@@ -8027,7 +8027,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>2</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>0</v>
       </c>
@@ -8055,7 +8055,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>589</v>
       </c>
@@ -8075,7 +8075,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>3</v>
       </c>
@@ -8089,7 +8089,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>348</v>
       </c>
@@ -8109,7 +8109,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>3</v>
       </c>
@@ -8123,7 +8123,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>39</v>
       </c>
@@ -8143,7 +8143,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>275</v>
       </c>
@@ -8163,7 +8163,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>4</v>
       </c>
@@ -8177,7 +8177,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>3</v>
       </c>
@@ -8191,7 +8191,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>2</v>
       </c>
@@ -8205,7 +8205,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>0</v>
       </c>
@@ -8219,7 +8219,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>425</v>
       </c>
@@ -8239,7 +8239,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>694</v>
       </c>
@@ -8276,17 +8276,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -8306,7 +8306,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>361</v>
       </c>
@@ -8326,7 +8326,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -8340,7 +8340,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -8354,7 +8354,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -8368,7 +8368,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>41</v>
       </c>
@@ -8382,7 +8382,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>201</v>
       </c>
@@ -8402,7 +8402,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>25</v>
       </c>
@@ -8416,7 +8416,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -8430,7 +8430,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -8444,7 +8444,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -8458,7 +8458,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>0</v>
       </c>
@@ -8472,7 +8472,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>41</v>
       </c>
@@ -8486,7 +8486,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>333</v>
       </c>
@@ -8506,7 +8506,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>328</v>
       </c>
@@ -8526,7 +8526,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>372</v>
       </c>
@@ -8546,7 +8546,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>377</v>
       </c>
@@ -8566,7 +8566,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>492</v>
       </c>
@@ -8586,7 +8586,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -8600,7 +8600,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>742</v>
       </c>
@@ -8620,7 +8620,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -8634,7 +8634,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -8648,7 +8648,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -8662,7 +8662,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>0</v>
       </c>
@@ -8676,7 +8676,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>524</v>
       </c>
@@ -8696,7 +8696,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -8710,7 +8710,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>2</v>
       </c>
@@ -8724,7 +8724,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -8738,7 +8738,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>398</v>
       </c>
@@ -8758,7 +8758,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>25</v>
       </c>
@@ -8772,7 +8772,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -8786,7 +8786,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -8800,7 +8800,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>2</v>
       </c>
@@ -8814,7 +8814,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>0</v>
       </c>
@@ -8828,7 +8828,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>41</v>
       </c>
@@ -8842,7 +8842,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>477</v>
       </c>
@@ -8862,7 +8862,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -8876,7 +8876,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>34</v>
       </c>
@@ -8896,7 +8896,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>25</v>
       </c>
@@ -8910,7 +8910,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>348</v>
       </c>
@@ -8930,7 +8930,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>589</v>
       </c>
@@ -8950,7 +8950,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -8964,7 +8964,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>417</v>
       </c>
@@ -8984,7 +8984,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>2</v>
       </c>
@@ -8998,7 +8998,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>0</v>
       </c>
@@ -9012,7 +9012,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>39</v>
       </c>
@@ -9032,7 +9032,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>275</v>
       </c>
@@ -9052,7 +9052,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>692</v>
       </c>
@@ -9072,7 +9072,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>693</v>
       </c>
@@ -9086,7 +9086,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>693</v>
       </c>
@@ -9117,17 +9117,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -9147,7 +9147,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>632</v>
       </c>
@@ -9167,7 +9167,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -9181,7 +9181,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -9195,7 +9195,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -9209,7 +9209,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>41</v>
       </c>
@@ -9223,7 +9223,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>201</v>
       </c>
@@ -9243,7 +9243,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>25</v>
       </c>
@@ -9257,7 +9257,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -9271,7 +9271,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -9285,7 +9285,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>748</v>
       </c>
@@ -9302,7 +9302,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>774</v>
       </c>
@@ -9313,7 +9313,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>423</v>
       </c>
@@ -9324,7 +9324,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>506</v>
       </c>
@@ -9344,7 +9344,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>372</v>
       </c>
@@ -9364,7 +9364,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -9378,7 +9378,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -9392,7 +9392,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -9406,7 +9406,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>377</v>
       </c>
@@ -9426,7 +9426,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>4</v>
       </c>
@@ -9440,7 +9440,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -9454,7 +9454,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -9468,7 +9468,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>492</v>
       </c>
@@ -9488,7 +9488,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -9502,7 +9502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>2</v>
       </c>
@@ -9516,7 +9516,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>742</v>
       </c>
@@ -9536,7 +9536,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>4</v>
       </c>
@@ -9550,7 +9550,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -9564,7 +9564,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -9578,7 +9578,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>524</v>
       </c>
@@ -9598,7 +9598,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>3</v>
       </c>
@@ -9612,7 +9612,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>2</v>
       </c>
@@ -9626,7 +9626,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>0</v>
       </c>
@@ -9640,7 +9640,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>41</v>
       </c>
@@ -9654,7 +9654,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>398</v>
       </c>
@@ -9674,7 +9674,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>25</v>
       </c>
@@ -9688,7 +9688,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>4</v>
       </c>
@@ -9702,7 +9702,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -9716,7 +9716,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>34</v>
       </c>
@@ -9736,7 +9736,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>25</v>
       </c>
@@ -9750,7 +9750,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>192</v>
       </c>
@@ -9770,7 +9770,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>348</v>
       </c>
@@ -9790,7 +9790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -9804,7 +9804,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>2</v>
       </c>
@@ -9818,7 +9818,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>0</v>
       </c>
@@ -9832,7 +9832,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>41</v>
       </c>
@@ -9846,7 +9846,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>589</v>
       </c>
@@ -9866,7 +9866,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -9880,7 +9880,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>2</v>
       </c>
@@ -9894,7 +9894,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>0</v>
       </c>
@@ -9908,7 +9908,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>41</v>
       </c>
@@ -9922,7 +9922,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>39</v>
       </c>
@@ -9942,7 +9942,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>25</v>
       </c>
@@ -9956,7 +9956,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>4</v>
       </c>
@@ -9970,7 +9970,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>432</v>
       </c>
@@ -9990,7 +9990,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>3</v>
       </c>
@@ -10004,7 +10004,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>275</v>
       </c>
@@ -10024,7 +10024,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>4</v>
       </c>
@@ -10038,7 +10038,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>3</v>
       </c>
@@ -10052,7 +10052,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>2</v>
       </c>
@@ -10066,7 +10066,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>0</v>
       </c>
@@ -10080,7 +10080,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>692</v>
       </c>
@@ -10100,7 +10100,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>693</v>
       </c>
@@ -10114,7 +10114,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>693</v>
       </c>
@@ -10146,17 +10146,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -10176,7 +10176,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>678</v>
       </c>
@@ -10196,7 +10196,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -10210,7 +10210,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -10224,7 +10224,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -10238,7 +10238,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>41</v>
       </c>
@@ -10252,7 +10252,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>361</v>
       </c>
@@ -10272,7 +10272,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -10286,7 +10286,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -10300,7 +10300,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -10314,7 +10314,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>201</v>
       </c>
@@ -10334,7 +10334,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>25</v>
       </c>
@@ -10348,7 +10348,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -10362,7 +10362,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -10376,7 +10376,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>2</v>
       </c>
@@ -10390,7 +10390,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -10404,7 +10404,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>41</v>
       </c>
@@ -10418,7 +10418,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>377</v>
       </c>
@@ -10438,7 +10438,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>4</v>
       </c>
@@ -10452,7 +10452,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -10466,7 +10466,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -10480,7 +10480,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>492</v>
       </c>
@@ -10500,7 +10500,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -10514,7 +10514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>0</v>
       </c>
@@ -10528,7 +10528,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>41</v>
       </c>
@@ -10542,7 +10542,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>742</v>
       </c>
@@ -10562,7 +10562,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>524</v>
       </c>
@@ -10582,7 +10582,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -10596,7 +10596,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>398</v>
       </c>
@@ -10616,7 +10616,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>25</v>
       </c>
@@ -10630,7 +10630,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>477</v>
       </c>
@@ -10650,7 +10650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -10664,7 +10664,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>2</v>
       </c>
@@ -10678,12 +10678,12 @@
         <v>543</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>34</v>
       </c>
@@ -10703,7 +10703,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>25</v>
       </c>
@@ -10717,7 +10717,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>4</v>
       </c>
@@ -10731,7 +10731,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -10745,7 +10745,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>2</v>
       </c>
@@ -10759,7 +10759,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>348</v>
       </c>
@@ -10779,7 +10779,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>3</v>
       </c>
@@ -10793,7 +10793,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>2</v>
       </c>
@@ -10807,7 +10807,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>0</v>
       </c>
@@ -10821,7 +10821,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>589</v>
       </c>
@@ -10841,7 +10841,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -10855,7 +10855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>2</v>
       </c>
@@ -10869,7 +10869,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>0</v>
       </c>
@@ -10883,7 +10883,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>39</v>
       </c>
@@ -10903,7 +10903,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>25</v>
       </c>
@@ -10917,7 +10917,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>4</v>
       </c>
@@ -10931,7 +10931,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>3</v>
       </c>
@@ -10945,7 +10945,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>2</v>
       </c>
@@ -10959,7 +10959,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>0</v>
       </c>
@@ -10973,7 +10973,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>275</v>
       </c>
@@ -10993,7 +10993,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>4</v>
       </c>
@@ -11007,7 +11007,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -11021,7 +11021,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>2</v>
       </c>
@@ -11035,7 +11035,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>692</v>
       </c>
@@ -11055,7 +11055,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>693</v>
       </c>
@@ -11069,7 +11069,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>693</v>
       </c>
@@ -11083,7 +11083,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>0</v>
       </c>
@@ -11097,7 +11097,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>41</v>
       </c>
@@ -11129,17 +11129,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -11159,7 +11159,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>678</v>
       </c>
@@ -11179,7 +11179,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -11193,7 +11193,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -11207,7 +11207,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -11221,7 +11221,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>41</v>
       </c>
@@ -11235,7 +11235,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>201</v>
       </c>
@@ -11255,7 +11255,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>25</v>
       </c>
@@ -11269,7 +11269,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -11283,7 +11283,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -11297,7 +11297,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -11311,7 +11311,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>0</v>
       </c>
@@ -11325,7 +11325,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>41</v>
       </c>
@@ -11339,7 +11339,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>328</v>
       </c>
@@ -11359,7 +11359,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -11373,7 +11373,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>372</v>
       </c>
@@ -11393,7 +11393,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -11407,7 +11407,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -11421,7 +11421,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -11435,7 +11435,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -11449,7 +11449,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>377</v>
       </c>
@@ -11469,7 +11469,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -11483,7 +11483,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -11497,7 +11497,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>0</v>
       </c>
@@ -11511,7 +11511,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>41</v>
       </c>
@@ -11525,7 +11525,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>742</v>
       </c>
@@ -11545,7 +11545,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>4</v>
       </c>
@@ -11559,7 +11559,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -11573,7 +11573,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -11587,7 +11587,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>524</v>
       </c>
@@ -11607,7 +11607,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -11621,7 +11621,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>2</v>
       </c>
@@ -11635,7 +11635,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>398</v>
       </c>
@@ -11655,7 +11655,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>34</v>
       </c>
@@ -11675,7 +11675,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>25</v>
       </c>
@@ -11689,7 +11689,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>4</v>
       </c>
@@ -11720,18 +11720,18 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -11751,7 +11751,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1999</v>
       </c>
@@ -11772,7 +11772,7 @@
         <v>0.82608695652173914</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2000</v>
       </c>
@@ -11793,7 +11793,7 @@
         <v>0.79032258064516125</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2001</v>
       </c>
@@ -11814,7 +11814,7 @@
         <v>0.46153846153846156</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2002</v>
       </c>
@@ -11835,7 +11835,7 @@
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2003</v>
       </c>
@@ -11856,7 +11856,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2004</v>
       </c>
@@ -11877,7 +11877,7 @@
         <v>0.91304347826086951</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2005</v>
       </c>
@@ -11899,7 +11899,7 @@
       </c>
       <c r="N8" s="7"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2006</v>
       </c>
@@ -11921,7 +11921,7 @@
       </c>
       <c r="N9" s="7"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2007</v>
       </c>
@@ -11943,7 +11943,7 @@
       </c>
       <c r="N10" s="7"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2008</v>
       </c>
@@ -11965,7 +11965,7 @@
       </c>
       <c r="N11" s="7"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2009</v>
       </c>
@@ -11987,7 +11987,7 @@
       </c>
       <c r="N12" s="7"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2010</v>
       </c>
@@ -12008,7 +12008,7 @@
         <v>0.44444444444444442</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2011</v>
       </c>
@@ -12029,7 +12029,7 @@
         <v>0.46875</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2012</v>
       </c>
@@ -12050,7 +12050,7 @@
         <v>0.62222222222222223</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2013</v>
       </c>
@@ -12071,7 +12071,7 @@
         <v>0.68181818181818177</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2014</v>
       </c>
@@ -12092,7 +12092,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -12117,7 +12117,7 @@
         <v>0.63636363636363635</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>55</v>
       </c>
@@ -12142,7 +12142,7 @@
         <v>0.63636363636363635</v>
       </c>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
         <v>775</v>
       </c>
@@ -12173,17 +12173,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -12203,7 +12203,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>114</v>
       </c>
@@ -12223,7 +12223,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -12237,7 +12237,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -12251,7 +12251,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -12265,7 +12265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>41</v>
       </c>
@@ -12279,7 +12279,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>120</v>
       </c>
@@ -12299,7 +12299,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -12313,7 +12313,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -12327,7 +12327,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -12341,7 +12341,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>124</v>
       </c>
@@ -12361,7 +12361,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -12375,7 +12375,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -12389,7 +12389,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -12403,7 +12403,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>130</v>
       </c>
@@ -12423,7 +12423,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -12437,7 +12437,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>2</v>
       </c>
@@ -12451,7 +12451,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>0</v>
       </c>
@@ -12465,7 +12465,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>134</v>
       </c>
@@ -12485,7 +12485,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -12499,7 +12499,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -12513,7 +12513,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>0</v>
       </c>
@@ -12527,7 +12527,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>41</v>
       </c>
@@ -12541,7 +12541,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>134</v>
       </c>
@@ -12561,7 +12561,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -12575,7 +12575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>2</v>
       </c>
@@ -12589,7 +12589,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>0</v>
       </c>
@@ -12603,7 +12603,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>41</v>
       </c>
@@ -12617,7 +12617,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>143</v>
       </c>
@@ -12637,7 +12637,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -12651,7 +12651,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>2</v>
       </c>
@@ -12665,7 +12665,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>0</v>
       </c>
@@ -12679,7 +12679,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>41</v>
       </c>
@@ -12693,7 +12693,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>152</v>
       </c>
@@ -12713,7 +12713,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>3</v>
       </c>
@@ -12727,7 +12727,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>2</v>
       </c>
@@ -12741,7 +12741,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>0</v>
       </c>
@@ -12755,7 +12755,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>41</v>
       </c>
@@ -12769,7 +12769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>748</v>
       </c>
@@ -12786,7 +12786,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
         <v>750</v>
       </c>
@@ -12797,7 +12797,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
         <v>751</v>
       </c>
@@ -12808,7 +12808,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
         <v>752</v>
       </c>
@@ -12819,7 +12819,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
         <v>753</v>
       </c>
@@ -12830,7 +12830,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
         <v>322</v>
       </c>
@@ -12841,7 +12841,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>158</v>
       </c>
@@ -12861,7 +12861,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>160</v>
       </c>
@@ -12881,7 +12881,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>3</v>
       </c>
@@ -12895,7 +12895,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>2</v>
       </c>
@@ -12909,7 +12909,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>0</v>
       </c>
@@ -12923,7 +12923,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>41</v>
       </c>
@@ -12937,7 +12937,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>163</v>
       </c>
@@ -12957,7 +12957,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>3</v>
       </c>
@@ -12971,7 +12971,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>2</v>
       </c>
@@ -12985,7 +12985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>0</v>
       </c>
@@ -12999,7 +12999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>41</v>
       </c>
@@ -13013,7 +13013,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>169</v>
       </c>
@@ -13033,7 +13033,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -13047,7 +13047,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>171</v>
       </c>
@@ -13067,7 +13067,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>174</v>
       </c>
@@ -13087,7 +13087,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>3</v>
       </c>
@@ -13101,7 +13101,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>2</v>
       </c>
@@ -13115,7 +13115,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>178</v>
       </c>
@@ -13135,7 +13135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>181</v>
       </c>
@@ -13155,7 +13155,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>3</v>
       </c>
@@ -13169,7 +13169,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>2</v>
       </c>
@@ -13183,7 +13183,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>0</v>
       </c>
@@ -13197,7 +13197,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>41</v>
       </c>
@@ -13211,7 +13211,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>186</v>
       </c>
@@ -13231,7 +13231,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>39</v>
       </c>
@@ -13251,7 +13251,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>189</v>
       </c>
@@ -13265,7 +13265,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>192</v>
       </c>
@@ -13285,7 +13285,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>193</v>
       </c>
@@ -13305,7 +13305,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>3</v>
       </c>
@@ -13319,7 +13319,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>195</v>
       </c>
@@ -13339,7 +13339,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>189</v>
       </c>
@@ -13353,7 +13353,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="97" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>196</v>
       </c>
@@ -13385,17 +13385,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -13415,7 +13415,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>201</v>
       </c>
@@ -13435,7 +13435,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>204</v>
       </c>
@@ -13455,7 +13455,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>748</v>
       </c>
@@ -13472,7 +13472,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>145</v>
       </c>
@@ -13483,7 +13483,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>756</v>
       </c>
@@ -13494,7 +13494,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>163</v>
       </c>
@@ -13514,7 +13514,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -13528,7 +13528,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -13542,7 +13542,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>0</v>
       </c>
@@ -13556,7 +13556,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>41</v>
       </c>
@@ -13570,7 +13570,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>160</v>
       </c>
@@ -13590,7 +13590,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -13604,7 +13604,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -13624,7 +13624,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>217</v>
       </c>
@@ -13644,7 +13644,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>219</v>
       </c>
@@ -13664,7 +13664,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -13678,7 +13678,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -13692,7 +13692,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>0</v>
       </c>
@@ -13706,7 +13706,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>41</v>
       </c>
@@ -13720,7 +13720,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>193</v>
       </c>
@@ -13740,7 +13740,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
         <v>775</v>
       </c>
@@ -13762,17 +13762,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -13792,7 +13792,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>228</v>
       </c>
@@ -13812,7 +13812,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -13826,7 +13826,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -13840,7 +13840,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -13854,7 +13854,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -13862,7 +13862,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>233</v>
       </c>
@@ -13882,7 +13882,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -13896,7 +13896,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>236</v>
       </c>
@@ -13916,7 +13916,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -13930,7 +13930,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -13944,7 +13944,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>0</v>
       </c>
@@ -13958,7 +13958,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>41</v>
       </c>
@@ -13972,7 +13972,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>748</v>
       </c>
@@ -13989,7 +13989,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>758</v>
       </c>
@@ -14000,7 +14000,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>759</v>
       </c>
@@ -14011,7 +14011,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>761</v>
       </c>
@@ -14022,7 +14022,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>762</v>
       </c>
@@ -14033,7 +14033,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>242</v>
       </c>
@@ -14053,7 +14053,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>748</v>
       </c>
@@ -14070,7 +14070,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
         <v>775</v>
       </c>
@@ -14092,17 +14092,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -14122,7 +14122,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>244</v>
       </c>
@@ -14142,7 +14142,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
         <v>775</v>
       </c>
@@ -14165,17 +14165,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -14195,7 +14195,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>246</v>
       </c>
@@ -14215,7 +14215,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -14229,7 +14229,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -14243,7 +14243,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -14257,7 +14257,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>41</v>
       </c>
@@ -14271,7 +14271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>255</v>
       </c>
@@ -14291,7 +14291,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -14305,7 +14305,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -14319,7 +14319,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -14333,7 +14333,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>41</v>
       </c>
@@ -14347,7 +14347,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>260</v>
       </c>
@@ -14367,7 +14367,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -14381,7 +14381,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>2</v>
       </c>
@@ -14395,7 +14395,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>0</v>
       </c>
@@ -14409,7 +14409,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>41</v>
       </c>
@@ -14423,7 +14423,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>264</v>
       </c>
@@ -14443,7 +14443,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -14457,7 +14457,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -14471,7 +14471,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -14485,7 +14485,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>41</v>
       </c>
@@ -14499,7 +14499,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>186</v>
       </c>
@@ -14519,7 +14519,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -14533,7 +14533,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>2</v>
       </c>
@@ -14547,7 +14547,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>0</v>
       </c>
@@ -14561,7 +14561,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>246</v>
       </c>
@@ -14581,7 +14581,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -14595,7 +14595,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>2</v>
       </c>
@@ -14609,7 +14609,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>0</v>
       </c>
@@ -14623,7 +14623,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>41</v>
       </c>
@@ -14637,7 +14637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>275</v>
       </c>
@@ -14657,7 +14657,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>189</v>
       </c>
@@ -14671,7 +14671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>196</v>
       </c>
@@ -14685,7 +14685,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -14699,7 +14699,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -14713,12 +14713,12 @@
         <v>276</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>282</v>
       </c>
@@ -14738,7 +14738,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>189</v>
       </c>
@@ -14752,7 +14752,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>196</v>
       </c>
@@ -14766,7 +14766,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>4</v>
       </c>
@@ -14780,7 +14780,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -14794,7 +14794,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>2</v>
       </c>
@@ -14808,7 +14808,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>0</v>
       </c>
@@ -14822,7 +14822,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>41</v>
       </c>
@@ -14836,7 +14836,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>291</v>
       </c>
@@ -14856,7 +14856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>3</v>
       </c>
@@ -14870,7 +14870,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>2</v>
       </c>
@@ -14884,7 +14884,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>0</v>
       </c>
@@ -14898,7 +14898,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>41</v>
       </c>
@@ -14912,7 +14912,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>291</v>
       </c>
@@ -14932,7 +14932,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>3</v>
       </c>
@@ -14946,7 +14946,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -14978,17 +14978,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -15008,7 +15008,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>314</v>
       </c>
@@ -15028,7 +15028,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -15042,7 +15042,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>317</v>
       </c>
@@ -15062,7 +15062,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -15076,7 +15076,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>2</v>
       </c>
@@ -15090,7 +15090,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>0</v>
       </c>
@@ -15104,7 +15104,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>201</v>
       </c>
@@ -15124,7 +15124,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>25</v>
       </c>
@@ -15138,7 +15138,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>4</v>
       </c>
@@ -15152,7 +15152,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>324</v>
       </c>
@@ -15172,7 +15172,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -15186,7 +15186,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>2</v>
       </c>
@@ -15200,7 +15200,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>328</v>
       </c>
@@ -15220,7 +15220,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>189</v>
       </c>
@@ -15234,7 +15234,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>196</v>
       </c>
@@ -15248,7 +15248,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -15262,7 +15262,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>333</v>
       </c>
@@ -15282,7 +15282,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>189</v>
       </c>
@@ -15296,7 +15296,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>196</v>
       </c>
@@ -15310,7 +15310,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>4</v>
       </c>
@@ -15324,7 +15324,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -15338,7 +15338,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>748</v>
       </c>
@@ -15355,7 +15355,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>765</v>
       </c>
@@ -15366,7 +15366,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>766</v>
       </c>
@@ -15377,7 +15377,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>337</v>
       </c>
@@ -15397,7 +15397,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -15411,7 +15411,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>2</v>
       </c>
@@ -15425,7 +15425,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -15439,7 +15439,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>41</v>
       </c>
@@ -15453,7 +15453,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>342</v>
       </c>
@@ -15473,7 +15473,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -15487,7 +15487,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>2</v>
       </c>
@@ -15501,7 +15501,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>0</v>
       </c>
@@ -15515,7 +15515,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>748</v>
       </c>
@@ -15532,7 +15532,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
         <v>768</v>
       </c>
@@ -15543,7 +15543,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>346</v>
       </c>
@@ -15563,7 +15563,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>348</v>
       </c>
@@ -15583,7 +15583,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>4</v>
       </c>
@@ -15597,7 +15597,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>3</v>
       </c>
@@ -15611,7 +15611,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>39</v>
       </c>
@@ -15631,7 +15631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>352</v>
       </c>
@@ -15651,7 +15651,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -15665,7 +15665,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>2</v>
       </c>
@@ -15679,7 +15679,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>0</v>
       </c>
@@ -15693,7 +15693,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>282</v>
       </c>
@@ -15713,7 +15713,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -15727,7 +15727,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>2</v>
       </c>
@@ -15741,7 +15741,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>275</v>
       </c>
@@ -15779,17 +15779,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -15809,7 +15809,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>314</v>
       </c>
@@ -15829,7 +15829,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -15843,7 +15843,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>361</v>
       </c>
@@ -15863,7 +15863,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>189</v>
       </c>
@@ -15877,7 +15877,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>196</v>
       </c>
@@ -15891,7 +15891,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>4</v>
       </c>
@@ -15905,7 +15905,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -15919,7 +15919,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>201</v>
       </c>
@@ -15939,7 +15939,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>195</v>
       </c>
@@ -15959,7 +15959,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>367</v>
       </c>
@@ -15979,7 +15979,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>328</v>
       </c>
@@ -15999,7 +15999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -16013,7 +16013,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>2</v>
       </c>
@@ -16027,7 +16027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>372</v>
       </c>
@@ -16047,7 +16047,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>25</v>
       </c>
@@ -16061,7 +16061,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>4</v>
       </c>
@@ -16075,7 +16075,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -16089,7 +16089,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>377</v>
       </c>
@@ -16109,7 +16109,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>25</v>
       </c>
@@ -16123,7 +16123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>748</v>
       </c>
@@ -16140,7 +16140,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>769</v>
       </c>
@@ -16151,7 +16151,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>337</v>
       </c>
@@ -16171,7 +16171,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -16185,7 +16185,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -16199,7 +16199,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>0</v>
       </c>
@@ -16213,7 +16213,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>41</v>
       </c>
@@ -16227,7 +16227,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>386</v>
       </c>
@@ -16247,7 +16247,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>4</v>
       </c>
@@ -16261,7 +16261,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -16275,7 +16275,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>2</v>
       </c>
@@ -16289,7 +16289,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>0</v>
       </c>
@@ -16303,7 +16303,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>396</v>
       </c>
@@ -16323,7 +16323,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>3</v>
       </c>
@@ -16337,7 +16337,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>2</v>
       </c>
@@ -16351,7 +16351,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>398</v>
       </c>
@@ -16371,7 +16371,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>25</v>
       </c>
@@ -16385,7 +16385,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>4</v>
       </c>
@@ -16399,7 +16399,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>400</v>
       </c>
@@ -16419,7 +16419,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>4</v>
       </c>
@@ -16433,7 +16433,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -16447,7 +16447,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>770</v>
       </c>
@@ -16467,7 +16467,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>34</v>
       </c>
@@ -16487,7 +16487,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>25</v>
       </c>
@@ -16501,7 +16501,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>4</v>
       </c>
@@ -16515,7 +16515,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -16529,7 +16529,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>2</v>
       </c>
@@ -16543,7 +16543,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>748</v>
       </c>
@@ -16560,7 +16560,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
         <v>772</v>
       </c>
@@ -16571,7 +16571,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>406</v>
       </c>
@@ -16591,7 +16591,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -16605,7 +16605,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>2</v>
       </c>
@@ -16619,7 +16619,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>348</v>
       </c>
@@ -16639,7 +16639,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>417</v>
       </c>
@@ -16659,7 +16659,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>3</v>
       </c>
@@ -16673,7 +16673,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>39</v>
       </c>
@@ -16693,7 +16693,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>25</v>
       </c>
@@ -16707,7 +16707,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>4</v>
       </c>
@@ -16721,7 +16721,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>3</v>
       </c>
@@ -16735,7 +16735,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>275</v>
       </c>
@@ -16755,7 +16755,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>3</v>
       </c>
@@ -16769,7 +16769,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>2</v>
       </c>
@@ -16783,7 +16783,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>282</v>
       </c>
@@ -16803,7 +16803,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>3</v>
       </c>
@@ -16817,7 +16817,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>2</v>
       </c>
@@ -16831,7 +16831,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>425</v>
       </c>
@@ -16869,18 +16869,18 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -16900,7 +16900,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>361</v>
       </c>
@@ -16920,7 +16920,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -16934,7 +16934,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -16948,7 +16948,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -16962,7 +16962,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>201</v>
       </c>
@@ -16982,7 +16982,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>25</v>
       </c>
@@ -16996,7 +16996,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -17010,7 +17010,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -17024,7 +17024,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>432</v>
       </c>
@@ -17044,7 +17044,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>3</v>
       </c>
@@ -17058,7 +17058,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>333</v>
       </c>
@@ -17078,7 +17078,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>372</v>
       </c>
@@ -17098,7 +17098,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>4</v>
       </c>
@@ -17112,7 +17112,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -17126,7 +17126,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>2</v>
       </c>
@@ -17140,7 +17140,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>0</v>
       </c>
@@ -17154,7 +17154,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>377</v>
       </c>
@@ -17174,7 +17174,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -17188,7 +17188,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -17202,7 +17202,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>2</v>
       </c>
@@ -17216,7 +17216,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>447</v>
       </c>
@@ -17236,7 +17236,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>449</v>
       </c>
@@ -17256,7 +17256,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>3</v>
       </c>
@@ -17270,7 +17270,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>386</v>
       </c>
@@ -17290,7 +17290,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>4</v>
       </c>
@@ -17304,7 +17304,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>396</v>
       </c>
@@ -17324,7 +17324,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -17338,7 +17338,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>2</v>
       </c>
@@ -17352,7 +17352,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>398</v>
       </c>
@@ -17372,7 +17372,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>25</v>
       </c>
@@ -17386,7 +17386,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>4</v>
       </c>
@@ -17400,7 +17400,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>400</v>
       </c>
@@ -17420,7 +17420,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>3</v>
       </c>
@@ -17434,7 +17434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>2</v>
       </c>

--- a/Tennis/WTA Tour/Na Li.xlsx
+++ b/Tennis/WTA Tour/Na Li.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7603" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE962006-0ED9-4E94-B815-58995065B8D8}"/>
+  <xr:revisionPtr revIDLastSave="7605" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10E3C1D8-1507-4D11-86A5-B0AD878621C2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="9" activeTab="15" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="9" activeTab="14" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="1999" sheetId="5" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3314" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3313" uniqueCount="776">
   <si>
     <t>Semifinal</t>
   </si>
@@ -4805,7 +4805,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{35E954B3-444B-4142-8B42-2FD824968604}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4817,7 +4817,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{2F114BCB-9880-48C0-9CD7-AE0157F801E5}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4891,10 +4891,14 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4932,7 +4936,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -5038,7 +5042,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5180,7 +5184,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5193,8 +5197,8 @@
   </sheetPr>
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5693,8 +5697,8 @@
   </sheetPr>
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6432,8 +6436,8 @@
   </sheetPr>
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7315,8 +7319,8 @@
   </sheetPr>
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8272,8 +8276,8 @@
   </sheetPr>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9113,8 +9117,8 @@
   </sheetPr>
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10143,7 +10147,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11125,8 +11129,8 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11714,9 +11718,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N42"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -11725,7 +11729,7 @@
     <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" customWidth="1"/>
@@ -12140,11 +12144,6 @@
       <c r="F19" s="6">
         <f t="shared" si="1"/>
         <v>0.63636363636363635</v>
-      </c>
-    </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D42" t="s">
-        <v>775</v>
       </c>
     </row>
   </sheetData>
@@ -12169,8 +12168,8 @@
   </sheetPr>
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13381,8 +13380,8 @@
   </sheetPr>
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13758,8 +13757,8 @@
   </sheetPr>
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14088,8 +14087,8 @@
   </sheetPr>
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14161,8 +14160,8 @@
   </sheetPr>
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14974,8 +14973,8 @@
   </sheetPr>
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15775,8 +15774,8 @@
   </sheetPr>
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16865,8 +16864,8 @@
   </sheetPr>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Tennis/WTA Tour/Na Li.xlsx
+++ b/Tennis/WTA Tour/Na Li.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7605" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10E3C1D8-1507-4D11-86A5-B0AD878621C2}"/>
+  <xr:revisionPtr revIDLastSave="7606" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98E7D0F3-1323-45D0-A9AC-64BF6256F4FA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="9" activeTab="14" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="9165" yWindow="3750" windowWidth="19305" windowHeight="17130" firstSheet="9" activeTab="15" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="1999" sheetId="5" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3313" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3312" uniqueCount="776">
   <si>
     <t>Semifinal</t>
   </si>
@@ -10146,8 +10146,8 @@
   </sheetPr>
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10682,11 +10682,6 @@
         <v>543</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D42" t="s">
-        <v>775</v>
-      </c>
-    </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>34</v>
@@ -11129,7 +11124,7 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>

--- a/Tennis/WTA Tour/Na Li.xlsx
+++ b/Tennis/WTA Tour/Na Li.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="7606" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98E7D0F3-1323-45D0-A9AC-64BF6256F4FA}"/>
   <bookViews>
-    <workbookView xWindow="9165" yWindow="3750" windowWidth="19305" windowHeight="17130" firstSheet="9" activeTab="15" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="9" activeTab="15" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="1999" sheetId="5" r:id="rId1"/>
@@ -4805,7 +4805,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{35E954B3-444B-4142-8B42-2FD824968604}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4817,7 +4817,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{2F114BCB-9880-48C0-9CD7-AE0157F801E5}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4889,10 +4889,6 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5197,8 +5193,8 @@
   </sheetPr>
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5697,8 +5693,8 @@
   </sheetPr>
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6436,8 +6432,8 @@
   </sheetPr>
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7319,8 +7315,8 @@
   </sheetPr>
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8276,8 +8272,8 @@
   </sheetPr>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9117,8 +9113,8 @@
   </sheetPr>
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10146,8 +10142,8 @@
   </sheetPr>
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11125,7 +11121,7 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11715,7 +11711,7 @@
   </sheetPr>
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -12163,8 +12159,8 @@
   </sheetPr>
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13375,8 +13371,8 @@
   </sheetPr>
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13752,8 +13748,8 @@
   </sheetPr>
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14082,8 +14078,8 @@
   </sheetPr>
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14155,8 +14151,8 @@
   </sheetPr>
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14968,8 +14964,8 @@
   </sheetPr>
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15769,8 +15765,8 @@
   </sheetPr>
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16859,8 +16855,8 @@
   </sheetPr>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Tennis/WTA Tour/Na Li.xlsx
+++ b/Tennis/WTA Tour/Na Li.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7606" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98E7D0F3-1323-45D0-A9AC-64BF6256F4FA}"/>
+  <xr:revisionPtr revIDLastSave="7609" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18956F81-F15A-4F02-A3A7-B47EAF05EBAE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="9" activeTab="15" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="28800" windowHeight="15345" firstSheet="9" activeTab="16" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="1999" sheetId="5" r:id="rId1"/>
@@ -1037,9 +1037,6 @@
     <t>Maria Kirilenko (RUSSIA)</t>
   </si>
   <si>
-    <t>QATAR TOTAL OPEN</t>
-  </si>
-  <si>
     <t>Ekaterina Bychkova (RUSSIA)</t>
   </si>
   <si>
@@ -1052,9 +1049,6 @@
     <t>Patty Schnyder (SWITZERLAND)</t>
   </si>
   <si>
-    <t>DUBAI TENNIS CHAMPIONSHIPS</t>
-  </si>
-  <si>
     <t>Martina Müller-Skibbe (GERMANY)</t>
   </si>
   <si>
@@ -2379,6 +2373,12 @@
   </si>
   <si>
     <t>Paula Kania (POLAND)</t>
+  </si>
+  <si>
+    <t>DUBAI OPEN</t>
+  </si>
+  <si>
+    <t>QATAR OPEN</t>
   </si>
 </sst>
 </file>
@@ -4805,7 +4805,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{35E954B3-444B-4142-8B42-2FD824968604}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4817,7 +4817,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{2F114BCB-9880-48C0-9CD7-AE0157F801E5}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4828,8 +4828,8 @@
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="7620"/>
-    <xdr:ext cx="8564880" cy="5814060"/>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8582025" cy="5838825"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -5193,8 +5193,8 @@
   </sheetPr>
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5229,13 +5229,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>19</v>
@@ -5246,13 +5246,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5677,7 +5677,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
   </sheetData>
@@ -5693,8 +5693,8 @@
   </sheetPr>
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5738,13 +5738,13 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5752,7 +5752,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>19</v>
@@ -5766,7 +5766,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>19</v>
@@ -5780,13 +5780,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -5794,13 +5794,13 @@
         <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -5814,13 +5814,13 @@
         <v>321</v>
       </c>
       <c r="D8" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -5848,29 +5848,29 @@
         <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>19</v>
@@ -5881,7 +5881,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
@@ -5890,7 +5890,7 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>19</v>
@@ -5904,7 +5904,7 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>19</v>
@@ -5918,7 +5918,7 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>19</v>
@@ -5932,18 +5932,18 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>328</v>
+        <v>775</v>
       </c>
       <c r="B20" t="s">
         <v>17</v>
@@ -5952,13 +5952,13 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -5966,13 +5966,13 @@
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F21" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -5980,7 +5980,7 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>19</v>
@@ -6008,18 +6008,18 @@
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F24" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B26" t="s">
         <v>32</v>
@@ -6048,7 +6048,7 @@
         <v>18</v>
       </c>
       <c r="F27" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -6062,13 +6062,13 @@
         <v>321</v>
       </c>
       <c r="D29" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F29" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -6076,7 +6076,7 @@
         <v>25</v>
       </c>
       <c r="D30" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>18</v>
@@ -6096,13 +6096,13 @@
         <v>25</v>
       </c>
       <c r="D32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F32" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -6110,7 +6110,7 @@
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>19</v>
@@ -6124,7 +6124,7 @@
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>19</v>
@@ -6138,7 +6138,7 @@
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>19</v>
@@ -6152,13 +6152,13 @@
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F36" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -6172,13 +6172,13 @@
         <v>321</v>
       </c>
       <c r="D38" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F38" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -6186,7 +6186,7 @@
         <v>25</v>
       </c>
       <c r="D39" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>19</v>
@@ -6200,13 +6200,13 @@
         <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F40" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -6214,7 +6214,7 @@
         <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>18</v>
@@ -6225,12 +6225,12 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B43" t="s">
         <v>17</v>
@@ -6239,13 +6239,13 @@
         <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F43" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -6259,18 +6259,18 @@
         <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F45" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B47" t="s">
         <v>17</v>
@@ -6279,7 +6279,7 @@
         <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>19</v>
@@ -6293,13 +6293,13 @@
         <v>3</v>
       </c>
       <c r="D48" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F48" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -6318,7 +6318,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B51" t="s">
         <v>17</v>
@@ -6327,7 +6327,7 @@
         <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>18</v>
@@ -6338,7 +6338,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B53" t="s">
         <v>17</v>
@@ -6358,7 +6358,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B55" t="s">
         <v>17</v>
@@ -6367,7 +6367,7 @@
         <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>19</v>
@@ -6381,13 +6381,13 @@
         <v>3</v>
       </c>
       <c r="D56" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F56" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -6395,7 +6395,7 @@
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>19</v>
@@ -6409,13 +6409,13 @@
         <v>0</v>
       </c>
       <c r="D58" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F58" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>
@@ -6432,13 +6432,13 @@
   </sheetPr>
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
@@ -6468,7 +6468,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -6477,13 +6477,13 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -6502,7 +6502,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>333</v>
+        <v>774</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
@@ -6511,7 +6511,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>18</v>
@@ -6522,7 +6522,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -6531,13 +6531,13 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -6545,7 +6545,7 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>19</v>
@@ -6559,13 +6559,13 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -6573,7 +6573,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>19</v>
@@ -6587,7 +6587,7 @@
         <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>18</v>
@@ -6598,7 +6598,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -6607,7 +6607,7 @@
         <v>321</v>
       </c>
       <c r="D13" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>19</v>
@@ -6621,13 +6621,13 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -6635,13 +6635,13 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -6649,7 +6649,7 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>18</v>
@@ -6660,7 +6660,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
@@ -6669,13 +6669,13 @@
         <v>321</v>
       </c>
       <c r="D18" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F18" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -6683,7 +6683,7 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>19</v>
@@ -6697,7 +6697,7 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>19</v>
@@ -6711,13 +6711,13 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F21" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -6725,18 +6725,18 @@
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F22" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
@@ -6759,18 +6759,18 @@
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F25" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B27" t="s">
         <v>29</v>
@@ -6779,18 +6779,18 @@
         <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F27" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
@@ -6799,13 +6799,13 @@
         <v>25</v>
       </c>
       <c r="D29" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F29" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -6813,18 +6813,18 @@
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F30" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B32" t="s">
         <v>29</v>
@@ -6839,7 +6839,7 @@
         <v>19</v>
       </c>
       <c r="F32" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -6847,7 +6847,7 @@
         <v>25</v>
       </c>
       <c r="D33" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>19</v>
@@ -6861,7 +6861,7 @@
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>19</v>
@@ -6881,12 +6881,12 @@
         <v>18</v>
       </c>
       <c r="F35" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B37" t="s">
         <v>32</v>
@@ -6895,13 +6895,13 @@
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F37" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -6909,7 +6909,7 @@
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>19</v>
@@ -6923,13 +6923,13 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F39" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -6951,23 +6951,23 @@
         <v>41</v>
       </c>
       <c r="D41" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F41" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B43" t="s">
         <v>32</v>
@@ -6976,7 +6976,7 @@
         <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>19</v>
@@ -6990,13 +6990,13 @@
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F44" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -7010,13 +7010,13 @@
         <v>321</v>
       </c>
       <c r="D46" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F46" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -7024,13 +7024,13 @@
         <v>25</v>
       </c>
       <c r="D47" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F47" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -7038,7 +7038,7 @@
         <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>18</v>
@@ -7049,7 +7049,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B50" t="s">
         <v>17</v>
@@ -7058,7 +7058,7 @@
         <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>18</v>
@@ -7069,7 +7069,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B52" t="s">
         <v>17</v>
@@ -7078,13 +7078,13 @@
         <v>25</v>
       </c>
       <c r="D52" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F52" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -7092,13 +7092,13 @@
         <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F53" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -7106,7 +7106,7 @@
         <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>49</v>
@@ -7126,13 +7126,13 @@
         <v>321</v>
       </c>
       <c r="D56" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F56" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -7140,7 +7140,7 @@
         <v>25</v>
       </c>
       <c r="D57" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>19</v>
@@ -7160,7 +7160,7 @@
         <v>19</v>
       </c>
       <c r="F58" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -7168,7 +7168,7 @@
         <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>19</v>
@@ -7182,7 +7182,7 @@
         <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>18</v>
@@ -7193,7 +7193,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B62" t="s">
         <v>17</v>
@@ -7202,7 +7202,7 @@
         <v>25</v>
       </c>
       <c r="D62" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>19</v>
@@ -7230,13 +7230,13 @@
         <v>3</v>
       </c>
       <c r="D64" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F64" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -7244,13 +7244,13 @@
         <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F65" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -7278,13 +7278,13 @@
         <v>4</v>
       </c>
       <c r="D68" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F68" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -7292,7 +7292,7 @@
         <v>3</v>
       </c>
       <c r="D69" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>18</v>
@@ -7315,13 +7315,13 @@
   </sheetPr>
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
@@ -7351,7 +7351,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -7360,7 +7360,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>18</v>
@@ -7371,7 +7371,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -7380,13 +7380,13 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -7414,7 +7414,7 @@
         <v>321</v>
       </c>
       <c r="D7" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>19</v>
@@ -7428,13 +7428,13 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -7442,13 +7442,13 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -7456,7 +7456,7 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>19</v>
@@ -7470,13 +7470,13 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -7484,18 +7484,18 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>333</v>
+        <v>774</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -7504,13 +7504,13 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -7518,13 +7518,13 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -7532,18 +7532,18 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
@@ -7552,18 +7552,18 @@
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B20" t="s">
         <v>17</v>
@@ -7572,18 +7572,18 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F20" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B22" t="s">
         <v>17</v>
@@ -7592,18 +7592,18 @@
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F22" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
@@ -7612,7 +7612,7 @@
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>19</v>
@@ -7626,7 +7626,7 @@
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>19</v>
@@ -7640,7 +7640,7 @@
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>18</v>
@@ -7651,7 +7651,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
@@ -7660,7 +7660,7 @@
         <v>25</v>
       </c>
       <c r="D28" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>19</v>
@@ -7674,13 +7674,13 @@
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F29" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -7688,7 +7688,7 @@
         <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>19</v>
@@ -7702,18 +7702,18 @@
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F31" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B33" t="s">
         <v>29</v>
@@ -7722,13 +7722,13 @@
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F33" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -7736,7 +7736,7 @@
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>19</v>
@@ -7750,7 +7750,7 @@
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>19</v>
@@ -7764,18 +7764,18 @@
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F36" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B38" t="s">
         <v>29</v>
@@ -7784,7 +7784,7 @@
         <v>321</v>
       </c>
       <c r="D38" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>19</v>
@@ -7798,7 +7798,7 @@
         <v>25</v>
       </c>
       <c r="D39" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>19</v>
@@ -7812,18 +7812,18 @@
         <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F40" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B42" t="s">
         <v>32</v>
@@ -7832,7 +7832,7 @@
         <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>19</v>
@@ -7846,13 +7846,13 @@
         <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F43" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -7860,13 +7860,13 @@
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F44" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -7874,7 +7874,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>19</v>
@@ -7888,7 +7888,7 @@
         <v>41</v>
       </c>
       <c r="D46" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>19</v>
@@ -7899,7 +7899,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B48" t="s">
         <v>32</v>
@@ -7908,13 +7908,13 @@
         <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F48" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -7928,13 +7928,13 @@
         <v>321</v>
       </c>
       <c r="D50" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F50" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -7942,7 +7942,7 @@
         <v>25</v>
       </c>
       <c r="D51" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>19</v>
@@ -7956,7 +7956,7 @@
         <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>19</v>
@@ -7970,7 +7970,7 @@
         <v>3</v>
       </c>
       <c r="D53" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>19</v>
@@ -7984,18 +7984,18 @@
         <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F54" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B56" t="s">
         <v>17</v>
@@ -8004,7 +8004,7 @@
         <v>4</v>
       </c>
       <c r="D56" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>19</v>
@@ -8018,7 +8018,7 @@
         <v>3</v>
       </c>
       <c r="D57" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>19</v>
@@ -8032,7 +8032,7 @@
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>19</v>
@@ -8046,18 +8046,18 @@
         <v>0</v>
       </c>
       <c r="D59" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F59" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B61" t="s">
         <v>17</v>
@@ -8066,7 +8066,7 @@
         <v>4</v>
       </c>
       <c r="D61" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>19</v>
@@ -8080,18 +8080,18 @@
         <v>3</v>
       </c>
       <c r="D62" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F62" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B64" t="s">
         <v>17</v>
@@ -8100,7 +8100,7 @@
         <v>4</v>
       </c>
       <c r="D64" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>19</v>
@@ -8114,7 +8114,7 @@
         <v>3</v>
       </c>
       <c r="D65" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>18</v>
@@ -8134,13 +8134,13 @@
         <v>321</v>
       </c>
       <c r="D67" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F67" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -8154,7 +8154,7 @@
         <v>25</v>
       </c>
       <c r="D69" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>19</v>
@@ -8168,7 +8168,7 @@
         <v>4</v>
       </c>
       <c r="D70" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>19</v>
@@ -8182,7 +8182,7 @@
         <v>3</v>
       </c>
       <c r="D71" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>19</v>
@@ -8196,13 +8196,13 @@
         <v>2</v>
       </c>
       <c r="D72" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F72" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -8210,7 +8210,7 @@
         <v>0</v>
       </c>
       <c r="D73" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>18</v>
@@ -8221,7 +8221,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B75" t="s">
         <v>17</v>
@@ -8230,18 +8230,18 @@
         <v>4</v>
       </c>
       <c r="D75" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F75" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B77" t="s">
         <v>17</v>
@@ -8250,13 +8250,13 @@
         <v>2</v>
       </c>
       <c r="D77" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F77" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
   </sheetData>
@@ -8272,13 +8272,13 @@
   </sheetPr>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
@@ -8308,7 +8308,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -8317,7 +8317,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>19</v>
@@ -8331,13 +8331,13 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -8345,13 +8345,13 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -8359,7 +8359,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
@@ -8373,13 +8373,13 @@
         <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -8393,13 +8393,13 @@
         <v>321</v>
       </c>
       <c r="D8" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -8407,13 +8407,13 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -8421,7 +8421,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>19</v>
@@ -8435,13 +8435,13 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -8449,7 +8449,7 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>19</v>
@@ -8463,13 +8463,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -8477,18 +8477,18 @@
         <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>333</v>
+        <v>774</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -8497,18 +8497,18 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>328</v>
+        <v>775</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
@@ -8517,7 +8517,7 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>18</v>
@@ -8528,7 +8528,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B20" t="s">
         <v>17</v>
@@ -8548,7 +8548,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B22" t="s">
         <v>17</v>
@@ -8557,18 +8557,18 @@
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F22" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
@@ -8577,7 +8577,7 @@
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>19</v>
@@ -8591,18 +8591,18 @@
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F25" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B27" t="s">
         <v>29</v>
@@ -8611,13 +8611,13 @@
         <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F27" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -8625,7 +8625,7 @@
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>19</v>
@@ -8645,7 +8645,7 @@
         <v>19</v>
       </c>
       <c r="F29" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -8653,13 +8653,13 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F30" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -8667,7 +8667,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>18</v>
@@ -8678,7 +8678,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B33" t="s">
         <v>29</v>
@@ -8687,13 +8687,13 @@
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F33" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -8701,7 +8701,7 @@
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>19</v>
@@ -8729,18 +8729,18 @@
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F36" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B38" t="s">
         <v>29</v>
@@ -8749,13 +8749,13 @@
         <v>321</v>
       </c>
       <c r="D38" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F38" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -8763,7 +8763,7 @@
         <v>25</v>
       </c>
       <c r="D39" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>19</v>
@@ -8777,13 +8777,13 @@
         <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F40" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -8791,13 +8791,13 @@
         <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F41" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -8805,13 +8805,13 @@
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F42" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -8825,7 +8825,7 @@
         <v>19</v>
       </c>
       <c r="F43" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -8833,18 +8833,18 @@
         <v>41</v>
       </c>
       <c r="D44" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F44" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B46" t="s">
         <v>32</v>
@@ -8853,7 +8853,7 @@
         <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>19</v>
@@ -8867,13 +8867,13 @@
         <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F47" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -8887,7 +8887,7 @@
         <v>321</v>
       </c>
       <c r="D49" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>19</v>
@@ -8901,18 +8901,18 @@
         <v>25</v>
       </c>
       <c r="D50" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F50" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B52" t="s">
         <v>17</v>
@@ -8921,7 +8921,7 @@
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>18</v>
@@ -8932,7 +8932,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B54" t="s">
         <v>17</v>
@@ -8941,7 +8941,7 @@
         <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>19</v>
@@ -8955,18 +8955,18 @@
         <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F55" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B57" t="s">
         <v>17</v>
@@ -8981,7 +8981,7 @@
         <v>19</v>
       </c>
       <c r="F57" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -8989,7 +8989,7 @@
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>19</v>
@@ -9003,13 +9003,13 @@
         <v>0</v>
       </c>
       <c r="D59" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F59" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -9023,7 +9023,7 @@
         <v>321</v>
       </c>
       <c r="D61" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>18</v>
@@ -9043,7 +9043,7 @@
         <v>25</v>
       </c>
       <c r="D63" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>18</v>
@@ -9054,30 +9054,30 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B65" t="s">
         <v>17</v>
       </c>
       <c r="C65" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D65" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F65" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D66" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>18</v>
@@ -9088,10 +9088,10 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D67" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>18</v>
@@ -9113,8 +9113,8 @@
   </sheetPr>
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9149,7 +9149,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -9158,7 +9158,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>19</v>
@@ -9172,13 +9172,13 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -9186,13 +9186,13 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -9200,13 +9200,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -9214,13 +9214,13 @@
         <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -9234,7 +9234,7 @@
         <v>321</v>
       </c>
       <c r="D8" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>19</v>
@@ -9248,13 +9248,13 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -9268,7 +9268,7 @@
         <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -9276,24 +9276,24 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>19</v>
@@ -9304,7 +9304,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>19</v>
@@ -9315,18 +9315,18 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -9335,18 +9335,18 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
@@ -9355,13 +9355,13 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F19" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -9383,7 +9383,7 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>19</v>
@@ -9397,18 +9397,18 @@
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F22" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B24" t="s">
         <v>17</v>
@@ -9417,13 +9417,13 @@
         <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F24" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -9431,13 +9431,13 @@
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F25" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -9445,7 +9445,7 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>19</v>
@@ -9470,7 +9470,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
@@ -9479,13 +9479,13 @@
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F29" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -9493,7 +9493,7 @@
         <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>19</v>
@@ -9507,18 +9507,18 @@
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F31" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B33" t="s">
         <v>29</v>
@@ -9527,7 +9527,7 @@
         <v>25</v>
       </c>
       <c r="D33" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>19</v>
@@ -9541,7 +9541,7 @@
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>19</v>
@@ -9555,7 +9555,7 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>19</v>
@@ -9569,18 +9569,18 @@
         <v>2</v>
       </c>
       <c r="D36" t="s">
+        <v>460</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" t="s">
         <v>462</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B38" t="s">
         <v>29</v>
@@ -9589,7 +9589,7 @@
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>19</v>
@@ -9603,7 +9603,7 @@
         <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>19</v>
@@ -9617,13 +9617,13 @@
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F40" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -9631,7 +9631,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>19</v>
@@ -9645,18 +9645,18 @@
         <v>41</v>
       </c>
       <c r="D42" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F42" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B44" t="s">
         <v>29</v>
@@ -9665,13 +9665,13 @@
         <v>321</v>
       </c>
       <c r="D44" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F44" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -9679,13 +9679,13 @@
         <v>25</v>
       </c>
       <c r="D45" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F45" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -9693,13 +9693,13 @@
         <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F46" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -9707,13 +9707,13 @@
         <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F47" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -9727,13 +9727,13 @@
         <v>321</v>
       </c>
       <c r="D49" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F49" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -9741,7 +9741,7 @@
         <v>25</v>
       </c>
       <c r="D50" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>18</v>
@@ -9761,18 +9761,18 @@
         <v>25</v>
       </c>
       <c r="D52" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F52" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B54" t="s">
         <v>17</v>
@@ -9781,7 +9781,7 @@
         <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>19</v>
@@ -9795,13 +9795,13 @@
         <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F55" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -9809,7 +9809,7 @@
         <v>2</v>
       </c>
       <c r="D56" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>19</v>
@@ -9823,13 +9823,13 @@
         <v>0</v>
       </c>
       <c r="D57" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F57" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -9837,18 +9837,18 @@
         <v>41</v>
       </c>
       <c r="D58" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F58" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B60" t="s">
         <v>17</v>
@@ -9857,13 +9857,13 @@
         <v>4</v>
       </c>
       <c r="D60" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F60" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -9871,7 +9871,7 @@
         <v>3</v>
       </c>
       <c r="D61" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>19</v>
@@ -9885,7 +9885,7 @@
         <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>19</v>
@@ -9899,13 +9899,13 @@
         <v>0</v>
       </c>
       <c r="D63" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F63" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -9913,13 +9913,13 @@
         <v>41</v>
       </c>
       <c r="D64" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F64" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -9933,13 +9933,13 @@
         <v>321</v>
       </c>
       <c r="D66" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F66" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -9947,13 +9947,13 @@
         <v>25</v>
       </c>
       <c r="D67" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F67" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -9961,7 +9961,7 @@
         <v>4</v>
       </c>
       <c r="D68" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>18</v>
@@ -9972,7 +9972,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B70" t="s">
         <v>17</v>
@@ -9981,13 +9981,13 @@
         <v>4</v>
       </c>
       <c r="D70" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F70" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -9995,13 +9995,13 @@
         <v>3</v>
       </c>
       <c r="D71" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F71" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -10015,7 +10015,7 @@
         <v>25</v>
       </c>
       <c r="D73" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>19</v>
@@ -10029,7 +10029,7 @@
         <v>4</v>
       </c>
       <c r="D74" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>19</v>
@@ -10043,13 +10043,13 @@
         <v>3</v>
       </c>
       <c r="D75" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F75" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -10057,13 +10057,13 @@
         <v>2</v>
       </c>
       <c r="D76" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F76" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -10071,7 +10071,7 @@
         <v>0</v>
       </c>
       <c r="D77" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>18</v>
@@ -10082,16 +10082,16 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B79" t="s">
         <v>17</v>
       </c>
       <c r="C79" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D79" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>18</v>
@@ -10102,10 +10102,10 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D80" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>19</v>
@@ -10116,16 +10116,16 @@
     </row>
     <row r="81" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D81" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F81" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
   </sheetData>
@@ -10142,8 +10142,8 @@
   </sheetPr>
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10178,7 +10178,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -10187,7 +10187,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>19</v>
@@ -10201,7 +10201,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>19</v>
@@ -10215,7 +10215,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>19</v>
@@ -10229,7 +10229,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
@@ -10243,18 +10243,18 @@
         <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
@@ -10263,13 +10263,13 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -10277,7 +10277,7 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>19</v>
@@ -10291,13 +10291,13 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -10305,7 +10305,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>18</v>
@@ -10325,13 +10325,13 @@
         <v>321</v>
       </c>
       <c r="D13" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -10339,13 +10339,13 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -10353,13 +10353,13 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -10367,13 +10367,13 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F16" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -10381,13 +10381,13 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -10395,13 +10395,13 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F18" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -10409,18 +10409,18 @@
         <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B21" t="s">
         <v>17</v>
@@ -10429,7 +10429,7 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>19</v>
@@ -10443,7 +10443,7 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>19</v>
@@ -10457,13 +10457,13 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F23" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -10471,18 +10471,18 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F24" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B26" t="s">
         <v>29</v>
@@ -10491,13 +10491,13 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F26" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -10505,7 +10505,7 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>19</v>
@@ -10519,7 +10519,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>19</v>
@@ -10533,18 +10533,18 @@
         <v>41</v>
       </c>
       <c r="D29" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F29" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B31" t="s">
         <v>29</v>
@@ -10553,7 +10553,7 @@
         <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>18</v>
@@ -10564,7 +10564,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B33" t="s">
         <v>29</v>
@@ -10573,7 +10573,7 @@
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>19</v>
@@ -10593,12 +10593,12 @@
         <v>18</v>
       </c>
       <c r="F34" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B36" t="s">
         <v>29</v>
@@ -10607,13 +10607,13 @@
         <v>321</v>
       </c>
       <c r="D36" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F36" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -10621,18 +10621,18 @@
         <v>25</v>
       </c>
       <c r="D37" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F37" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B39" t="s">
         <v>32</v>
@@ -10641,7 +10641,7 @@
         <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>19</v>
@@ -10655,7 +10655,7 @@
         <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>19</v>
@@ -10669,13 +10669,13 @@
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F41" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -10689,13 +10689,13 @@
         <v>321</v>
       </c>
       <c r="D43" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F43" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -10703,13 +10703,13 @@
         <v>25</v>
       </c>
       <c r="D44" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F44" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -10717,13 +10717,13 @@
         <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F45" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -10731,13 +10731,13 @@
         <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F46" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -10745,18 +10745,18 @@
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F47" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B49" t="s">
         <v>17</v>
@@ -10765,7 +10765,7 @@
         <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>19</v>
@@ -10779,13 +10779,13 @@
         <v>3</v>
       </c>
       <c r="D50" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F50" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -10793,13 +10793,13 @@
         <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F51" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -10807,18 +10807,18 @@
         <v>0</v>
       </c>
       <c r="D52" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F52" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B54" t="s">
         <v>17</v>
@@ -10827,13 +10827,13 @@
         <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F54" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -10841,7 +10841,7 @@
         <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>19</v>
@@ -10855,7 +10855,7 @@
         <v>2</v>
       </c>
       <c r="D56" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>19</v>
@@ -10869,7 +10869,7 @@
         <v>0</v>
       </c>
       <c r="D57" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>18</v>
@@ -10889,13 +10889,13 @@
         <v>321</v>
       </c>
       <c r="D59" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F59" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -10903,13 +10903,13 @@
         <v>25</v>
       </c>
       <c r="D60" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F60" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -10917,13 +10917,13 @@
         <v>4</v>
       </c>
       <c r="D61" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F61" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -10937,7 +10937,7 @@
         <v>19</v>
       </c>
       <c r="F62" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -10945,7 +10945,7 @@
         <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>19</v>
@@ -10959,7 +10959,7 @@
         <v>0</v>
       </c>
       <c r="D64" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>18</v>
@@ -10979,7 +10979,7 @@
         <v>25</v>
       </c>
       <c r="D66" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>19</v>
@@ -10993,7 +10993,7 @@
         <v>4</v>
       </c>
       <c r="D67" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>19</v>
@@ -11007,7 +11007,7 @@
         <v>3</v>
       </c>
       <c r="D68" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>19</v>
@@ -11021,38 +11021,38 @@
         <v>2</v>
       </c>
       <c r="D69" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F69" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B71" t="s">
         <v>17</v>
       </c>
       <c r="C71" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D71" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F71" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D72" t="s">
         <v>287</v>
@@ -11061,15 +11061,15 @@
         <v>19</v>
       </c>
       <c r="F72" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D73" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>19</v>
@@ -11083,13 +11083,13 @@
         <v>0</v>
       </c>
       <c r="D74" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F74" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -11097,13 +11097,13 @@
         <v>41</v>
       </c>
       <c r="D75" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F75" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
   </sheetData>
@@ -11120,8 +11120,8 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11156,7 +11156,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -11165,7 +11165,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>19</v>
@@ -11179,7 +11179,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>19</v>
@@ -11193,13 +11193,13 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -11207,7 +11207,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
@@ -11221,7 +11221,7 @@
         <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>19</v>
@@ -11241,13 +11241,13 @@
         <v>321</v>
       </c>
       <c r="D8" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -11255,13 +11255,13 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -11269,13 +11269,13 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -11283,7 +11283,7 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>19</v>
@@ -11297,7 +11297,7 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>19</v>
@@ -11311,13 +11311,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -11325,18 +11325,18 @@
         <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>328</v>
+        <v>775</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -11345,13 +11345,13 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F16" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -11359,18 +11359,18 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
@@ -11379,7 +11379,7 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>19</v>
@@ -11393,7 +11393,7 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>19</v>
@@ -11407,7 +11407,7 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>19</v>
@@ -11421,13 +11421,13 @@
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F22" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -11435,7 +11435,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>18</v>
@@ -11446,7 +11446,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B25" t="s">
         <v>17</v>
@@ -11455,13 +11455,13 @@
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F25" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -11469,7 +11469,7 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>19</v>
@@ -11483,7 +11483,7 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>19</v>
@@ -11497,13 +11497,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F28" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -11511,18 +11511,18 @@
         <v>41</v>
       </c>
       <c r="D29" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F29" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B31" t="s">
         <v>29</v>
@@ -11531,13 +11531,13 @@
         <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F31" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -11545,7 +11545,7 @@
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>19</v>
@@ -11559,13 +11559,13 @@
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F33" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -11573,18 +11573,18 @@
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F34" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B36" t="s">
         <v>29</v>
@@ -11593,7 +11593,7 @@
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>19</v>
@@ -11607,7 +11607,7 @@
         <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>19</v>
@@ -11621,7 +11621,7 @@
         <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>18</v>
@@ -11632,7 +11632,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B40" t="s">
         <v>29</v>
@@ -11641,13 +11641,13 @@
         <v>321</v>
       </c>
       <c r="D40" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F40" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -11661,13 +11661,13 @@
         <v>321</v>
       </c>
       <c r="D42" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F42" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -11675,7 +11675,7 @@
         <v>25</v>
       </c>
       <c r="D43" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>19</v>
@@ -11689,13 +11689,13 @@
         <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F44" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
   </sheetData>
@@ -11712,7 +11712,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12159,8 +12159,8 @@
   </sheetPr>
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12708,7 +12708,7 @@
         <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>19</v>
@@ -12761,13 +12761,13 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B47" t="s">
         <v>17</v>
       </c>
       <c r="D47" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>19</v>
@@ -12778,7 +12778,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>19</v>
@@ -12789,18 +12789,18 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F49" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>19</v>
@@ -12811,7 +12811,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>19</v>
@@ -12828,7 +12828,7 @@
         <v>19</v>
       </c>
       <c r="F52" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -13371,8 +13371,8 @@
   </sheetPr>
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13447,19 +13447,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -13475,7 +13475,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>18</v>
@@ -13732,7 +13732,7 @@
     </row>
     <row r="42" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
   </sheetData>
@@ -13748,8 +13748,8 @@
   </sheetPr>
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13964,13 +13964,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>19</v>
@@ -13981,7 +13981,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>19</v>
@@ -13992,7 +13992,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>19</v>
@@ -14003,7 +14003,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>19</v>
@@ -14014,13 +14014,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -14045,13 +14045,13 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B24" t="s">
         <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>18</v>
@@ -14062,7 +14062,7 @@
     </row>
     <row r="42" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
   </sheetData>
@@ -14078,8 +14078,8 @@
   </sheetPr>
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14134,7 +14134,7 @@
     </row>
     <row r="42" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
   </sheetData>
@@ -14151,8 +14151,8 @@
   </sheetPr>
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14705,7 +14705,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -14964,8 +14964,8 @@
   </sheetPr>
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15192,7 +15192,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>328</v>
+        <v>775</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
@@ -15201,7 +15201,7 @@
         <v>188</v>
       </c>
       <c r="D18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>19</v>
@@ -15215,7 +15215,7 @@
         <v>189</v>
       </c>
       <c r="D19" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>19</v>
@@ -15229,7 +15229,7 @@
         <v>196</v>
       </c>
       <c r="D20" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>19</v>
@@ -15243,7 +15243,7 @@
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>18</v>
@@ -15254,7 +15254,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>333</v>
+        <v>774</v>
       </c>
       <c r="B23" t="s">
         <v>17</v>
@@ -15263,7 +15263,7 @@
         <v>188</v>
       </c>
       <c r="D23" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>19</v>
@@ -15291,7 +15291,7 @@
         <v>196</v>
       </c>
       <c r="D25" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>19</v>
@@ -15305,7 +15305,7 @@
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>19</v>
@@ -15319,7 +15319,7 @@
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>18</v>
@@ -15330,13 +15330,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B29" t="s">
         <v>17</v>
       </c>
       <c r="D29" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>19</v>
@@ -15347,7 +15347,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>19</v>
@@ -15358,7 +15358,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>19</v>
@@ -15369,7 +15369,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B33" t="s">
         <v>29</v>
@@ -15378,7 +15378,7 @@
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>19</v>
@@ -15406,7 +15406,7 @@
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>19</v>
@@ -15420,7 +15420,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>19</v>
@@ -15434,7 +15434,7 @@
         <v>41</v>
       </c>
       <c r="D37" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>18</v>
@@ -15445,7 +15445,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B39" t="s">
         <v>29</v>
@@ -15468,7 +15468,7 @@
         <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>19</v>
@@ -15496,24 +15496,24 @@
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F42" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B44" t="s">
         <v>17</v>
       </c>
       <c r="D44" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>19</v>
@@ -15524,7 +15524,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>19</v>
@@ -15535,7 +15535,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B47" t="s">
         <v>17</v>
@@ -15544,7 +15544,7 @@
         <v>25</v>
       </c>
       <c r="D47" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>18</v>
@@ -15555,7 +15555,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B49" t="s">
         <v>17</v>
@@ -15578,7 +15578,7 @@
         <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>19</v>
@@ -15598,7 +15598,7 @@
         <v>18</v>
       </c>
       <c r="F51" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -15612,7 +15612,7 @@
         <v>321</v>
       </c>
       <c r="D53" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>18</v>
@@ -15623,7 +15623,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B55" t="s">
         <v>17</v>
@@ -15632,7 +15632,7 @@
         <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>19</v>
@@ -15660,7 +15660,7 @@
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>19</v>
@@ -15674,7 +15674,7 @@
         <v>0</v>
       </c>
       <c r="D58" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>18</v>
@@ -15694,7 +15694,7 @@
         <v>4</v>
       </c>
       <c r="D60" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>19</v>
@@ -15708,7 +15708,7 @@
         <v>3</v>
       </c>
       <c r="D61" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>19</v>
@@ -15742,7 +15742,7 @@
         <v>4</v>
       </c>
       <c r="D64" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>18</v>
@@ -15765,8 +15765,8 @@
   </sheetPr>
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15824,7 +15824,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>18</v>
@@ -15835,7 +15835,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
@@ -15844,7 +15844,7 @@
         <v>188</v>
       </c>
       <c r="D5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
@@ -15858,7 +15858,7 @@
         <v>189</v>
       </c>
       <c r="D6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>19</v>
@@ -15872,13 +15872,13 @@
         <v>196</v>
       </c>
       <c r="D7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -15886,7 +15886,7 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>19</v>
@@ -15900,7 +15900,7 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>18</v>
@@ -15920,13 +15920,13 @@
         <v>321</v>
       </c>
       <c r="D11" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -15940,7 +15940,7 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>18</v>
@@ -15951,7 +15951,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
@@ -15960,18 +15960,18 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F15" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>328</v>
+        <v>775</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -15980,7 +15980,7 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>19</v>
@@ -15994,13 +15994,13 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F18" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -16019,7 +16019,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B21" t="s">
         <v>17</v>
@@ -16028,7 +16028,7 @@
         <v>321</v>
       </c>
       <c r="D21" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>19</v>
@@ -16042,7 +16042,7 @@
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>19</v>
@@ -16056,7 +16056,7 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>19</v>
@@ -16070,7 +16070,7 @@
         <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>18</v>
@@ -16081,7 +16081,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B26" t="s">
         <v>17</v>
@@ -16090,7 +16090,7 @@
         <v>321</v>
       </c>
       <c r="D26" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>19</v>
@@ -16115,7 +16115,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B29" t="s">
         <v>17</v>
@@ -16127,12 +16127,12 @@
         <v>19</v>
       </c>
       <c r="F29" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>19</v>
@@ -16143,7 +16143,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B32" t="s">
         <v>29</v>
@@ -16152,7 +16152,7 @@
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>19</v>
@@ -16166,7 +16166,7 @@
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>19</v>
@@ -16180,7 +16180,7 @@
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>19</v>
@@ -16194,13 +16194,13 @@
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F35" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -16208,18 +16208,18 @@
         <v>41</v>
       </c>
       <c r="D36" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F36" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B38" t="s">
         <v>29</v>
@@ -16228,13 +16228,13 @@
         <v>25</v>
       </c>
       <c r="D38" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F38" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -16242,7 +16242,7 @@
         <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>19</v>
@@ -16256,7 +16256,7 @@
         <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>19</v>
@@ -16270,13 +16270,13 @@
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F41" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -16284,7 +16284,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>18</v>
@@ -16295,7 +16295,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B44" t="s">
         <v>29</v>
@@ -16304,7 +16304,7 @@
         <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>19</v>
@@ -16318,13 +16318,13 @@
         <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F45" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -16343,7 +16343,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B48" t="s">
         <v>29</v>
@@ -16358,7 +16358,7 @@
         <v>19</v>
       </c>
       <c r="F48" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -16366,7 +16366,7 @@
         <v>25</v>
       </c>
       <c r="D49" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>19</v>
@@ -16380,18 +16380,18 @@
         <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F50" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B52" t="s">
         <v>32</v>
@@ -16414,13 +16414,13 @@
         <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F53" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -16439,7 +16439,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B56" t="s">
         <v>32</v>
@@ -16448,13 +16448,13 @@
         <v>4</v>
       </c>
       <c r="D56" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F56" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -16468,7 +16468,7 @@
         <v>321</v>
       </c>
       <c r="D58" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>19</v>
@@ -16482,7 +16482,7 @@
         <v>25</v>
       </c>
       <c r="D59" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>19</v>
@@ -16496,13 +16496,13 @@
         <v>4</v>
       </c>
       <c r="D60" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F60" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -16510,13 +16510,13 @@
         <v>3</v>
       </c>
       <c r="D61" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F61" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -16524,7 +16524,7 @@
         <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>18</v>
@@ -16535,13 +16535,13 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B64" t="s">
         <v>17</v>
       </c>
       <c r="D64" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>19</v>
@@ -16552,7 +16552,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>19</v>
@@ -16563,7 +16563,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B67" t="s">
         <v>17</v>
@@ -16572,7 +16572,7 @@
         <v>4</v>
       </c>
       <c r="D67" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>19</v>
@@ -16586,7 +16586,7 @@
         <v>3</v>
       </c>
       <c r="D68" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>19</v>
@@ -16600,18 +16600,18 @@
         <v>2</v>
       </c>
       <c r="D69" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F69" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B71" t="s">
         <v>17</v>
@@ -16626,12 +16626,12 @@
         <v>18</v>
       </c>
       <c r="F71" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B73" t="s">
         <v>17</v>
@@ -16654,7 +16654,7 @@
         <v>3</v>
       </c>
       <c r="D74" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>49</v>
@@ -16674,13 +16674,13 @@
         <v>321</v>
       </c>
       <c r="D76" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F76" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -16688,13 +16688,13 @@
         <v>25</v>
       </c>
       <c r="D77" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F77" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -16702,13 +16702,13 @@
         <v>4</v>
       </c>
       <c r="D78" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F78" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -16722,7 +16722,7 @@
         <v>18</v>
       </c>
       <c r="F79" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -16750,13 +16750,13 @@
         <v>3</v>
       </c>
       <c r="D82" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F82" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -16764,13 +16764,13 @@
         <v>2</v>
       </c>
       <c r="D83" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F83" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -16784,7 +16784,7 @@
         <v>4</v>
       </c>
       <c r="D85" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>19</v>
@@ -16812,7 +16812,7 @@
         <v>2</v>
       </c>
       <c r="D87" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>18</v>
@@ -16823,7 +16823,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B89" t="s">
         <v>20</v>
@@ -16832,13 +16832,13 @@
         <v>4</v>
       </c>
       <c r="D89" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F89" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -16855,8 +16855,8 @@
   </sheetPr>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16892,7 +16892,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -16901,7 +16901,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>19</v>
@@ -16915,13 +16915,13 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -16929,7 +16929,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>19</v>
@@ -16943,13 +16943,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -16977,7 +16977,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>19</v>
@@ -16991,7 +16991,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>19</v>
@@ -17005,18 +17005,18 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
@@ -17025,7 +17025,7 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>19</v>
@@ -17039,7 +17039,7 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>18</v>
@@ -17050,7 +17050,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>333</v>
+        <v>774</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
@@ -17059,18 +17059,18 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F15" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -17085,7 +17085,7 @@
         <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -17093,13 +17093,13 @@
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F18" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -17121,7 +17121,7 @@
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>19</v>
@@ -17135,18 +17135,18 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F21" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B23" t="s">
         <v>17</v>
@@ -17155,7 +17155,7 @@
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>19</v>
@@ -17169,7 +17169,7 @@
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>19</v>
@@ -17183,13 +17183,13 @@
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F25" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -17197,18 +17197,18 @@
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F26" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
@@ -17217,7 +17217,7 @@
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>18</v>
@@ -17228,7 +17228,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B30" t="s">
         <v>29</v>
@@ -17262,7 +17262,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B33" t="s">
         <v>29</v>
@@ -17277,7 +17277,7 @@
         <v>19</v>
       </c>
       <c r="F33" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -17285,7 +17285,7 @@
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>18</v>
@@ -17296,7 +17296,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B36" t="s">
         <v>29</v>
@@ -17305,7 +17305,7 @@
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>19</v>
@@ -17339,12 +17339,12 @@
         <v>18</v>
       </c>
       <c r="F38" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B40" t="s">
         <v>29</v>
@@ -17353,13 +17353,13 @@
         <v>321</v>
       </c>
       <c r="D40" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F40" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -17367,13 +17367,13 @@
         <v>25</v>
       </c>
       <c r="D41" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F41" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -17381,7 +17381,7 @@
         <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>18</v>
@@ -17392,7 +17392,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B44" t="s">
         <v>32</v>
@@ -17401,7 +17401,7 @@
         <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>19</v>
@@ -17415,7 +17415,7 @@
         <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>19</v>
@@ -17429,7 +17429,7 @@
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>18</v>

--- a/Tennis/WTA Tour/Na Li.xlsx
+++ b/Tennis/WTA Tour/Na Li.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7609" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18956F81-F15A-4F02-A3A7-B47EAF05EBAE}"/>
+  <xr:revisionPtr revIDLastSave="7617" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EA67CF3-5ED5-452A-B44C-C1730E791300}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="28800" windowHeight="15345" firstSheet="9" activeTab="16" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="28800" windowHeight="15285" firstSheet="9" activeTab="16" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="1999" sheetId="5" r:id="rId1"/>
@@ -30,8 +30,6 @@
     <sheet name="2013" sheetId="19" r:id="rId15"/>
     <sheet name="2014" sheetId="36" r:id="rId16"/>
     <sheet name="Stats" sheetId="1" r:id="rId17"/>
-    <sheet name="Wins-Losses" sheetId="37" r:id="rId18"/>
-    <sheet name="Winning Percentile Range" sheetId="38" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2717,7 +2715,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9F43-46A3-8D86-9A8392A82EB3}"/>
+              <c16:uniqueId val="{00000000-737D-4C17-B512-70341B5AF57F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2861,7 +2859,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9F43-46A3-8D86-9A8392A82EB3}"/>
+              <c16:uniqueId val="{00000001-737D-4C17-B512-70341B5AF57F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3163,6 +3161,11 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -3410,7 +3413,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1A45-42B8-8523-427CFED794EB}"/>
+              <c16:uniqueId val="{00000001-5113-42AE-AB06-DB3BF79588F2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3712,6 +3715,11 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -4801,47 +4809,31 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{35E954B3-444B-4142-8B42-2FD824968604}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{2F114BCB-9880-48C0-9CD7-AE0157F801E5}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</chartsheet>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185736</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAE7856C-9774-C05F-31BA-976758316270}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0565022B-8A15-5ADD-7414-A1C7C733A2DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4854,27 +4846,30 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0877334D-31D9-B330-3102-AE3A295817BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15F015DC-FCB2-F368-4BA6-EFA05DB59DF4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4882,13 +4877,17 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11712,7 +11711,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12149,6 +12148,7 @@
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Tennis/WTA Tour/Na Li.xlsx
+++ b/Tennis/WTA Tour/Na Li.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7617" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EA67CF3-5ED5-452A-B44C-C1730E791300}"/>
+  <xr:revisionPtr revIDLastSave="7618" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA777FCD-3742-44EE-87D5-B92C18C91461}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="28800" windowHeight="15285" firstSheet="9" activeTab="16" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="9" activeTab="16" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="1999" sheetId="5" r:id="rId1"/>
@@ -4851,14 +4851,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11711,7 +11711,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+      <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
